--- a/jpcore-r4/develop/StructureDefinition-jp-medication.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medication.xlsx
@@ -1198,40 +1198,40 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="41.7265625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="13.5078125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="41.73046875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="13.51171875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="52.78125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="55.390625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="48.03515625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="55.39453125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="48.0390625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="195.5390625" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="98.9296875" customWidth="true" bestFit="true"/>

--- a/jpcore-r4/develop/StructureDefinition-jp-medication.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medication.xlsx
@@ -677,7 +677,7 @@
     <t>Element.extension</t>
   </si>
   <si>
-    <t>DrugNo</t>
+    <t>drugNo</t>
   </si>
   <si>
     <t xml:space="preserve">Extension {http://jpfhir.jp/fhir/core/Extension/StructureDefinition/JP_Medication_Ingredient_DrugNo}
@@ -781,7 +781,7 @@
     <t>Extensions are always sliced by (at least) url</t>
   </si>
   <si>
-    <t>StrenghtType</t>
+    <t>strenghtType</t>
   </si>
   <si>
     <t xml:space="preserve">Extension {http://jpfhir.jp/fhir/core/Extension/StructureDefinition/JP_Medication_IngredientStrength_StrengthType}
@@ -1199,7 +1199,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="41.73046875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="13.51171875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="13.3046875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>

--- a/jpcore-r4/develop/StructureDefinition-jp-medication.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medication.xlsx
@@ -558,7 +558,7 @@
   </si>
   <si>
     <t>Describes the details of the manufacturer of the medication product.  This is not intended to represent the distributor of a medication product.
-医薬品の製造元の詳細を説明します。これは、医薬品の販売業者を表すことを意図したものではない。</t>
+医薬品の製造元の詳細を説明する。これは、医薬品の販売業者を表すことを意図したものではない。</t>
   </si>
   <si>
     <t>no mapping</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medication.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medication.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1260" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1259" uniqueCount="273">
   <si>
     <t>Property</t>
   </si>
@@ -1122,9 +1122,7 @@
       <c r="A13" t="s" s="2">
         <v>23</v>
       </c>
-      <c r="B13" t="s" s="2">
-        <v>22</v>
-      </c>
+      <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">

--- a/jpcore-r4/develop/StructureDefinition-jp-medication.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medication.xlsx
@@ -75,7 +75,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>Japan</t>
+    <t>JP</t>
   </si>
   <si>
     <t>Description</t>
@@ -259,8 +259,8 @@
 このResourceは薬剤を処方し、払い出し（調剤）、その投与を定義し、IDを付与するためにまず利用され、薬剤の使用状態を示すためにも使われる。</t>
   </si>
   <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
+    <t>dom-2:リソースが別のリソースに含まれている場合、ネストされたリソースを含めてはなりません / If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
+dom-3:リソースが別のリソースに含まれている場合、それはリソースの他の場所から参照されるか、含有リソースを参照するものとします / If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:リソースが別のリソースに含まれている場合、meta.versionidまたはmeta.lastupdatedを持たないものとします / If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:別のリソースにリソースが含まれている場合、セキュリティラベルはありません / If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:リソースには、堅牢な管理のための叙述(Narative)が必要です / A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>NewRx/MedicationPrescribed@@ -307,16 +307,16 @@
 </t>
   </si>
   <si>
-    <t>Metadata about the resource</t>
-  </si>
-  <si>
-    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
+    <t>リソースに関するメタデータ / Metadata about the resource</t>
+  </si>
+  <si>
+    <t>リソースに関するメタデータ。これは、インフラストラクチャによって維持されるコンテンツです。コンテンツの変更は、常にリソースのバージョンの変更に関連付けられているとは限りません。 / The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
   </si>
   <si>
     <t>Resource.meta</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+    <t xml:space="preserve">ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
   </si>
   <si>
@@ -327,13 +327,13 @@
 </t>
   </si>
   <si>
-    <t>A set of rules under which this content was created</t>
-  </si>
-  <si>
-    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
-  </si>
-  <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
+    <t>このコンテンツが作成されたルールのセット / A set of rules under which this content was created</t>
+  </si>
+  <si>
+    <t>リソースが構築されたときに従った一連のルールへの参照。コンテンツの処理時に理解する必要があります。多くの場合、これは他のプロファイルなどとともに特別なルールを定義する実装ガイドへの参照です。 / A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
+  </si>
+  <si>
+    <t>このルールセットを主張することは、コンテンツが限られた取引パートナーのセットによってのみ理解されることを制限します。これにより、本質的に長期的にデータの有用性が制限されます。ただし、既存の健康エコシステムは非常に破壊されており、一般的に計算可能な意味でデータを定義、収集、交換する準備ができていません。可能な限り、実装者や仕様ライターはこの要素の使用を避ける必要があります。多くの場合、使用する場合、URLは、これらの特別なルールを他のプロファイル、バリューセットなどとともに叙述(Narative)の一部として定義する実装ガイドへの参照です。 / Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
   </si>
   <si>
     <t>Resource.implicitRules</t>
@@ -346,19 +346,19 @@
 </t>
   </si>
   <si>
-    <t>Language of the resource content</t>
-  </si>
-  <si>
-    <t>The base language in which the resource is written.</t>
-  </si>
-  <si>
-    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
+    <t>リソースコンテンツの言語 / Language of the resource content</t>
+  </si>
+  <si>
+    <t>リソースが書かれている基本言語。 / The base language in which the resource is written.</t>
+  </si>
+  <si>
+    <t>言語は、インデックス作成とアクセシビリティをサポートするために提供されます（通常、テキストから音声までのサービスなどのサービスが言語タグを使用します）。叙述(Narative)のHTML言語タグは、叙述(Narative)に適用されます。リソース上の言語タグを使用して、リソース内のデータから生成された他のプレゼンテーションの言語を指定できます。すべてのコンテンツが基本言語である必要はありません。リソース。言語は、叙述(Narative)に自動的に適用されると想定されるべきではありません。言語が指定されている場合、HTMLのDIV要素にも指定されている場合（XML：LangとHTML Lang属性の関係については、HTML5のルールを参照してください）。 / Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
   </si>
   <si>
     <t>preferred</t>
   </si>
   <si>
-    <t>A human language.</t>
+    <t>人間の言語。 / A human language.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/languages</t>
@@ -378,13 +378,13 @@
 </t>
   </si>
   <si>
-    <t>Text summary of the resource, for human interpretation</t>
-  </si>
-  <si>
-    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
-  </si>
-  <si>
-    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
+    <t>人間の解釈のためのリソースのテキスト概要 / Text summary of the resource, for human interpretation</t>
+  </si>
+  <si>
+    <t>リソースの概要を含み、人間へのリソースの内容を表すために使用できる人間の読み取り可能な叙述(Narative)。叙述(Narative)はすべての構造化されたデータをエンコードする必要はありませんが、人間が叙述(Narative)を読むだけで「臨床的に安全」にするために十分な詳細を含める必要があります。リソースの定義は、臨床的安全を確保するために、叙述(Narative)で表現するコンテンツを定義する場合があります。 / A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
+  </si>
+  <si>
+    <t>含まれるリソースには叙述(Narative)がありません。含まれていないリソースには叙述(Narative)が必要です。場合によっては、リソースには、追加の個別のデータがほとんどまたはまったくないテキストのみがあります（すべてのMinoccur = 1要素が満たされている限り）。これは、情報がtext blob (バイナリー ラージ オブジェクト)としてキャプチャされるレガシーシステムからのデータ、またはテキストが生またはナレーションされ、エンコードされた情報が後で追加される場合に必要になる場合があります。 / Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
   </si>
   <si>
     <t>DomainResource.text</t>
@@ -404,13 +404,13 @@
 </t>
   </si>
   <si>
-    <t>Contained, inline Resources</t>
-  </si>
-  <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
-  </si>
-  <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
+    <t>インラインリソースが含まれています / Contained, inline Resources</t>
+  </si>
+  <si>
+    <t>これらのリソースには、それらを含むリソースを除いて独立した存在はありません - 独立して特定することはできず、独自の独立したトランザクションスコープを持つこともできません。 / These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
+  </si>
+  <si>
+    <t>識別が失われると、コンテンツを適切に識別できる場合は、これを行うべきではありません。含まれるリソースには、メタ要素にプロファイルとタグがある場合がありますが、セキュリティラベルはありません。 / This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
   </si>
   <si>
     <t>DomainResource.contained</t>
@@ -430,33 +430,34 @@
 </t>
   </si>
   <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+    <t>実装で定義された追加のコンテンツ / Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>リソースの基本的な定義の一部ではない追加情報を表すために使用できます。拡張機能を安全で管理しやすくするために、拡張機能の定義と使用に適用される厳格なガバナンスセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たされる一連の要件があります。 / May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>拡張機能を使用または定義する機関や管轄権に関係なく、アプリケーション、プロジェクト、または標準による拡張機能の使用に関連するスティグマはありません。拡張機能の使用は、FHIR仕様がすべての人にコアレベルのシンプルさを保持できるようにするものです。 / There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
     <t>DomainResource.extension</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+    <t>ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:両方ではなく、拡張または値[x]が必要です / Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
     <t>Medication.modifierExtension</t>
   </si>
   <si>
-    <t>Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+    <t>無視できない拡張機能 / Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>リソースの基本的な定義の一部ではなく、それを含む要素の理解および/または含有要素の子孫の理解を変更するために使用される場合があります。通常、修飾子要素は否定または資格を提供します。拡張機能を安全で管理しやすくするために、拡張機能の定義と使用に適用される厳格なガバナンスセットがあります。実装者は拡張機能を定義することが許可されていますが、拡張機能の定義の一部として満たされる一連の要件があります。アプリケーションの処理リソースは、修飾子拡張機能をチェックする必要があります。
+モディファイア拡張は、リソースまたはdomainResource上の要素の意味を変更してはなりません（修飾軸自体の意味を変更することはできません）。 / May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
+    <t>修飾子拡張機能により、安全に無視できる大部分の拡張機能と明確に区別できるように、安全に無視できない拡張機能が可能になります。これにより、実装者が拡張の存在を禁止する必要性を排除することにより、相互運用性が促進されます。詳細については、[修飾子拡張の定義]（拡張性.html＃modifierextension）を参照してください。 / Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
     <t>DomainResource.modifierExtension</t>
@@ -525,7 +526,7 @@
     <t>Medication.status</t>
   </si>
   <si>
-    <t>active | inactive | entered-in-error</t>
+    <t>アクティブ|非アクティブ|エラーに入った / active | inactive | entered-in-error</t>
   </si>
   <si>
     <t>JP Coreでは active で固定される。
@@ -538,7 +539,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>A coded concept defining if the medication is in active use.</t>
+    <t>薬が積極的に使用されているかどうかを定義するコード化された概念。 / A coded concept defining if the medication is in active use.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/medication-status|4.0.1</t>
@@ -576,7 +577,7 @@
     <t>Medication.form</t>
   </si>
   <si>
-    <t>powder | tablets | capsule +</t>
+    <t>パウダー|タブレット|カプセル + / powder | tablets | capsule +</t>
   </si>
   <si>
     <t>製品の剤型についての説明。散剤(powder)、錠剤(tablets)、カプセル(capsule)など。</t>
@@ -588,7 +589,7 @@
     <t>example</t>
   </si>
   <si>
-    <t>A coded concept defining the form of a medication.</t>
+    <t>薬の形を定義するコード化された概念。 / A coded concept defining the form of a medication.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/medication-form-codes</t>
@@ -646,10 +647,10 @@
     <t>Medication.ingredient.id</t>
   </si>
   <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+    <t>要素間参照のための一意のID / Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>リソース内の要素の一意のID（内部参照用）。これは、スペースを含まない文字列値である場合があります。 / Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
   </si>
   <si>
     <t>Element.id</t>
@@ -698,10 +699,11 @@
 user contentmodifiers</t>
   </si>
   <si>
-    <t>Extensions that cannot be ignored even if unrecognized</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+    <t>認識されていなくても無視できない拡張機能 / Extensions that cannot be ignored even if unrecognized</t>
+  </si>
+  <si>
+    <t>要素の基本的な定義の一部ではなく、それが含まれている要素の理解、および/または含まれる要素の子孫の理解を変更するために使用される場合があります。通常、修飾子要素は否定または資格を提供します。拡張機能を安全で管理しやすくするために、拡張機能の定義と使用に適用される厳格なガバナンスセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たされる一連の要件があります。アプリケーションの処理リソースは、修飾子拡張機能をチェックする必要があります。
+モディファイア拡張は、リソースまたはdomainResource上の要素の意味を変更してはなりません（修飾軸自体の意味を変更することはできません）。 / May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
@@ -775,7 +777,7 @@
     <t>Medication.ingredient.strength.extension</t>
   </si>
   <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+    <t>要素の基本的な定義の一部ではない追加情報を表すために使用できます。拡張機能を安全で管理しやすくするために、拡張機能の定義と使用に適用される厳格なガバナンスセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たされる一連の要件があります。 / May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>Extensions are always sliced by (at least) url</t>
@@ -801,10 +803,10 @@
 </t>
   </si>
   <si>
-    <t>Numerator value</t>
-  </si>
-  <si>
-    <t>The value of the numerator.</t>
+    <t>分子値 / Numerator value</t>
+  </si>
+  <si>
+    <t>分子の値。 / The value of the numerator.</t>
   </si>
   <si>
     <t>Ratio.numerator</t>
@@ -816,10 +818,10 @@
     <t>Medication.ingredient.strength.denominator</t>
   </si>
   <si>
-    <t>Denominator value</t>
-  </si>
-  <si>
-    <t>The value of the denominator.</t>
+    <t>分母値 / Denominator value</t>
+  </si>
+  <si>
+    <t>分母の値。 / The value of the denominator.</t>
   </si>
   <si>
     <t>Ratio.denominator</t>
@@ -1206,7 +1208,7 @@
     <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="52.78125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="76.5703125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1219,7 +1221,7 @@
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="55.39453125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="92.3828125" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="48.0390625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>

--- a/jpcore-r4/develop/StructureDefinition-jp-medication.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medication.xlsx
@@ -75,7 +75,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>JP</t>
+    <t>Japan</t>
   </si>
   <si>
     <t>Description</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medication.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medication.xlsx
@@ -259,8 +259,8 @@
 このResourceは薬剤を処方し、払い出し（調剤）、その投与を定義し、IDを付与するためにまず利用され、薬剤の使用状態を示すためにも使われる。</t>
   </si>
   <si>
-    <t>dom-2:リソースが別のリソースに含まれている場合、ネストされたリソースを含めてはなりません / If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:リソースが別のリソースに含まれている場合、それはリソースの他の場所から参照されるか、含有リソースを参照するものとします / If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:リソースが別のリソースに含まれている場合、meta.versionidまたはmeta.lastupdatedを持たないものとします / If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:別のリソースにリソースが含まれている場合、セキュリティラベルはありません / If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:リソースには、堅牢な管理のための叙述(Narative)が必要です / A resource should have narrative for robust management {text.`div`.exists()}</t>
+    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>NewRx/MedicationPrescribed@@ -307,16 +307,16 @@
 </t>
   </si>
   <si>
-    <t>リソースに関するメタデータ / Metadata about the resource</t>
-  </si>
-  <si>
-    <t>リソースに関するメタデータ。これは、インフラストラクチャによって維持されるコンテンツです。コンテンツの変更は、常にリソースのバージョンの変更に関連付けられているとは限りません。 / The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
+    <t>Metadata about the resource</t>
+  </si>
+  <si>
+    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
   </si>
   <si>
     <t>Resource.meta</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
   </si>
   <si>
@@ -327,13 +327,13 @@
 </t>
   </si>
   <si>
-    <t>このコンテンツが作成されたルールのセット / A set of rules under which this content was created</t>
-  </si>
-  <si>
-    <t>リソースが構築されたときに従った一連のルールへの参照。コンテンツの処理時に理解する必要があります。多くの場合、これは他のプロファイルなどとともに特別なルールを定義する実装ガイドへの参照です。 / A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
-  </si>
-  <si>
-    <t>このルールセットを主張することは、コンテンツが限られた取引パートナーのセットによってのみ理解されることを制限します。これにより、本質的に長期的にデータの有用性が制限されます。ただし、既存の健康エコシステムは非常に破壊されており、一般的に計算可能な意味でデータを定義、収集、交換する準備ができていません。可能な限り、実装者や仕様ライターはこの要素の使用を避ける必要があります。多くの場合、使用する場合、URLは、これらの特別なルールを他のプロファイル、バリューセットなどとともに叙述(Narative)の一部として定義する実装ガイドへの参照です。 / Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
+    <t>A set of rules under which this content was created</t>
+  </si>
+  <si>
+    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
+  </si>
+  <si>
+    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
   </si>
   <si>
     <t>Resource.implicitRules</t>
@@ -346,19 +346,19 @@
 </t>
   </si>
   <si>
-    <t>リソースコンテンツの言語 / Language of the resource content</t>
-  </si>
-  <si>
-    <t>リソースが書かれている基本言語。 / The base language in which the resource is written.</t>
-  </si>
-  <si>
-    <t>言語は、インデックス作成とアクセシビリティをサポートするために提供されます（通常、テキストから音声までのサービスなどのサービスが言語タグを使用します）。叙述(Narative)のHTML言語タグは、叙述(Narative)に適用されます。リソース上の言語タグを使用して、リソース内のデータから生成された他のプレゼンテーションの言語を指定できます。すべてのコンテンツが基本言語である必要はありません。リソース。言語は、叙述(Narative)に自動的に適用されると想定されるべきではありません。言語が指定されている場合、HTMLのDIV要素にも指定されている場合（XML：LangとHTML Lang属性の関係については、HTML5のルールを参照してください）。 / Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
+    <t>Language of the resource content</t>
+  </si>
+  <si>
+    <t>The base language in which the resource is written.</t>
+  </si>
+  <si>
+    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
   </si>
   <si>
     <t>preferred</t>
   </si>
   <si>
-    <t>人間の言語。 / A human language.</t>
+    <t>A human language.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/languages</t>
@@ -378,13 +378,13 @@
 </t>
   </si>
   <si>
-    <t>人間の解釈のためのリソースのテキスト概要 / Text summary of the resource, for human interpretation</t>
-  </si>
-  <si>
-    <t>リソースの概要を含み、人間へのリソースの内容を表すために使用できる人間の読み取り可能な叙述(Narative)。叙述(Narative)はすべての構造化されたデータをエンコードする必要はありませんが、人間が叙述(Narative)を読むだけで「臨床的に安全」にするために十分な詳細を含める必要があります。リソースの定義は、臨床的安全を確保するために、叙述(Narative)で表現するコンテンツを定義する場合があります。 / A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
-  </si>
-  <si>
-    <t>含まれるリソースには叙述(Narative)がありません。含まれていないリソースには叙述(Narative)が必要です。場合によっては、リソースには、追加の個別のデータがほとんどまたはまったくないテキストのみがあります（すべてのMinoccur = 1要素が満たされている限り）。これは、情報がtext blob (バイナリー ラージ オブジェクト)としてキャプチャされるレガシーシステムからのデータ、またはテキストが生またはナレーションされ、エンコードされた情報が後で追加される場合に必要になる場合があります。 / Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
+    <t>Text summary of the resource, for human interpretation</t>
+  </si>
+  <si>
+    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
+  </si>
+  <si>
+    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
   </si>
   <si>
     <t>DomainResource.text</t>
@@ -404,13 +404,13 @@
 </t>
   </si>
   <si>
-    <t>インラインリソースが含まれています / Contained, inline Resources</t>
-  </si>
-  <si>
-    <t>これらのリソースには、それらを含むリソースを除いて独立した存在はありません - 独立して特定することはできず、独自の独立したトランザクションスコープを持つこともできません。 / These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
-  </si>
-  <si>
-    <t>識別が失われると、コンテンツを適切に識別できる場合は、これを行うべきではありません。含まれるリソースには、メタ要素にプロファイルとタグがある場合がありますが、セキュリティラベルはありません。 / This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
+    <t>Contained, inline Resources</t>
+  </si>
+  <si>
+    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
+  </si>
+  <si>
+    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
   </si>
   <si>
     <t>DomainResource.contained</t>
@@ -430,34 +430,33 @@
 </t>
   </si>
   <si>
-    <t>実装で定義された追加のコンテンツ / Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>リソースの基本的な定義の一部ではない追加情報を表すために使用できます。拡張機能を安全で管理しやすくするために、拡張機能の定義と使用に適用される厳格なガバナンスセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たされる一連の要件があります。 / May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>拡張機能を使用または定義する機関や管轄権に関係なく、アプリケーション、プロジェクト、または標準による拡張機能の使用に関連するスティグマはありません。拡張機能の使用は、FHIR仕様がすべての人にコアレベルのシンプルさを保持できるようにするものです。 / There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
     <t>DomainResource.extension</t>
   </si>
   <si>
-    <t>ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:両方ではなく、拡張または値[x]が必要です / Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
     <t>Medication.modifierExtension</t>
   </si>
   <si>
-    <t>無視できない拡張機能 / Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>リソースの基本的な定義の一部ではなく、それを含む要素の理解および/または含有要素の子孫の理解を変更するために使用される場合があります。通常、修飾子要素は否定または資格を提供します。拡張機能を安全で管理しやすくするために、拡張機能の定義と使用に適用される厳格なガバナンスセットがあります。実装者は拡張機能を定義することが許可されていますが、拡張機能の定義の一部として満たされる一連の要件があります。アプリケーションの処理リソースは、修飾子拡張機能をチェックする必要があります。
-モディファイア拡張は、リソースまたはdomainResource上の要素の意味を変更してはなりません（修飾軸自体の意味を変更することはできません）。 / May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+    <t>Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
-    <t>修飾子拡張機能により、安全に無視できる大部分の拡張機能と明確に区別できるように、安全に無視できない拡張機能が可能になります。これにより、実装者が拡張の存在を禁止する必要性を排除することにより、相互運用性が促進されます。詳細については、[修飾子拡張の定義]（拡張性.html＃modifierextension）を参照してください。 / Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
     <t>DomainResource.modifierExtension</t>
@@ -526,7 +525,7 @@
     <t>Medication.status</t>
   </si>
   <si>
-    <t>アクティブ|非アクティブ|エラーに入った / active | inactive | entered-in-error</t>
+    <t>active | inactive | entered-in-error</t>
   </si>
   <si>
     <t>JP Coreでは active で固定される。
@@ -539,7 +538,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>薬が積極的に使用されているかどうかを定義するコード化された概念。 / A coded concept defining if the medication is in active use.</t>
+    <t>A coded concept defining if the medication is in active use.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/medication-status|4.0.1</t>
@@ -577,7 +576,7 @@
     <t>Medication.form</t>
   </si>
   <si>
-    <t>パウダー|タブレット|カプセル + / powder | tablets | capsule +</t>
+    <t>powder | tablets | capsule +</t>
   </si>
   <si>
     <t>製品の剤型についての説明。散剤(powder)、錠剤(tablets)、カプセル(capsule)など。</t>
@@ -589,7 +588,7 @@
     <t>example</t>
   </si>
   <si>
-    <t>薬の形を定義するコード化された概念。 / A coded concept defining the form of a medication.</t>
+    <t>A coded concept defining the form of a medication.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/medication-form-codes</t>
@@ -647,10 +646,10 @@
     <t>Medication.ingredient.id</t>
   </si>
   <si>
-    <t>要素間参照のための一意のID / Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>リソース内の要素の一意のID（内部参照用）。これは、スペースを含まない文字列値である場合があります。 / Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
   </si>
   <si>
     <t>Element.id</t>
@@ -699,11 +698,10 @@
 user contentmodifiers</t>
   </si>
   <si>
-    <t>認識されていなくても無視できない拡張機能 / Extensions that cannot be ignored even if unrecognized</t>
-  </si>
-  <si>
-    <t>要素の基本的な定義の一部ではなく、それが含まれている要素の理解、および/または含まれる要素の子孫の理解を変更するために使用される場合があります。通常、修飾子要素は否定または資格を提供します。拡張機能を安全で管理しやすくするために、拡張機能の定義と使用に適用される厳格なガバナンスセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たされる一連の要件があります。アプリケーションの処理リソースは、修飾子拡張機能をチェックする必要があります。
-モディファイア拡張は、リソースまたはdomainResource上の要素の意味を変更してはなりません（修飾軸自体の意味を変更することはできません）。 / May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+    <t>Extensions that cannot be ignored even if unrecognized</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
@@ -777,7 +775,7 @@
     <t>Medication.ingredient.strength.extension</t>
   </si>
   <si>
-    <t>要素の基本的な定義の一部ではない追加情報を表すために使用できます。拡張機能を安全で管理しやすくするために、拡張機能の定義と使用に適用される厳格なガバナンスセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たされる一連の要件があります。 / May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>Extensions are always sliced by (at least) url</t>
@@ -803,10 +801,10 @@
 </t>
   </si>
   <si>
-    <t>分子値 / Numerator value</t>
-  </si>
-  <si>
-    <t>分子の値。 / The value of the numerator.</t>
+    <t>Numerator value</t>
+  </si>
+  <si>
+    <t>The value of the numerator.</t>
   </si>
   <si>
     <t>Ratio.numerator</t>
@@ -818,10 +816,10 @@
     <t>Medication.ingredient.strength.denominator</t>
   </si>
   <si>
-    <t>分母値 / Denominator value</t>
-  </si>
-  <si>
-    <t>分母の値。 / The value of the denominator.</t>
+    <t>Denominator value</t>
+  </si>
+  <si>
+    <t>The value of the denominator.</t>
   </si>
   <si>
     <t>Ratio.denominator</t>
@@ -1208,7 +1206,7 @@
     <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="76.5703125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="52.78125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1221,7 +1219,7 @@
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="92.3828125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="55.39453125" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="48.0390625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>

--- a/jpcore-r4/develop/StructureDefinition-jp-medication.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medication.xlsx
@@ -496,7 +496,7 @@
 使用法について注記：日本ではHOTコードを利用することが推奨される。一般的な薬剤コードとしてRxNorm、SNOMD CT, IDMPなど標準的な医薬品コードを使うことができる。国や地域に特有のローカルコードも使うことができ、他のコードに変換することもできる。</t>
   </si>
   <si>
-    <t>使われるコンテキストによるが、ユーザー(処方や調剤などを行った人）によって実際にコードが選択されたのであれば、coding.userSelectedはtrueとすることとなる。Codingのデータ型で説明されているように、「ユーザーインターフェース（たとえば、選択肢から特定の項目をユーザーが選択するような形式）で特定のコードをユーザーが選択したのであれば、"userSlected"に記録されてもよい」
+    <t>使われるコンテキストによるが、ユーザー(処方や調剤などを行った人）によって実際にコードが選択されたのであれば、coding.userSelectedはtrueとすることとなる。Codingのデータ型で説明されているように、「ユーザーインターフェース（たとえば、選択肢から特定の項目をユーザーが選択するような形式）で特定のコードをユーザーが選択したのであれば、"userSelected"に記録されてもよい」
 ユーザーが選択したコードがあれば、その選択がコード変換などで優先される。そのほかのコードは代替のコードシステムか低粒度のコード（たとえば、ベンダー固有の初期値のための一般的なコード）に文字列変換変換するしかない。</t>
   </si>
   <si>
@@ -740,8 +740,7 @@
   </si>
   <si>
     <t>この成分が薬剤の治療効果に影響するかどうかの指標
-I
-ndication of whether this ingredient affects the therapeutic action of the drug.</t>
+Indication of whether this ingredient affects the therapeutic action of the drug.</t>
   </si>
   <si>
     <t>Trueであれば、この成分が薬剤の治療効果に影響がある（たとえば有効）ということを示す。
@@ -781,7 +780,7 @@
     <t>Extensions are always sliced by (at least) url</t>
   </si>
   <si>
-    <t>strenghtType</t>
+    <t>strengthType</t>
   </si>
   <si>
     <t xml:space="preserve">Extension {http://jpfhir.jp/fhir/core/Extension/StructureDefinition/JP_Medication_IngredientStrength_StrengthType}

--- a/jpcore-r4/develop/StructureDefinition-jp-medication.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medication.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1259" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1399" uniqueCount="293">
   <si>
     <t>Property</t>
   </si>
@@ -605,6 +605,95 @@
     <t>RXO-5-Requested Dosage Form / RXE-6-Give Dosage Form / RXD-6-Actual Dosage Form / RXG-8-Give Dosage Form / RXA-8-Administered Dosage Form</t>
   </si>
   <si>
+    <t>Medication.form.id</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Medication.form.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>Medication.form.coding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding
+</t>
+  </si>
+  <si>
+    <t>Code defined by a terminology system</t>
+  </si>
+  <si>
+    <t>A reference to a code defined by a terminology system.</t>
+  </si>
+  <si>
+    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
+  </si>
+  <si>
+    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
+  </si>
+  <si>
+    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationFormMERIT9_VS</t>
+  </si>
+  <si>
+    <t>CodeableConcept.coding</t>
+  </si>
+  <si>
+    <t>union(., ./translation)</t>
+  </si>
+  <si>
+    <t>C*E.1-8, C*E.10-22</t>
+  </si>
+  <si>
+    <t>Medication.form.text</t>
+  </si>
+  <si>
+    <t>Plain text representation of the concept</t>
+  </si>
+  <si>
+    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
+  </si>
+  <si>
+    <t>Very often the text is the same as a displayName of one of the codings.</t>
+  </si>
+  <si>
+    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.text</t>
+  </si>
+  <si>
+    <t>./originalText[mediaType/code="text/plain"]/data</t>
+  </si>
+  <si>
+    <t>C*E.9. But note many systems use C*E.2 for this</t>
+  </si>
+  <si>
     <t>Medication.amount</t>
   </si>
   <si>
@@ -646,18 +735,6 @@
     <t>Medication.ingredient.id</t>
   </si>
   <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>Medication.ingredient.extension</t>
   </si>
   <si>
@@ -665,16 +742,6 @@
   </si>
   <si>
     <t>An Extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
   </si>
   <si>
     <t>drugNo</t>
@@ -772,12 +839,6 @@
   </si>
   <si>
     <t>Medication.ingredient.strength.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
   </si>
   <si>
     <t>strengthType</t>
@@ -1186,7 +1247,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM35"/>
+  <dimension ref="A1:AM39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1219,7 +1280,7 @@
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="55.39453125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="48.0390625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="63.125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
@@ -2927,20 +2988,18 @@
         <v>76</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J16" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K16" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="K16" t="s" s="2">
+      <c r="L16" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="L16" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>189</v>
-      </c>
+      <c r="M16" s="2"/>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
         <v>76</v>
@@ -2989,7 +3048,7 @@
         <v>76</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>77</v>
@@ -3001,13 +3060,13 @@
         <v>76</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="AJ16" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>76</v>
@@ -3018,11 +3077,11 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>76</v>
+        <v>130</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
@@ -3041,16 +3100,16 @@
         <v>76</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>192</v>
+        <v>131</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>193</v>
+        <v>132</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>195</v>
+        <v>134</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
@@ -3088,19 +3147,19 @@
         <v>76</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>76</v>
+        <v>192</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>76</v>
+        <v>193</v>
       </c>
       <c r="AC17" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>76</v>
+        <v>194</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>77</v>
@@ -3112,13 +3171,13 @@
         <v>76</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>76</v>
@@ -3129,7 +3188,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3140,7 +3199,7 @@
         <v>77</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>76</v>
@@ -3149,10 +3208,10 @@
         <v>76</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>87</v>
+        <v>197</v>
       </c>
       <c r="K18" t="s" s="2">
         <v>198</v>
@@ -3160,8 +3219,12 @@
       <c r="L18" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
+      <c r="M18" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="N18" t="s" s="2">
+        <v>201</v>
+      </c>
       <c r="O18" t="s" s="2">
         <v>76</v>
       </c>
@@ -3185,13 +3248,11 @@
         <v>76</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X18" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="X18" s="2"/>
       <c r="Y18" t="s" s="2">
-        <v>76</v>
+        <v>202</v>
       </c>
       <c r="Z18" t="s" s="2">
         <v>76</v>
@@ -3209,36 +3270,36 @@
         <v>76</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ18" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3249,7 +3310,7 @@
         <v>77</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>76</v>
@@ -3258,19 +3319,23 @@
         <v>76</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>131</v>
+        <v>87</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
+        <v>208</v>
+      </c>
+      <c r="M19" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="N19" t="s" s="2">
+        <v>210</v>
+      </c>
       <c r="O19" t="s" s="2">
         <v>76</v>
       </c>
@@ -3306,50 +3371,50 @@
         <v>76</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="AB19" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="AB19" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="AC19" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>206</v>
+        <v>76</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>76</v>
+        <v>212</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>76</v>
+        <v>213</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="B20" t="s" s="2">
-        <v>208</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
         <v>76</v>
       </c>
@@ -3358,7 +3423,7 @@
         <v>77</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>76</v>
@@ -3367,18 +3432,20 @@
         <v>76</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="M20" s="2"/>
+        <v>217</v>
+      </c>
+      <c r="M20" t="s" s="2">
+        <v>218</v>
+      </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
         <v>76</v>
@@ -3427,25 +3494,25 @@
         <v>76</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>211</v>
+        <v>76</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>76</v>
+        <v>219</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>76</v>
@@ -3456,11 +3523,11 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>213</v>
+        <v>76</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
@@ -3473,26 +3540,24 @@
         <v>76</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>131</v>
+        <v>221</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>140</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
         <v>76</v>
       </c>
@@ -3540,7 +3605,7 @@
         <v>76</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>77</v>
@@ -3552,13 +3617,13 @@
         <v>76</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>128</v>
+        <v>225</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>76</v>
@@ -3569,7 +3634,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3577,7 +3642,7 @@
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F22" t="s" s="2">
         <v>85</v>
@@ -3592,20 +3657,16 @@
         <v>76</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>149</v>
+        <v>87</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>218</v>
+        <v>186</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>221</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>76</v>
       </c>
@@ -3653,10 +3714,10 @@
         <v>76</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>217</v>
+        <v>188</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>85</v>
@@ -3665,24 +3726,24 @@
         <v>76</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>155</v>
+        <v>76</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>222</v>
+        <v>189</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>223</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3693,7 +3754,7 @@
         <v>77</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>76</v>
@@ -3705,18 +3766,16 @@
         <v>76</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>225</v>
+        <v>131</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="M23" s="2"/>
-      <c r="N23" t="s" s="2">
-        <v>228</v>
-      </c>
+      <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>76</v>
       </c>
@@ -3752,37 +3811,35 @@
         <v>76</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB23" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="AB23" s="2"/>
       <c r="AC23" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>76</v>
+        <v>194</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>224</v>
+        <v>195</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>229</v>
+        <v>76</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>76</v>
@@ -3793,18 +3850,20 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="B24" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
         <v>76</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>76</v>
@@ -3816,17 +3875,15 @@
         <v>76</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>186</v>
+        <v>231</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L24" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="M24" t="s" s="2">
-        <v>233</v>
-      </c>
+      <c r="M24" s="2"/>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>76</v>
@@ -3875,68 +3932,72 @@
         <v>76</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>230</v>
+        <v>195</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>76</v>
+        <v>233</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>234</v>
+        <v>76</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>190</v>
+        <v>76</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>235</v>
+        <v>76</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>76</v>
+        <v>235</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>87</v>
+        <v>131</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>198</v>
+        <v>236</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
+        <v>237</v>
+      </c>
+      <c r="M25" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>140</v>
+      </c>
       <c r="O25" t="s" s="2">
         <v>76</v>
       </c>
@@ -3984,25 +4045,25 @@
         <v>76</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>200</v>
+        <v>238</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>76</v>
+        <v>136</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>201</v>
+        <v>128</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>76</v>
@@ -4013,18 +4074,18 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>76</v>
@@ -4036,18 +4097,20 @@
         <v>76</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>132</v>
+        <v>240</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="N26" s="2"/>
+        <v>242</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>243</v>
+      </c>
       <c r="O26" t="s" s="2">
         <v>76</v>
       </c>
@@ -4083,52 +4146,50 @@
         <v>76</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="AB26" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC26" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD26" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE26" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="AC26" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD26" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="AE26" t="s" s="2">
-        <v>207</v>
-      </c>
       <c r="AF26" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>76</v>
+        <v>155</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>201</v>
+        <v>244</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>76</v>
+        <v>245</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="B27" t="s" s="2">
-        <v>240</v>
-      </c>
+        <v>246</v>
+      </c>
+      <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
         <v>76</v>
       </c>
@@ -4137,7 +4198,7 @@
         <v>77</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>76</v>
@@ -4149,16 +4210,18 @@
         <v>76</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
+      <c r="N27" t="s" s="2">
+        <v>250</v>
+      </c>
       <c r="O27" t="s" s="2">
         <v>76</v>
       </c>
@@ -4206,25 +4269,25 @@
         <v>76</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>207</v>
+        <v>246</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>76</v>
+        <v>251</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>76</v>
@@ -4235,7 +4298,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4243,7 +4306,7 @@
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="F28" t="s" s="2">
         <v>85</v>
@@ -4255,18 +4318,20 @@
         <v>76</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>245</v>
+        <v>215</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="M28" s="2"/>
+        <v>254</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>255</v>
+      </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>76</v>
@@ -4315,7 +4380,7 @@
         <v>76</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>77</v>
@@ -4330,21 +4395,21 @@
         <v>97</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>76</v>
+        <v>256</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>249</v>
+        <v>219</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>76</v>
+        <v>257</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4364,16 +4429,16 @@
         <v>76</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>245</v>
+        <v>87</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>251</v>
+        <v>186</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>252</v>
+        <v>187</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -4424,7 +4489,7 @@
         <v>76</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>253</v>
+        <v>188</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>77</v>
@@ -4436,13 +4501,13 @@
         <v>76</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>254</v>
+        <v>189</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>76</v>
@@ -4453,18 +4518,18 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>76</v>
+        <v>130</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>76</v>
@@ -4476,15 +4541,17 @@
         <v>76</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>192</v>
+        <v>131</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>256</v>
+        <v>132</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="M30" s="2"/>
+        <v>191</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>134</v>
+      </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>76</v>
@@ -4521,37 +4588,37 @@
         <v>76</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>76</v>
+        <v>192</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>76</v>
+        <v>193</v>
       </c>
       <c r="AC30" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>76</v>
+        <v>194</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>255</v>
+        <v>195</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>171</v>
+        <v>76</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>258</v>
+        <v>189</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>76</v>
@@ -4564,7 +4631,9 @@
       <c r="A31" t="s" s="2">
         <v>259</v>
       </c>
-      <c r="B31" s="2"/>
+      <c r="B31" t="s" s="2">
+        <v>260</v>
+      </c>
       <c r="C31" t="s" s="2">
         <v>76</v>
       </c>
@@ -4573,7 +4642,7 @@
         <v>77</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>76</v>
@@ -4585,13 +4654,13 @@
         <v>76</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>87</v>
+        <v>261</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>198</v>
+        <v>262</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>199</v>
+        <v>263</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -4642,25 +4711,25 @@
         <v>76</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>76</v>
+        <v>136</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>201</v>
+        <v>76</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>76</v>
@@ -4671,18 +4740,18 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>76</v>
@@ -4691,20 +4760,18 @@
         <v>76</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>131</v>
+        <v>265</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>132</v>
+        <v>266</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>134</v>
-      </c>
+        <v>267</v>
+      </c>
+      <c r="M32" s="2"/>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>76</v>
@@ -4753,25 +4820,25 @@
         <v>76</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>207</v>
+        <v>268</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>201</v>
+        <v>269</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>76</v>
@@ -4782,43 +4849,39 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>213</v>
+        <v>76</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="I33" t="s" s="2">
         <v>86</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>131</v>
+        <v>265</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>214</v>
+        <v>271</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>140</v>
-      </c>
+        <v>272</v>
+      </c>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>76</v>
       </c>
@@ -4866,25 +4929,25 @@
         <v>76</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>216</v>
+        <v>273</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>128</v>
+        <v>274</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>76</v>
@@ -4895,7 +4958,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4918,17 +4981,15 @@
         <v>76</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>87</v>
+        <v>221</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>263</v>
+        <v>276</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>265</v>
-      </c>
+        <v>277</v>
+      </c>
+      <c r="M34" s="2"/>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>76</v>
@@ -4977,7 +5038,7 @@
         <v>76</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>77</v>
@@ -4995,18 +5056,18 @@
         <v>171</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>146</v>
+        <v>278</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>266</v>
+        <v>76</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5029,13 +5090,13 @@
         <v>76</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>268</v>
+        <v>87</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>269</v>
+        <v>186</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>270</v>
+        <v>187</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -5086,7 +5147,7 @@
         <v>76</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>267</v>
+        <v>188</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>77</v>
@@ -5098,19 +5159,463 @@
         <v>76</v>
       </c>
       <c r="AI35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK35" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="AL35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM35" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="B36" s="2"/>
+      <c r="C36" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="D36" s="2"/>
+      <c r="E36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J36" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="K36" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="L36" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="M36" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="N36" s="2"/>
+      <c r="O36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="P36" s="2"/>
+      <c r="Q36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE36" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="AF36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI36" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK36" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="AL36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM36" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="B37" s="2"/>
+      <c r="C37" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="D37" s="2"/>
+      <c r="E37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H37" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="I37" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="J37" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="K37" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="L37" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="O37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="P37" s="2"/>
+      <c r="Q37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE37" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="AF37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI37" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AJ37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK37" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="AL37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM37" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="B38" s="2"/>
+      <c r="C38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="D38" s="2"/>
+      <c r="E38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F38" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J38" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K38" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="L38" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="N38" s="2"/>
+      <c r="O38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="P38" s="2"/>
+      <c r="Q38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE38" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="AF38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG38" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI38" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ35" t="s" s="2">
+      <c r="AJ38" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="AK35" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="AL35" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM35" t="s" s="2">
-        <v>272</v>
+      <c r="AK38" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="AL38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM38" t="s" s="2">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="B39" s="2"/>
+      <c r="C39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="D39" s="2"/>
+      <c r="E39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F39" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J39" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="K39" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="L39" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
+      <c r="O39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="P39" s="2"/>
+      <c r="Q39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE39" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="AF39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG39" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI39" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AK39" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="AL39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM39" t="s" s="2">
+        <v>292</v>
       </c>
     </row>
   </sheetData>

--- a/jpcore-r4/develop/StructureDefinition-jp-medication.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medication.xlsx
@@ -503,7 +503,7 @@
     <t>薬品の種類を規定するコード化された概念</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/medication-codes</t>
+    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationCode_VS</t>
   </si>
   <si>
     <t>coding.code = //element(*,MedicationType)/DrugCoded/ProductCode
--- a/jpcore-r4/develop/StructureDefinition-jp-medication.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medication.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1399" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1258" uniqueCount="271">
   <si>
     <t>Property</t>
   </si>
@@ -585,13 +585,7 @@
     <t>もし、Medication ResourceがMedicationRequest Resourceから参照された場合は、これはオーダーされた剤型である。Medication ResourceがMedicationDispense Resourceから参照された場合は、払い出された剤型である。MedicationAdministration ResourceからMedication Resourceが参照されていれば、投与された剤型である。</t>
   </si>
   <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>A coded concept defining the form of a medication.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/medication-form-codes</t>
+    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationFormMERIT9_VS</t>
   </si>
   <si>
     <t>coding.code =  //element(*,DrugCodedType)/FormCode@@ -605,7 +599,45 @@
     <t>RXO-5-Requested Dosage Form / RXE-6-Give Dosage Form / RXD-6-Actual Dosage Form / RXG-8-Give Dosage Form / RXA-8-Administered Dosage Form</t>
   </si>
   <si>
-    <t>Medication.form.id</t>
+    <t>Medication.amount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ratio
+</t>
+  </si>
+  <si>
+    <t>パッケージ中の薬剤の量</t>
+  </si>
+  <si>
+    <t>パッケージされた製品に含まれる薬剤固有の量。たとえば、同じ力価の製品を指定すれば（たとえば、インスリングラルギン10単位/mL注射液）、この値はパッケージ内での薬剤量（たとえば、3mL, 10mLなど）を明示することになる。</t>
+  </si>
+  <si>
+    <t>比率（Ratio)を表すデータ型は、量(Quantity)と共通単位を使って適切に表現できないときのみに使われるべきである。分母が"1"に固定されているとわかっているような場合は、量(Quantity)を比率(Ratio)の代わりに使うべきである。</t>
+  </si>
+  <si>
+    <t>.quantity</t>
+  </si>
+  <si>
+    <t>Medication.ingredient</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BackboneElement
+</t>
+  </si>
+  <si>
+    <t>薬効がある、あるいは薬効を伴わない成分</t>
+  </si>
+  <si>
+    <t>この薬剤を構成する特定の重要成分を識別する</t>
+  </si>
+  <si>
+    <t>すべての成分を含む必要はない。もし、ある成分が記載されていなくてもその成分が含有されているかどうかを必ずしも意味しない。特定の成分が記載されていても、すべての成分が記載されていると言うことを意味しない。有効成分であるか、有効成分ではないかを指定することは可能である。</t>
+  </si>
+  <si>
+    <t>.scopesRole[typeCode=INGR]</t>
+  </si>
+  <si>
+    <t>Medication.ingredient.id</t>
   </si>
   <si>
     <t>Unique id for inter-element referencing</t>
@@ -620,128 +652,23 @@
     <t>n/a</t>
   </si>
   <si>
-    <t>Medication.form.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+    <t>Medication.ingredient.extension</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
   </si>
   <si>
     <t xml:space="preserve">value:url}
 </t>
   </si>
   <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
     <t>open</t>
   </si>
   <si>
     <t>Element.extension</t>
-  </si>
-  <si>
-    <t>Medication.form.coding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coding
-</t>
-  </si>
-  <si>
-    <t>Code defined by a terminology system</t>
-  </si>
-  <si>
-    <t>A reference to a code defined by a terminology system.</t>
-  </si>
-  <si>
-    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
-  </si>
-  <si>
-    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
-  </si>
-  <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationFormMERIT9_VS</t>
-  </si>
-  <si>
-    <t>CodeableConcept.coding</t>
-  </si>
-  <si>
-    <t>union(., ./translation)</t>
-  </si>
-  <si>
-    <t>C*E.1-8, C*E.10-22</t>
-  </si>
-  <si>
-    <t>Medication.form.text</t>
-  </si>
-  <si>
-    <t>Plain text representation of the concept</t>
-  </si>
-  <si>
-    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
-  </si>
-  <si>
-    <t>Very often the text is the same as a displayName of one of the codings.</t>
-  </si>
-  <si>
-    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.text</t>
-  </si>
-  <si>
-    <t>./originalText[mediaType/code="text/plain"]/data</t>
-  </si>
-  <si>
-    <t>C*E.9. But note many systems use C*E.2 for this</t>
-  </si>
-  <si>
-    <t>Medication.amount</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ratio
-</t>
-  </si>
-  <si>
-    <t>パッケージ中の薬剤の量</t>
-  </si>
-  <si>
-    <t>パッケージされた製品に含まれる薬剤固有の量。たとえば、同じ力価の製品を指定すれば（たとえば、インスリングラルギン10単位/mL注射液）、この値はパッケージ内での薬剤量（たとえば、3mL, 10mLなど）を明示することになる。</t>
-  </si>
-  <si>
-    <t>比率（Ratio)を表すデータ型は、量(Quantity)と共通単位を使って適切に表現できないときのみに使われるべきである。分母が"1"に固定されているとわかっているような場合は、量(Quantity)を比率(Ratio)の代わりに使うべきである。</t>
-  </si>
-  <si>
-    <t>.quantity</t>
-  </si>
-  <si>
-    <t>Medication.ingredient</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BackboneElement
-</t>
-  </si>
-  <si>
-    <t>薬効がある、あるいは薬効を伴わない成分</t>
-  </si>
-  <si>
-    <t>この薬剤を構成する特定の重要成分を識別する</t>
-  </si>
-  <si>
-    <t>すべての成分を含む必要はない。もし、ある成分が記載されていなくてもその成分が含有されているかどうかを必ずしも意味しない。特定の成分が記載されていても、すべての成分が記載されていると言うことを意味しない。有効成分であるか、有効成分ではないかを指定することは可能である。</t>
-  </si>
-  <si>
-    <t>.scopesRole[typeCode=INGR]</t>
-  </si>
-  <si>
-    <t>Medication.ingredient.id</t>
-  </si>
-  <si>
-    <t>Medication.ingredient.extension</t>
-  </si>
-  <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
   </si>
   <si>
     <t>drugNo</t>
@@ -839,6 +766,12 @@
   </si>
   <si>
     <t>Medication.ingredient.strength.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
   </si>
   <si>
     <t>strengthType</t>
@@ -1247,7 +1180,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM39"/>
+  <dimension ref="A1:AM35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2915,13 +2848,11 @@
         <v>76</v>
       </c>
       <c r="W15" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="X15" s="2"/>
+      <c r="Y15" t="s" s="2">
         <v>179</v>
-      </c>
-      <c r="X15" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="Y15" t="s" s="2">
-        <v>181</v>
       </c>
       <c r="Z15" t="s" s="2">
         <v>76</v>
@@ -2954,21 +2885,21 @@
         <v>97</v>
       </c>
       <c r="AJ15" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="AK15" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="AL15" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM15" t="s" s="2">
         <v>182</v>
-      </c>
-      <c r="AK15" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="AL15" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM15" t="s" s="2">
-        <v>184</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2988,18 +2919,20 @@
         <v>76</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>87</v>
+        <v>184</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="M16" s="2"/>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
         <v>76</v>
@@ -3048,7 +2981,7 @@
         <v>76</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>77</v>
@@ -3060,13 +2993,13 @@
         <v>76</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ16" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>76</v>
@@ -3077,11 +3010,11 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
@@ -3100,16 +3033,16 @@
         <v>76</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>131</v>
+        <v>190</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>132</v>
+        <v>191</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>134</v>
+        <v>193</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
@@ -3147,19 +3080,19 @@
         <v>76</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>192</v>
+        <v>76</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>193</v>
+        <v>76</v>
       </c>
       <c r="AC17" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>194</v>
+        <v>76</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>77</v>
@@ -3171,13 +3104,13 @@
         <v>76</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>76</v>
@@ -3188,7 +3121,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3199,7 +3132,7 @@
         <v>77</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>76</v>
@@ -3208,23 +3141,19 @@
         <v>76</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J18" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K18" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="K18" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="L18" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>201</v>
-      </c>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
         <v>76</v>
       </c>
@@ -3248,11 +3177,13 @@
         <v>76</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="X18" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="X18" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="Y18" t="s" s="2">
-        <v>202</v>
+        <v>76</v>
       </c>
       <c r="Z18" t="s" s="2">
         <v>76</v>
@@ -3270,36 +3201,36 @@
         <v>76</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="AJ18" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3310,7 +3241,7 @@
         <v>77</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>76</v>
@@ -3319,23 +3250,19 @@
         <v>76</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>87</v>
+        <v>131</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>210</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
         <v>76</v>
       </c>
@@ -3371,50 +3298,50 @@
         <v>76</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB19" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="AB19" s="2"/>
       <c r="AC19" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>76</v>
+        <v>204</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>212</v>
+        <v>76</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>213</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="B20" s="2"/>
+        <v>200</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>206</v>
+      </c>
       <c r="C20" t="s" s="2">
         <v>76</v>
       </c>
@@ -3423,7 +3350,7 @@
         <v>77</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>76</v>
@@ -3432,20 +3359,18 @@
         <v>76</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>218</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
         <v>76</v>
@@ -3494,25 +3419,25 @@
         <v>76</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>76</v>
+        <v>209</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>219</v>
+        <v>76</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>76</v>
@@ -3523,11 +3448,11 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>76</v>
+        <v>211</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
@@ -3540,24 +3465,26 @@
         <v>76</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>221</v>
+        <v>131</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="N21" s="2"/>
+        <v>134</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>140</v>
+      </c>
       <c r="O21" t="s" s="2">
         <v>76</v>
       </c>
@@ -3605,7 +3532,7 @@
         <v>76</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>77</v>
@@ -3617,13 +3544,13 @@
         <v>76</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>225</v>
+        <v>128</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>76</v>
@@ -3634,7 +3561,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3642,7 +3569,7 @@
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="F22" t="s" s="2">
         <v>85</v>
@@ -3657,16 +3584,20 @@
         <v>76</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>87</v>
+        <v>149</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>186</v>
+        <v>216</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
+        <v>217</v>
+      </c>
+      <c r="M22" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="N22" t="s" s="2">
+        <v>219</v>
+      </c>
       <c r="O22" t="s" s="2">
         <v>76</v>
       </c>
@@ -3714,10 +3645,10 @@
         <v>76</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>188</v>
+        <v>215</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>85</v>
@@ -3726,24 +3657,24 @@
         <v>76</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>76</v>
+        <v>155</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>189</v>
+        <v>220</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>76</v>
+        <v>221</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3754,7 +3685,7 @@
         <v>77</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>76</v>
@@ -3766,16 +3697,18 @@
         <v>76</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>131</v>
+        <v>223</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
+      <c r="N23" t="s" s="2">
+        <v>226</v>
+      </c>
       <c r="O23" t="s" s="2">
         <v>76</v>
       </c>
@@ -3811,35 +3744,37 @@
         <v>76</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="AB23" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="AB23" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="AC23" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>194</v>
+        <v>76</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>195</v>
+        <v>222</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>76</v>
+        <v>227</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>76</v>
@@ -3850,20 +3785,18 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="B24" t="s" s="2">
-        <v>230</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
         <v>76</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>76</v>
@@ -3875,15 +3808,17 @@
         <v>76</v>
       </c>
       <c r="J24" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="K24" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="L24" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="M24" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="K24" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="L24" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="M24" s="2"/>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>76</v>
@@ -3932,31 +3867,31 @@
         <v>76</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>195</v>
+        <v>228</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH24" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI24" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ24" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="AK24" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="AL24" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM24" t="s" s="2">
         <v>233</v>
-      </c>
-      <c r="AI24" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AJ24" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK24" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL24" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM24" t="s" s="2">
-        <v>76</v>
       </c>
     </row>
     <row r="25">
@@ -3965,39 +3900,35 @@
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>235</v>
+        <v>76</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>131</v>
+        <v>87</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>236</v>
+        <v>196</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>140</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>76</v>
       </c>
@@ -4045,25 +3976,25 @@
         <v>76</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>238</v>
+        <v>198</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>136</v>
+        <v>76</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>128</v>
+        <v>199</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>76</v>
@@ -4074,18 +4005,18 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>76</v>
+        <v>130</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>76</v>
@@ -4097,20 +4028,18 @@
         <v>76</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>240</v>
+        <v>132</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>243</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>76</v>
       </c>
@@ -4146,50 +4075,52 @@
         <v>76</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>76</v>
+        <v>203</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>76</v>
+        <v>237</v>
       </c>
       <c r="AC26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>76</v>
+        <v>204</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>239</v>
+        <v>205</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>155</v>
+        <v>76</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>244</v>
+        <v>199</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>245</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="B27" s="2"/>
+        <v>235</v>
+      </c>
+      <c r="B27" t="s" s="2">
+        <v>238</v>
+      </c>
       <c r="C27" t="s" s="2">
         <v>76</v>
       </c>
@@ -4198,7 +4129,7 @@
         <v>77</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>76</v>
@@ -4210,18 +4141,16 @@
         <v>76</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="M27" s="2"/>
-      <c r="N27" t="s" s="2">
-        <v>250</v>
-      </c>
+      <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>76</v>
       </c>
@@ -4269,25 +4198,25 @@
         <v>76</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>246</v>
+        <v>205</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>251</v>
+        <v>76</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>76</v>
@@ -4298,7 +4227,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4306,7 +4235,7 @@
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F28" t="s" s="2">
         <v>85</v>
@@ -4318,20 +4247,18 @@
         <v>76</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>215</v>
+        <v>243</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>255</v>
-      </c>
+        <v>245</v>
+      </c>
+      <c r="M28" s="2"/>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>76</v>
@@ -4380,7 +4307,7 @@
         <v>76</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>77</v>
@@ -4395,21 +4322,21 @@
         <v>97</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>256</v>
+        <v>76</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>219</v>
+        <v>247</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>257</v>
+        <v>76</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4429,16 +4356,16 @@
         <v>76</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>87</v>
+        <v>243</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>186</v>
+        <v>249</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>187</v>
+        <v>250</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -4489,7 +4416,7 @@
         <v>76</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>188</v>
+        <v>251</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>77</v>
@@ -4501,13 +4428,13 @@
         <v>76</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>189</v>
+        <v>252</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>76</v>
@@ -4518,18 +4445,18 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>76</v>
@@ -4541,17 +4468,15 @@
         <v>76</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>131</v>
+        <v>190</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>132</v>
+        <v>254</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>134</v>
-      </c>
+        <v>255</v>
+      </c>
+      <c r="M30" s="2"/>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>76</v>
@@ -4588,37 +4513,37 @@
         <v>76</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>192</v>
+        <v>76</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>193</v>
+        <v>76</v>
       </c>
       <c r="AC30" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>194</v>
+        <v>76</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>195</v>
+        <v>253</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>76</v>
+        <v>171</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>189</v>
+        <v>256</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>76</v>
@@ -4629,11 +4554,9 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="B31" t="s" s="2">
-        <v>260</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
         <v>76</v>
       </c>
@@ -4642,7 +4565,7 @@
         <v>77</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>76</v>
@@ -4654,13 +4577,13 @@
         <v>76</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>261</v>
+        <v>87</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>262</v>
+        <v>196</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>263</v>
+        <v>197</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -4711,25 +4634,25 @@
         <v>76</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>136</v>
+        <v>76</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>76</v>
+        <v>199</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>76</v>
@@ -4740,18 +4663,18 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>76</v>
+        <v>130</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>76</v>
@@ -4760,18 +4683,20 @@
         <v>76</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>265</v>
+        <v>131</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>266</v>
+        <v>132</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="M32" s="2"/>
+        <v>236</v>
+      </c>
+      <c r="M32" t="s" s="2">
+        <v>134</v>
+      </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>76</v>
@@ -4820,25 +4745,25 @@
         <v>76</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>268</v>
+        <v>205</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>269</v>
+        <v>199</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>76</v>
@@ -4849,39 +4774,43 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>76</v>
+        <v>211</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="I33" t="s" s="2">
         <v>86</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>265</v>
+        <v>131</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>271</v>
+        <v>212</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="M33" s="2"/>
-      <c r="N33" s="2"/>
+        <v>213</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>140</v>
+      </c>
       <c r="O33" t="s" s="2">
         <v>76</v>
       </c>
@@ -4929,25 +4858,25 @@
         <v>76</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>273</v>
+        <v>214</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>274</v>
+        <v>128</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>76</v>
@@ -4958,7 +4887,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>275</v>
+        <v>260</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4981,15 +4910,17 @@
         <v>76</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>221</v>
+        <v>87</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="M34" s="2"/>
+        <v>262</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>263</v>
+      </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>76</v>
@@ -5038,7 +4969,7 @@
         <v>76</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>275</v>
+        <v>260</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>77</v>
@@ -5056,18 +4987,18 @@
         <v>171</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>278</v>
+        <v>146</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>76</v>
+        <v>264</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>279</v>
+        <v>265</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5090,13 +5021,13 @@
         <v>76</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>87</v>
+        <v>266</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>186</v>
+        <v>267</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>187</v>
+        <v>268</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -5147,7 +5078,7 @@
         <v>76</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>188</v>
+        <v>265</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>77</v>
@@ -5159,463 +5090,19 @@
         <v>76</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>76</v>
+        <v>171</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>189</v>
+        <v>269</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="B36" s="2"/>
-      <c r="C36" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="D36" s="2"/>
-      <c r="E36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G36" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H36" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I36" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J36" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="K36" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="L36" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="N36" s="2"/>
-      <c r="O36" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P36" s="2"/>
-      <c r="Q36" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R36" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S36" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T36" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U36" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V36" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W36" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X36" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y36" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z36" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA36" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB36" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC36" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD36" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE36" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="AF36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH36" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI36" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AJ36" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK36" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="AL36" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM36" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="B37" s="2"/>
-      <c r="C37" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="D37" s="2"/>
-      <c r="E37" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F37" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G37" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H37" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="I37" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="J37" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="K37" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="O37" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P37" s="2"/>
-      <c r="Q37" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R37" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S37" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T37" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U37" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V37" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W37" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X37" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y37" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z37" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA37" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB37" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC37" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD37" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE37" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="AF37" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG37" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH37" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI37" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AJ37" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK37" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="AL37" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM37" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="B38" s="2"/>
-      <c r="C38" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D38" s="2"/>
-      <c r="E38" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F38" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="G38" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H38" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I38" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J38" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="K38" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="N38" s="2"/>
-      <c r="O38" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P38" s="2"/>
-      <c r="Q38" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R38" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S38" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T38" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U38" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V38" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W38" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X38" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y38" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z38" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA38" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB38" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC38" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD38" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE38" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="AF38" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG38" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH38" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI38" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ38" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="AK38" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="AL38" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM38" t="s" s="2">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="B39" s="2"/>
-      <c r="C39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D39" s="2"/>
-      <c r="E39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F39" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="G39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J39" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="K39" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="M39" s="2"/>
-      <c r="N39" s="2"/>
-      <c r="O39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P39" s="2"/>
-      <c r="Q39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE39" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="AF39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG39" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI39" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ39" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="AK39" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="AL39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM39" t="s" s="2">
-        <v>292</v>
+        <v>270</v>
       </c>
     </row>
   </sheetData>

--- a/jpcore-r4/develop/StructureDefinition-jp-medication.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medication.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1258" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1258" uniqueCount="272">
   <si>
     <t>Property</t>
   </si>
@@ -284,7 +284,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">string
+    <t xml:space="preserve">id
 </t>
   </si>
   <si>
@@ -638,6 +638,10 @@
   </si>
   <si>
     <t>Medication.ingredient.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
   </si>
   <si>
     <t>Unique id for inter-element referencing</t>
@@ -3144,13 +3148,13 @@
         <v>76</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>87</v>
+        <v>196</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -3201,7 +3205,7 @@
         <v>76</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>77</v>
@@ -3219,7 +3223,7 @@
         <v>76</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>76</v>
@@ -3230,7 +3234,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3256,10 +3260,10 @@
         <v>131</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -3298,17 +3302,17 @@
         <v>76</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AB19" s="2"/>
       <c r="AC19" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>77</v>
@@ -3337,10 +3341,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C20" t="s" s="2">
         <v>76</v>
@@ -3362,13 +3366,13 @@
         <v>76</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -3419,7 +3423,7 @@
         <v>76</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>77</v>
@@ -3428,7 +3432,7 @@
         <v>78</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>136</v>
@@ -3448,11 +3452,11 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
@@ -3474,10 +3478,10 @@
         <v>131</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M21" t="s" s="2">
         <v>134</v>
@@ -3532,7 +3536,7 @@
         <v>76</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>77</v>
@@ -3561,7 +3565,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3587,16 +3591,16 @@
         <v>149</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>76</v>
@@ -3645,7 +3649,7 @@
         <v>76</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>85</v>
@@ -3663,18 +3667,18 @@
         <v>155</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3697,17 +3701,17 @@
         <v>76</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>76</v>
@@ -3756,7 +3760,7 @@
         <v>76</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>77</v>
@@ -3774,7 +3778,7 @@
         <v>76</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>76</v>
@@ -3785,7 +3789,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3811,13 +3815,13 @@
         <v>184</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
@@ -3867,7 +3871,7 @@
         <v>76</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>77</v>
@@ -3882,7 +3886,7 @@
         <v>97</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>188</v>
@@ -3891,12 +3895,12 @@
         <v>76</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3919,13 +3923,13 @@
         <v>76</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>87</v>
+        <v>196</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -3976,7 +3980,7 @@
         <v>76</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>77</v>
@@ -3994,7 +3998,7 @@
         <v>76</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>76</v>
@@ -4005,7 +4009,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4034,7 +4038,7 @@
         <v>132</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M26" t="s" s="2">
         <v>134</v>
@@ -4075,19 +4079,19 @@
         <v>76</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AC26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>77</v>
@@ -4105,7 +4109,7 @@
         <v>76</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>76</v>
@@ -4116,10 +4120,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C27" t="s" s="2">
         <v>76</v>
@@ -4141,13 +4145,13 @@
         <v>76</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -4198,7 +4202,7 @@
         <v>76</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>77</v>
@@ -4227,7 +4231,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4250,13 +4254,13 @@
         <v>86</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -4307,7 +4311,7 @@
         <v>76</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>77</v>
@@ -4325,7 +4329,7 @@
         <v>76</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>76</v>
@@ -4336,7 +4340,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4359,13 +4363,13 @@
         <v>86</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -4416,7 +4420,7 @@
         <v>76</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>77</v>
@@ -4434,7 +4438,7 @@
         <v>76</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>76</v>
@@ -4445,7 +4449,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4471,10 +4475,10 @@
         <v>190</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -4525,7 +4529,7 @@
         <v>76</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>77</v>
@@ -4543,7 +4547,7 @@
         <v>171</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>76</v>
@@ -4554,7 +4558,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4577,13 +4581,13 @@
         <v>76</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>87</v>
+        <v>196</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -4634,7 +4638,7 @@
         <v>76</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>77</v>
@@ -4652,7 +4656,7 @@
         <v>76</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>76</v>
@@ -4663,7 +4667,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4692,7 +4696,7 @@
         <v>132</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M32" t="s" s="2">
         <v>134</v>
@@ -4745,7 +4749,7 @@
         <v>76</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>77</v>
@@ -4763,7 +4767,7 @@
         <v>76</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>76</v>
@@ -4774,11 +4778,11 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
@@ -4800,10 +4804,10 @@
         <v>131</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M33" t="s" s="2">
         <v>134</v>
@@ -4858,7 +4862,7 @@
         <v>76</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>77</v>
@@ -4887,7 +4891,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4910,16 +4914,16 @@
         <v>76</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>87</v>
+        <v>196</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -4969,7 +4973,7 @@
         <v>76</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>77</v>
@@ -4993,12 +4997,12 @@
         <v>76</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5021,13 +5025,13 @@
         <v>76</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -5078,7 +5082,7 @@
         <v>76</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>77</v>
@@ -5096,13 +5100,13 @@
         <v>171</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
   </sheetData>

--- a/jpcore-r4/develop/StructureDefinition-jp-medication.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medication.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1258" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1260" uniqueCount="272">
   <si>
     <t>Property</t>
   </si>
@@ -550,7 +550,7 @@
     <t>Medication.manufacturer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
+    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_Organization)
 </t>
   </si>
   <si>
@@ -602,7 +602,7 @@
     <t>Medication.amount</t>
   </si>
   <si>
-    <t xml:space="preserve">Ratio
+    <t xml:space="preserve">Ratio {http://jpfhir.jp/fhir/core/StructureDefinition/JP_MedicationRatio_Amount}
 </t>
   </si>
   <si>
@@ -615,7 +615,15 @@
     <t>比率（Ratio)を表すデータ型は、量(Quantity)と共通単位を使って適切に表現できないときのみに使われるべきである。分母が"1"に固定されているとわかっているような場合は、量(Quantity)を比率(Ratio)の代わりに使うべきである。</t>
   </si>
   <si>
-    <t>.quantity</t>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+rat-1:Numerator and denominator SHALL both be present, or both are absent. If both are absent, there SHALL be some extension present {(numerator.empty() xor denominator.exists()) and (numerator.exists() or extension.exists())}</t>
+  </si>
+  <si>
+    <t>RTO</t>
   </si>
   <si>
     <t>Medication.ingredient</t>
@@ -685,10 +693,6 @@
     <t>RP内の薬剤の連番</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
     <t>Medication.ingredient.modifierExtension</t>
   </si>
   <si>
@@ -760,12 +764,6 @@
     <t>Ratioデータ型は2つの数字の関係で示され、Quantityや一般的な単位で適切に表現できない関係を表すときにのみ用いられる。分母の値が「1」で固定されているような値であれば、QuantityがRatioの代わりに用いられるべきである。</t>
   </si>
   <si>
-    <t>//element(*,DrugCodedType)/Strength</t>
-  </si>
-  <si>
-    <t>RXC-3-Component Amount &amp; RXC-4-Component Units  if medication: RXO-2-Requested Give Amount - Minimum &amp; RXO-4-Requested Give Units / RXO-3-Requested Give Amount - Maximum &amp; RXO-4-Requested Give Units / RXO-11-Requested Dispense Amount &amp; RXO-12-Requested Dispense Units / RXE-3-Give Amount - Minimum &amp; RXE-5-Give Units / RXE-4-Give Amount - Maximum &amp; RXE-5-Give Units / RXE-10-Dispense Amount &amp; RXE-10-Dispense Units</t>
-  </si>
-  <si>
     <t>Medication.ingredient.strength.id</t>
   </si>
   <si>
@@ -794,35 +792,39 @@
     <t>Medication.ingredient.strength.numerator</t>
   </si>
   <si>
-    <t xml:space="preserve">Quantity
+    <t xml:space="preserve">Quantity {http://jpfhir.jp/fhir/core/StructureDefinition/JP_MedicationQuantity}
 </t>
   </si>
   <si>
-    <t>Numerator value</t>
-  </si>
-  <si>
-    <t>The value of the numerator.</t>
+    <t>投与量</t>
+  </si>
+  <si>
+    <t>薬剤に関する数量と単位を定めたデータイプ</t>
+  </si>
+  <si>
+    <t>薬剤に関する数量と単位を定めている。ValueおよびCodeを必須としている。単位についてはMERIT9医薬品単位略号の利用を推進している。(**SHOULD**)</t>
   </si>
   <si>
     <t>Ratio.numerator</t>
   </si>
   <si>
-    <t>.numerator</t>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+qty-3:If a code for the unit is present, the system SHALL also be present {code.empty() or system.exists()}</t>
+  </si>
+  <si>
+    <t>PQ, IVL&lt;PQ&gt;, MO, CO, depending on the values</t>
+  </si>
+  <si>
+    <t>SN (see also Range) or CQ</t>
   </si>
   <si>
     <t>Medication.ingredient.strength.denominator</t>
   </si>
   <si>
-    <t>Denominator value</t>
-  </si>
-  <si>
-    <t>The value of the denominator.</t>
+    <t>パッケージ量</t>
   </si>
   <si>
     <t>Ratio.denominator</t>
-  </si>
-  <si>
-    <t>.denominator</t>
   </si>
   <si>
     <t>Medication.batch</t>
@@ -1231,7 +1233,7 @@
     <col min="36" max="36" width="195.5390625" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="98.9296875" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="255.0" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="173.4375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2923,7 +2925,7 @@
         <v>76</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J16" t="s" s="2">
         <v>184</v>
@@ -2994,27 +2996,27 @@
         <v>85</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>76</v>
+        <v>188</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>97</v>
+        <v>189</v>
       </c>
       <c r="AJ16" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>76</v>
+        <v>128</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3037,16 +3039,16 @@
         <v>76</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
@@ -3096,7 +3098,7 @@
         <v>76</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>77</v>
@@ -3114,7 +3116,7 @@
         <v>76</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>76</v>
@@ -3125,7 +3127,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3148,13 +3150,13 @@
         <v>76</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -3205,7 +3207,7 @@
         <v>76</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>77</v>
@@ -3223,7 +3225,7 @@
         <v>76</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>76</v>
@@ -3234,7 +3236,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3260,10 +3262,10 @@
         <v>131</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -3302,17 +3304,17 @@
         <v>76</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="AB19" s="2"/>
       <c r="AC19" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>77</v>
@@ -3341,10 +3343,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C20" t="s" s="2">
         <v>76</v>
@@ -3366,13 +3368,13 @@
         <v>76</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -3423,7 +3425,7 @@
         <v>76</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>77</v>
@@ -3432,7 +3434,7 @@
         <v>78</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>210</v>
+        <v>188</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>136</v>
@@ -3452,11 +3454,11 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
@@ -3478,10 +3480,10 @@
         <v>131</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M21" t="s" s="2">
         <v>134</v>
@@ -3536,7 +3538,7 @@
         <v>76</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>77</v>
@@ -3565,7 +3567,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3591,16 +3593,16 @@
         <v>149</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>76</v>
@@ -3649,7 +3651,7 @@
         <v>76</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>85</v>
@@ -3667,18 +3669,18 @@
         <v>155</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3701,17 +3703,17 @@
         <v>76</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>76</v>
@@ -3760,7 +3762,7 @@
         <v>76</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>77</v>
@@ -3778,7 +3780,7 @@
         <v>76</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>76</v>
@@ -3789,7 +3791,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3815,13 +3817,13 @@
         <v>184</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
@@ -3871,7 +3873,7 @@
         <v>76</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>77</v>
@@ -3880,27 +3882,27 @@
         <v>85</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>76</v>
+        <v>188</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>97</v>
+        <v>189</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>233</v>
+        <v>76</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>234</v>
+        <v>128</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3923,13 +3925,13 @@
         <v>76</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -3980,7 +3982,7 @@
         <v>76</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>77</v>
@@ -3998,7 +4000,7 @@
         <v>76</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>76</v>
@@ -4009,7 +4011,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4038,7 +4040,7 @@
         <v>132</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="M26" t="s" s="2">
         <v>134</v>
@@ -4079,19 +4081,19 @@
         <v>76</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AC26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>77</v>
@@ -4109,7 +4111,7 @@
         <v>76</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>76</v>
@@ -4120,10 +4122,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C27" t="s" s="2">
         <v>76</v>
@@ -4145,13 +4147,13 @@
         <v>76</v>
       </c>
       <c r="J27" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="K27" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="K27" t="s" s="2">
+      <c r="L27" t="s" s="2">
         <v>241</v>
-      </c>
-      <c r="L27" t="s" s="2">
-        <v>242</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -4202,7 +4204,7 @@
         <v>76</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>77</v>
@@ -4231,7 +4233,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4251,18 +4253,20 @@
         <v>76</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J28" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="K28" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="K28" t="s" s="2">
+      <c r="L28" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="M28" t="s" s="2">
         <v>246</v>
       </c>
-      <c r="M28" s="2"/>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>76</v>
@@ -4320,27 +4324,27 @@
         <v>85</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>76</v>
+        <v>188</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>97</v>
+        <v>248</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>76</v>
+        <v>250</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4360,18 +4364,20 @@
         <v>76</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="M29" s="2"/>
+        <v>245</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>246</v>
+      </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>76</v>
@@ -4420,7 +4426,7 @@
         <v>76</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>77</v>
@@ -4429,22 +4435,22 @@
         <v>85</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>76</v>
+        <v>188</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>97</v>
+        <v>248</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>76</v>
+        <v>250</v>
       </c>
     </row>
     <row r="30">
@@ -4472,7 +4478,7 @@
         <v>76</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="K30" t="s" s="2">
         <v>255</v>
@@ -4581,13 +4587,13 @@
         <v>76</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -4638,7 +4644,7 @@
         <v>76</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>77</v>
@@ -4656,7 +4662,7 @@
         <v>76</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>76</v>
@@ -4696,7 +4702,7 @@
         <v>132</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="M32" t="s" s="2">
         <v>134</v>
@@ -4749,7 +4755,7 @@
         <v>76</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>77</v>
@@ -4767,7 +4773,7 @@
         <v>76</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>76</v>
@@ -4782,7 +4788,7 @@
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
@@ -4804,10 +4810,10 @@
         <v>131</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M33" t="s" s="2">
         <v>134</v>
@@ -4862,7 +4868,7 @@
         <v>76</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>77</v>
@@ -4914,7 +4920,7 @@
         <v>76</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="K34" t="s" s="2">
         <v>262</v>

--- a/jpcore-r4/develop/StructureDefinition-jp-medication.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medication.xlsx
@@ -582,7 +582,7 @@
     <t>製品の剤型についての説明。散剤(powder)、錠剤(tablets)、カプセル(capsule)など。</t>
   </si>
   <si>
-    <t>もし、Medication ResourceがMedicationRequest Resourceから参照された場合は、これはオーダーされた剤型である。Medication ResourceがMedicationDispense Resourceから参照された場合は、払い出された剤型である。MedicationAdministration ResourceからMedication Resourceが参照されていれば、投与された剤型である。</t>
+    <t>もし、Medication ResourceがMedicationRequest Resourceから参照された場合は、これはオーダされた剤型である。Medication ResourceがMedicationDispense Resourceから参照された場合は、払い出された剤型である。MedicationAdministration ResourceからMedication Resourceが参照されていれば、投与された剤型である。</t>
   </si>
   <si>
     <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationFormMERIT9_VS</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medication.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medication.xlsx
@@ -48,7 +48,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-16</t>
+    <t>2022-09-26</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medication.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medication.xlsx
@@ -496,8 +496,8 @@
 使用法について注記：日本ではHOTコードを利用することが推奨される。一般的な薬剤コードとしてRxNorm、SNOMD CT, IDMPなど標準的な医薬品コードを使うことができる。国や地域に特有のローカルコードも使うことができ、他のコードに変換することもできる。</t>
   </si>
   <si>
-    <t>使われるコンテキストによるが、ユーザー(処方や調剤などを行った人）によって実際にコードが選択されたのであれば、coding.userSelectedはtrueとすることとなる。Codingのデータ型で説明されているように、「ユーザーインターフェース（たとえば、選択肢から特定の項目をユーザーが選択するような形式）で特定のコードをユーザーが選択したのであれば、"userSelected"に記録されてもよい」
-ユーザーが選択したコードがあれば、その選択がコード変換などで優先される。そのほかのコードは代替のコードシステムか低粒度のコード（たとえば、ベンダー固有の初期値のための一般的なコード）に文字列変換変換するしかない。</t>
+    <t>使われるコンテキストによるが、ユーザ(処方や調剤などを行った人）によって実際にコードが選択されたのであれば、coding.userSelectedはtrueとすることとなる。Codingのデータ型で説明されているように、「ユーザインターフェース（たとえば、選択肢から特定の項目をユーザが選択するような形式）で特定のコードをユーザが選択したのであれば、"userSelected"に記録されてもよい」
+ユーザが選択したコードがあれば、その選択がコード変換などで優先される。そのほかのコードは代替のコードシステムか低粒度のコード（たとえば、ベンダー固有の初期値のための一般的なコード）に文字列変換変換するしかない。</t>
   </si>
   <si>
     <t>薬品の種類を規定するコード化された概念</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medication.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medication.xlsx
@@ -528,8 +528,7 @@
     <t>active | inactive | entered-in-error</t>
   </si>
   <si>
-    <t>JP Coreでは active で固定される。
-薬剤が有効に使われているかどうかを指定するコード。</t>
+    <t>薬剤が有効に使われているかどうかを指定するコード。</t>
   </si>
   <si>
     <t>このステータスは薬剤がローカルにあるシステム内で薬剤データベースや棚卸表で有効とされているかどうかを識別するためのものである。たとえば、薬剤システムで「ABC病院特製クリーム」といった製剤のために新しい薬剤ファイルを作成されるような場合もある。未来のある時点では、薬剤記録を作成した時にエラーが発生し、ステータスが「entered-in-error」に変化することもありうる。このステータスは薬剤が特定の処方集に記載されているかどうかを指定するためのものではない。薬剤記録が複数の処方集やカタログを参照することも可能であり、それぞれの記録が異なるステータスを持つこともある。</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medication.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medication.xlsx
@@ -503,7 +503,7 @@
     <t>薬品の種類を規定するコード化された概念</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationCode_VS</t>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_MedicationCode_VS</t>
   </si>
   <si>
     <t>coding.code = //element(*,MedicationType)/DrugCoded/ProductCode@@ -584,7 +584,7 @@
     <t>もし、Medication ResourceがMedicationRequest Resourceから参照された場合は、これはオーダされた剤型である。Medication ResourceがMedicationDispense Resourceから参照された場合は、払い出された剤型である。MedicationAdministration ResourceからMedication Resourceが参照されていれば、投与された剤型である。</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationFormMERIT9_VS</t>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_MedicationFormMERIT9_VS</t>
   </si>
   <si>
     <t>coding.code =  //element(*,DrugCodedType)/FormCode@@ -1218,7 +1218,7 @@
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="55.39453125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="63.125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="58.87890625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>

--- a/jpcore-r4/develop/StructureDefinition-jp-medication.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medication.xlsx
@@ -575,10 +575,10 @@
     <t>Medication.form</t>
   </si>
   <si>
-    <t>powder | tablets | capsule +</t>
-  </si>
-  <si>
-    <t>製品の剤型についての説明。散剤(powder)、錠剤(tablets)、カプセル(capsule)など。</t>
+    <t>TAB | CAP | PWD | SYR | SUP | LQD | OIT | CRM | TPE | INJ +</t>
+  </si>
+  <si>
+    <t>TAB | CAP | PWD | SYR | SUP | LQD | OIT | CRM | TPE | INJ + 製品の剤型についての説明。散剤、ドライシロップ(PWD)、錠剤(TAB)、カプセル(CAP)など。</t>
   </si>
   <si>
     <t>もし、Medication ResourceがMedicationRequest Resourceから参照された場合は、これはオーダされた剤型である。Medication ResourceがMedicationDispense Resourceから参照された場合は、払い出された剤型である。MedicationAdministration ResourceからMedication Resourceが参照されていれば、投与された剤型である。</t>
@@ -1204,7 +1204,7 @@
     <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="52.78125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="54.93359375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/jpcore-r4/develop/StructureDefinition-jp-medication.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medication.xlsx
@@ -90,6 +90,9 @@
     <t>Copyright</t>
   </si>
   <si>
+    <t>Copyright FHIR Japanese implementation research working group in Japan Association of Medical Informatics (JAMI) 一般社団法人日本医療情報学会NeXEHRS課題研究会FHIR日本実装検討WG</t>
+  </si>
+  <si>
     <t>FHIR Version</t>
   </si>
   <si>
@@ -257,10 +260,6 @@
   <si>
     <t>This resource is primarily used for the identification and definition of a medication for the purposes of prescribing, dispensing, and administering a medication as well as for making statements about medication use.
 このResourceは薬剤を処方し、払い出し（調剤）、その投与を定義し、IDを付与するためにまず利用され、薬剤の使用状態を示すためにも使われる。</t>
-  </si>
-  <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>NewRx/MedicationPrescribed@@ -1127,55 +1126,55 @@
         <v>24</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1237,218 +1236,218 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AK1" t="s" s="1">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AL1" t="s" s="1">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AM1" t="s" s="1">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P2" s="2"/>
       <c r="Q2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="AJ2" t="s" s="2">
         <v>82</v>
@@ -1457,10 +1456,10 @@
         <v>83</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3">
@@ -1469,20 +1468,20 @@
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F3" t="s" s="2">
         <v>85</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I3" t="s" s="2">
         <v>86</v>
@@ -1501,77 +1500,77 @@
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P3" s="2"/>
       <c r="Q3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE3" t="s" s="2">
         <v>91</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4">
@@ -1580,20 +1579,20 @@
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F4" t="s" s="2">
         <v>85</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I4" t="s" s="2">
         <v>86</v>
@@ -1610,77 +1609,77 @@
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P4" s="2"/>
       <c r="Q4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE4" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5">
@@ -1689,17 +1688,17 @@
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F5" t="s" s="2">
         <v>85</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>86</v>
@@ -1721,77 +1720,77 @@
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P5" s="2"/>
       <c r="Q5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE5" t="s" s="2">
         <v>103</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6">
@@ -1800,23 +1799,23 @@
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F6" t="s" s="2">
         <v>85</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J6" t="s" s="2">
         <v>105</v>
@@ -1832,26 +1831,26 @@
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P6" s="2"/>
       <c r="Q6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W6" t="s" s="2">
         <v>109</v>
@@ -1863,46 +1862,46 @@
         <v>111</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE6" t="s" s="2">
         <v>112</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7">
@@ -1915,19 +1914,19 @@
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F7" t="s" s="2">
         <v>85</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J7" t="s" s="2">
         <v>115</v>
@@ -1943,77 +1942,77 @@
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P7" s="2"/>
       <c r="Q7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE7" t="s" s="2">
         <v>119</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>120</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8">
@@ -2026,19 +2025,19 @@
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J8" t="s" s="2">
         <v>123</v>
@@ -2054,77 +2053,77 @@
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P8" s="2"/>
       <c r="Q8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE8" t="s" s="2">
         <v>127</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>128</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9">
@@ -2137,19 +2136,19 @@
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J9" t="s" s="2">
         <v>131</v>
@@ -2165,77 +2164,77 @@
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P9" s="2"/>
       <c r="Q9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE9" t="s" s="2">
         <v>135</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI9" t="s" s="2">
         <v>136</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>128</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10">
@@ -2248,19 +2247,19 @@
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>86</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>131</v>
@@ -2278,77 +2277,77 @@
         <v>140</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P10" s="2"/>
       <c r="Q10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE10" t="s" s="2">
         <v>141</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI10" t="s" s="2">
         <v>136</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>128</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11">
@@ -2357,20 +2356,20 @@
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I11" t="s" s="2">
         <v>86</v>
@@ -2389,68 +2388,68 @@
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P11" s="2"/>
       <c r="Q11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE11" t="s" s="2">
         <v>142</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI11" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>146</v>
@@ -2459,7 +2458,7 @@
         <v>147</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12">
@@ -2468,20 +2467,20 @@
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F12" t="s" s="2">
         <v>85</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I12" t="s" s="2">
         <v>86</v>
@@ -2500,26 +2499,26 @@
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P12" s="2"/>
       <c r="Q12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W12" t="s" s="2">
         <v>109</v>
@@ -2531,31 +2530,31 @@
         <v>154</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE12" t="s" s="2">
         <v>148</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>97</v>
@@ -2579,7 +2578,7 @@
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
@@ -2589,7 +2588,7 @@
         <v>85</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>86</v>
@@ -2611,26 +2610,26 @@
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W13" t="s" s="2">
         <v>163</v>
@@ -2642,46 +2641,46 @@
         <v>165</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE13" t="s" s="2">
         <v>159</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>166</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14">
@@ -2690,20 +2689,20 @@
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F14" t="s" s="2">
         <v>85</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I14" t="s" s="2">
         <v>86</v>
@@ -2720,62 +2719,62 @@
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P14" s="2"/>
       <c r="Q14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE14" t="s" s="2">
         <v>167</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>97</v>
@@ -2799,23 +2798,23 @@
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F15" t="s" s="2">
         <v>85</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J15" t="s" s="2">
         <v>149</v>
@@ -2831,26 +2830,26 @@
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P15" s="2"/>
       <c r="Q15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W15" t="s" s="2">
         <v>109</v>
@@ -2860,31 +2859,31 @@
         <v>179</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE15" t="s" s="2">
         <v>175</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>97</v>
@@ -2896,7 +2895,7 @@
         <v>181</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>182</v>
@@ -2908,23 +2907,23 @@
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F16" t="s" s="2">
         <v>85</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J16" t="s" s="2">
         <v>184</v>
@@ -2940,56 +2939,56 @@
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P16" s="2"/>
       <c r="Q16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE16" t="s" s="2">
         <v>183</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>85</v>
@@ -3001,13 +3000,13 @@
         <v>189</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>190</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>128</v>
@@ -3019,23 +3018,23 @@
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J17" t="s" s="2">
         <v>192</v>
@@ -3051,77 +3050,77 @@
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P17" s="2"/>
       <c r="Q17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE17" t="s" s="2">
         <v>191</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>196</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18">
@@ -3130,23 +3129,23 @@
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F18" t="s" s="2">
         <v>85</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J18" t="s" s="2">
         <v>198</v>
@@ -3160,77 +3159,77 @@
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P18" s="2"/>
       <c r="Q18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE18" t="s" s="2">
         <v>201</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>202</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19">
@@ -3239,23 +3238,23 @@
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J19" t="s" s="2">
         <v>131</v>
@@ -3269,45 +3268,45 @@
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P19" s="2"/>
       <c r="Q19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>206</v>
       </c>
       <c r="AB19" s="2"/>
       <c r="AC19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD19" t="s" s="2">
         <v>207</v>
@@ -3316,28 +3315,28 @@
         <v>208</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>136</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20">
@@ -3348,23 +3347,23 @@
         <v>209</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J20" t="s" s="2">
         <v>210</v>
@@ -3378,59 +3377,59 @@
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P20" s="2"/>
       <c r="Q20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE20" t="s" s="2">
         <v>208</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>188</v>
@@ -3439,16 +3438,16 @@
         <v>136</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21">
@@ -3461,13 +3460,13 @@
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>86</v>
@@ -3491,77 +3490,77 @@
         <v>140</v>
       </c>
       <c r="O21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P21" s="2"/>
       <c r="Q21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE21" t="s" s="2">
         <v>216</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>136</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>128</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="22">
@@ -3570,7 +3569,7 @@
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
@@ -3580,13 +3579,13 @@
         <v>85</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J22" t="s" s="2">
         <v>149</v>
@@ -3604,50 +3603,50 @@
         <v>221</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P22" s="2"/>
       <c r="Q22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE22" t="s" s="2">
         <v>217</v>
@@ -3659,7 +3658,7 @@
         <v>85</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>97</v>
@@ -3671,7 +3670,7 @@
         <v>222</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>223</v>
@@ -3683,23 +3682,23 @@
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F23" t="s" s="2">
         <v>85</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J23" t="s" s="2">
         <v>225</v>
@@ -3715,77 +3714,77 @@
         <v>228</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P23" s="2"/>
       <c r="Q23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE23" t="s" s="2">
         <v>224</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>229</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24">
@@ -3794,7 +3793,7 @@
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
@@ -3804,13 +3803,13 @@
         <v>85</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J24" t="s" s="2">
         <v>184</v>
@@ -3826,56 +3825,56 @@
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P24" s="2"/>
       <c r="Q24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE24" t="s" s="2">
         <v>230</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>85</v>
@@ -3887,13 +3886,13 @@
         <v>189</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>190</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>128</v>
@@ -3905,23 +3904,23 @@
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F25" t="s" s="2">
         <v>85</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J25" t="s" s="2">
         <v>198</v>
@@ -3935,77 +3934,77 @@
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P25" s="2"/>
       <c r="Q25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE25" t="s" s="2">
         <v>201</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>202</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26">
@@ -4018,19 +4017,19 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J26" t="s" s="2">
         <v>131</v>
@@ -4046,38 +4045,38 @@
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P26" s="2"/>
       <c r="Q26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>206</v>
@@ -4086,7 +4085,7 @@
         <v>237</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD26" t="s" s="2">
         <v>207</v>
@@ -4095,28 +4094,28 @@
         <v>208</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>136</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>202</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27">
@@ -4127,23 +4126,23 @@
         <v>238</v>
       </c>
       <c r="C27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J27" t="s" s="2">
         <v>239</v>
@@ -4157,77 +4156,77 @@
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P27" s="2"/>
       <c r="Q27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE27" t="s" s="2">
         <v>208</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>136</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="28">
@@ -4236,23 +4235,23 @@
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F28" t="s" s="2">
         <v>85</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J28" t="s" s="2">
         <v>243</v>
@@ -4268,56 +4267,56 @@
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P28" s="2"/>
       <c r="Q28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE28" t="s" s="2">
         <v>247</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>85</v>
@@ -4329,13 +4328,13 @@
         <v>248</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>249</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>250</v>
@@ -4347,23 +4346,23 @@
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F29" t="s" s="2">
         <v>85</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J29" t="s" s="2">
         <v>243</v>
@@ -4379,56 +4378,56 @@
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P29" s="2"/>
       <c r="Q29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE29" t="s" s="2">
         <v>253</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>85</v>
@@ -4440,13 +4439,13 @@
         <v>248</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>249</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>250</v>
@@ -4458,23 +4457,23 @@
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F30" t="s" s="2">
         <v>85</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J30" t="s" s="2">
         <v>192</v>
@@ -4488,62 +4487,62 @@
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P30" s="2"/>
       <c r="Q30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE30" t="s" s="2">
         <v>254</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>97</v>
@@ -4555,10 +4554,10 @@
         <v>257</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="31">
@@ -4567,23 +4566,23 @@
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F31" t="s" s="2">
         <v>85</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J31" t="s" s="2">
         <v>198</v>
@@ -4597,77 +4596,77 @@
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P31" s="2"/>
       <c r="Q31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE31" t="s" s="2">
         <v>201</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>202</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="32">
@@ -4680,19 +4679,19 @@
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J32" t="s" s="2">
         <v>131</v>
@@ -4708,77 +4707,77 @@
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P32" s="2"/>
       <c r="Q32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE32" t="s" s="2">
         <v>208</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>136</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>202</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="33">
@@ -4791,13 +4790,13 @@
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>86</v>
@@ -4821,77 +4820,77 @@
         <v>140</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P33" s="2"/>
       <c r="Q33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE33" t="s" s="2">
         <v>216</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>136</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>128</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="34">
@@ -4900,23 +4899,23 @@
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F34" t="s" s="2">
         <v>85</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J34" t="s" s="2">
         <v>198</v>
@@ -4932,62 +4931,62 @@
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P34" s="2"/>
       <c r="Q34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE34" t="s" s="2">
         <v>261</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>97</v>
@@ -4999,7 +4998,7 @@
         <v>146</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>265</v>
@@ -5011,23 +5010,23 @@
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F35" t="s" s="2">
         <v>85</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J35" t="s" s="2">
         <v>267</v>
@@ -5041,62 +5040,62 @@
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P35" s="2"/>
       <c r="Q35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE35" t="s" s="2">
         <v>266</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>97</v>
@@ -5108,7 +5107,7 @@
         <v>270</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>271</v>

--- a/jpcore-r4/develop/StructureDefinition-jp-medication.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medication.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0a</t>
+    <t>1.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-26</t>
+    <t>2022-10-24</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medication.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medication.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0</t>
+    <t>1.1.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medication.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medication.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1260" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1295" uniqueCount="275">
   <si>
     <t>Property</t>
   </si>
@@ -127,6 +127,9 @@
   </si>
   <si>
     <t>constraint</t>
+  </si>
+  <si>
+    <t>ID</t>
   </si>
   <si>
     <t>Path</t>
@@ -681,6 +684,9 @@
     <t>Element.extension</t>
   </si>
   <si>
+    <t>Medication.ingredient.extension:drugNo</t>
+  </si>
+  <si>
     <t>drugNo</t>
   </si>
   <si>
@@ -772,6 +778,9 @@
   </si>
   <si>
     <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>Medication.ingredient.strength.extension:strengthType</t>
   </si>
   <si>
     <t>strengthType</t>
@@ -1184,7 +1193,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM35"/>
+  <dimension ref="A1:AN35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1193,45 +1202,45 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="41.73046875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="13.3046875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="51.82421875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="41.73046875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="13.3046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="54.93359375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="106.484375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="255.0" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="55.39453125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="58.87890625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="55.39453125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="58.87890625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="195.5390625" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="98.9296875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="173.4375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="195.5390625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="98.9296875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="173.4375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1352,139 +1361,145 @@
       <c r="AM1" t="s" s="1">
         <v>76</v>
       </c>
+      <c r="AN1" t="s" s="1">
+        <v>77</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
         <v>31</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" t="s" s="2">
-        <v>78</v>
-      </c>
+      <c r="B2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="L2" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="M2" s="2"/>
+      <c r="M2" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="N2" s="2"/>
-      <c r="O2" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P2" s="2"/>
-      <c r="Q2" t="s" s="2">
-        <v>77</v>
-      </c>
+      <c r="O2" s="2"/>
+      <c r="P2" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE2" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF2" t="s" s="2">
         <v>31</v>
       </c>
-      <c r="AF2" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="AG2" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="AK2" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AN2" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="J3" t="s" s="2">
         <v>87</v>
@@ -1498,107 +1513,110 @@
       <c r="M3" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="N3" s="2"/>
-      <c r="O3" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P3" s="2"/>
-      <c r="Q3" t="s" s="2">
-        <v>77</v>
-      </c>
+      <c r="N3" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="O3" s="2"/>
+      <c r="P3" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AN3" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="K4" t="s" s="2">
         <v>94</v>
@@ -1606,108 +1624,111 @@
       <c r="L4" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="M4" s="2"/>
+      <c r="M4" t="s" s="2">
+        <v>96</v>
+      </c>
       <c r="N4" s="2"/>
-      <c r="O4" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P4" s="2"/>
-      <c r="Q4" t="s" s="2">
-        <v>77</v>
-      </c>
+      <c r="O4" s="2"/>
+      <c r="P4" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AN4" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="K5" t="s" s="2">
         <v>100</v>
@@ -1718,107 +1739,110 @@
       <c r="M5" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="N5" s="2"/>
-      <c r="O5" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P5" s="2"/>
-      <c r="Q5" t="s" s="2">
-        <v>77</v>
-      </c>
+      <c r="N5" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="O5" s="2"/>
+      <c r="P5" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>78</v>
+        <v>104</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AN5" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>105</v>
+        <v>78</v>
       </c>
       <c r="K6" t="s" s="2">
         <v>106</v>
@@ -1829,31 +1853,31 @@
       <c r="M6" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="N6" s="2"/>
-      <c r="O6" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P6" s="2"/>
-      <c r="Q6" t="s" s="2">
-        <v>77</v>
-      </c>
+      <c r="N6" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="O6" s="2"/>
+      <c r="P6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>109</v>
+        <v>78</v>
       </c>
       <c r="X6" t="s" s="2">
         <v>110</v>
@@ -1862,74 +1886,77 @@
         <v>111</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>77</v>
+        <v>112</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>112</v>
+        <v>78</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>78</v>
+        <v>113</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AN6" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="D7" s="2"/>
-      <c r="E7" t="s" s="2">
-        <v>78</v>
-      </c>
+      <c r="B7" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>115</v>
+        <v>78</v>
       </c>
       <c r="K7" t="s" s="2">
         <v>116</v>
@@ -1940,107 +1967,110 @@
       <c r="M7" t="s" s="2">
         <v>118</v>
       </c>
-      <c r="N7" s="2"/>
-      <c r="O7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P7" s="2"/>
-      <c r="Q7" t="s" s="2">
-        <v>77</v>
-      </c>
+      <c r="N7" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="O7" s="2"/>
+      <c r="P7" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>119</v>
+        <v>78</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>78</v>
+        <v>120</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>120</v>
+        <v>78</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>77</v>
+        <v>121</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AN7" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" t="s" s="2">
         <v>122</v>
       </c>
-      <c r="D8" s="2"/>
-      <c r="E8" t="s" s="2">
-        <v>78</v>
-      </c>
+      <c r="B8" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>123</v>
+        <v>78</v>
       </c>
       <c r="K8" t="s" s="2">
         <v>124</v>
@@ -2051,107 +2081,110 @@
       <c r="M8" t="s" s="2">
         <v>126</v>
       </c>
-      <c r="N8" s="2"/>
-      <c r="O8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P8" s="2"/>
-      <c r="Q8" t="s" s="2">
-        <v>77</v>
-      </c>
+      <c r="N8" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="O8" s="2"/>
+      <c r="P8" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>127</v>
+        <v>78</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>78</v>
+        <v>128</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>128</v>
+        <v>78</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AN8" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="D9" s="2"/>
-      <c r="E9" t="s" s="2">
-        <v>78</v>
-      </c>
+      <c r="B9" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>131</v>
+        <v>78</v>
       </c>
       <c r="K9" t="s" s="2">
         <v>132</v>
@@ -2162,331 +2195,340 @@
       <c r="M9" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="N9" s="2"/>
-      <c r="O9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P9" s="2"/>
-      <c r="Q9" t="s" s="2">
-        <v>77</v>
-      </c>
+      <c r="N9" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="O9" s="2"/>
+      <c r="P9" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>135</v>
+        <v>78</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>78</v>
+        <v>136</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>136</v>
+        <v>78</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>128</v>
+        <v>78</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AN9" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="C10" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="D10" s="2"/>
-      <c r="E10" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>131</v>
+        <v>78</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="L10" t="s" s="2">
         <v>139</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P10" s="2"/>
-      <c r="Q10" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="P10" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q10" s="2"/>
       <c r="R10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>141</v>
+        <v>78</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>78</v>
+        <v>142</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>136</v>
+        <v>78</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>128</v>
+        <v>78</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AN10" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D11" s="2"/>
-      <c r="E11" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>143</v>
+        <v>87</v>
       </c>
       <c r="K11" t="s" s="2">
         <v>144</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M11" t="s" s="2">
         <v>145</v>
       </c>
-      <c r="N11" s="2"/>
-      <c r="O11" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P11" s="2"/>
-      <c r="Q11" t="s" s="2">
-        <v>77</v>
-      </c>
+      <c r="N11" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="O11" s="2"/>
+      <c r="P11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q11" s="2"/>
       <c r="R11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>142</v>
+        <v>78</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>78</v>
+        <v>143</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>146</v>
+        <v>78</v>
       </c>
       <c r="AL11" t="s" s="2">
         <v>147</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>77</v>
+        <v>148</v>
+      </c>
+      <c r="AN11" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D12" s="2"/>
-      <c r="E12" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>149</v>
+        <v>87</v>
       </c>
       <c r="K12" t="s" s="2">
         <v>150</v>
@@ -2497,70 +2539,70 @@
       <c r="M12" t="s" s="2">
         <v>152</v>
       </c>
-      <c r="N12" s="2"/>
-      <c r="O12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P12" s="2"/>
-      <c r="Q12" t="s" s="2">
-        <v>77</v>
-      </c>
+      <c r="N12" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="O12" s="2"/>
+      <c r="P12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>109</v>
+        <v>78</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>153</v>
+        <v>110</v>
       </c>
       <c r="Y12" t="s" s="2">
         <v>154</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>77</v>
+        <v>155</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>148</v>
+        <v>78</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>78</v>
+        <v>149</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>155</v>
+        <v>98</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>156</v>
@@ -2571,36 +2613,39 @@
       <c r="AM12" t="s" s="2">
         <v>158</v>
       </c>
+      <c r="AN12" t="s" s="2">
+        <v>159</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="C13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D13" s="2"/>
-      <c r="E13" t="s" s="2">
-        <v>85</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>160</v>
+        <v>106</v>
       </c>
       <c r="L13" t="s" s="2">
         <v>161</v>
@@ -2608,31 +2653,31 @@
       <c r="M13" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="N13" s="2"/>
-      <c r="O13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P13" s="2"/>
-      <c r="Q13" t="s" s="2">
-        <v>77</v>
-      </c>
+      <c r="N13" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="O13" s="2"/>
+      <c r="P13" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>163</v>
+        <v>78</v>
       </c>
       <c r="X13" t="s" s="2">
         <v>164</v>
@@ -2641,74 +2686,77 @@
         <v>165</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>77</v>
+        <v>166</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>159</v>
+        <v>78</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>78</v>
+        <v>160</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>166</v>
+        <v>78</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>77</v>
+        <v>167</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AN13" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="B14" s="2"/>
-      <c r="C14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D14" s="2"/>
-      <c r="E14" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="B14" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>168</v>
+        <v>87</v>
       </c>
       <c r="K14" t="s" s="2">
         <v>169</v>
@@ -2716,71 +2764,71 @@
       <c r="L14" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="M14" s="2"/>
+      <c r="M14" t="s" s="2">
+        <v>171</v>
+      </c>
       <c r="N14" s="2"/>
-      <c r="O14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P14" s="2"/>
-      <c r="Q14" t="s" s="2">
-        <v>77</v>
-      </c>
+      <c r="O14" s="2"/>
+      <c r="P14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q14" s="2"/>
       <c r="R14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>167</v>
+        <v>78</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>78</v>
+        <v>168</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>171</v>
+        <v>98</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>172</v>
@@ -2791,36 +2839,39 @@
       <c r="AM14" t="s" s="2">
         <v>174</v>
       </c>
+      <c r="AN14" t="s" s="2">
+        <v>175</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="B15" s="2"/>
-      <c r="C15" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D15" s="2"/>
-      <c r="E15" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>149</v>
+        <v>78</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>176</v>
+        <v>150</v>
       </c>
       <c r="L15" t="s" s="2">
         <v>177</v>
@@ -2828,105 +2879,108 @@
       <c r="M15" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="N15" s="2"/>
-      <c r="O15" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P15" s="2"/>
-      <c r="Q15" t="s" s="2">
-        <v>77</v>
-      </c>
+      <c r="N15" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="O15" s="2"/>
+      <c r="P15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q15" s="2"/>
       <c r="R15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="X15" s="2"/>
-      <c r="Y15" t="s" s="2">
-        <v>179</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="X15" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="Y15" s="2"/>
       <c r="Z15" t="s" s="2">
-        <v>77</v>
+        <v>180</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>175</v>
+        <v>78</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>78</v>
+        <v>176</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>180</v>
+        <v>98</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>181</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>77</v>
+        <v>182</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>182</v>
+        <v>78</v>
+      </c>
+      <c r="AN15" t="s" s="2">
+        <v>183</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="B16" s="2"/>
-      <c r="C16" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D16" s="2"/>
-      <c r="E16" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>184</v>
+        <v>78</v>
       </c>
       <c r="K16" t="s" s="2">
         <v>185</v>
@@ -2937,107 +2991,110 @@
       <c r="M16" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="N16" s="2"/>
-      <c r="O16" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P16" s="2"/>
-      <c r="Q16" t="s" s="2">
-        <v>77</v>
-      </c>
+      <c r="N16" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="O16" s="2"/>
+      <c r="P16" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q16" s="2"/>
       <c r="R16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>183</v>
+        <v>78</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>78</v>
+        <v>184</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>188</v>
+        <v>86</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>189</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>77</v>
+        <v>190</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>190</v>
+        <v>78</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>77</v>
+        <v>191</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>128</v>
+        <v>78</v>
+      </c>
+      <c r="AN16" t="s" s="2">
+        <v>129</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="B17" s="2"/>
-      <c r="C17" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D17" s="2"/>
-      <c r="E17" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="B17" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>192</v>
+        <v>78</v>
       </c>
       <c r="K17" t="s" s="2">
         <v>193</v>
@@ -3048,107 +3105,110 @@
       <c r="M17" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="N17" s="2"/>
-      <c r="O17" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P17" s="2"/>
-      <c r="Q17" t="s" s="2">
-        <v>77</v>
-      </c>
+      <c r="N17" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="O17" s="2"/>
+      <c r="P17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>191</v>
+        <v>78</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>78</v>
+        <v>192</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>196</v>
+        <v>78</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>77</v>
+        <v>197</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AN17" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="B18" s="2"/>
-      <c r="C18" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D18" s="2"/>
-      <c r="E18" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="B18" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>198</v>
+        <v>78</v>
       </c>
       <c r="K18" t="s" s="2">
         <v>199</v>
@@ -3156,774 +3216,795 @@
       <c r="L18" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="M18" s="2"/>
+      <c r="M18" t="s" s="2">
+        <v>201</v>
+      </c>
       <c r="N18" s="2"/>
-      <c r="O18" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P18" s="2"/>
-      <c r="Q18" t="s" s="2">
-        <v>77</v>
-      </c>
+      <c r="O18" s="2"/>
+      <c r="P18" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>201</v>
+        <v>78</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>78</v>
+        <v>202</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>202</v>
+        <v>78</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>77</v>
+        <v>203</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AN18" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="B19" s="2"/>
-      <c r="C19" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D19" s="2"/>
-      <c r="E19" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="B19" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>131</v>
+        <v>78</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>204</v>
+        <v>132</v>
       </c>
       <c r="L19" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="M19" s="2"/>
+      <c r="M19" t="s" s="2">
+        <v>206</v>
+      </c>
       <c r="N19" s="2"/>
-      <c r="O19" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P19" s="2"/>
-      <c r="Q19" t="s" s="2">
-        <v>77</v>
-      </c>
+      <c r="O19" s="2"/>
+      <c r="P19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q19" s="2"/>
       <c r="R19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="AB19" s="2"/>
-      <c r="AC19" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="AB19" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AC19" s="2"/>
       <c r="AD19" t="s" s="2">
-        <v>207</v>
+        <v>78</v>
       </c>
       <c r="AE19" t="s" s="2">
         <v>208</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>78</v>
+        <v>209</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>136</v>
+        <v>78</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AN19" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="B20" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="C20" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="D20" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="F20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G20" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H20" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I20" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J20" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K20" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="L20" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="M20" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q20" s="2"/>
+      <c r="R20" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S20" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T20" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U20" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V20" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W20" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X20" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y20" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z20" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA20" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB20" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC20" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD20" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE20" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF20" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="C20" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D20" s="2"/>
-      <c r="E20" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F20" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G20" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H20" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I20" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J20" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="K20" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="L20" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P20" s="2"/>
-      <c r="Q20" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R20" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S20" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T20" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U20" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V20" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W20" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X20" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y20" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z20" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA20" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB20" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC20" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD20" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE20" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="AF20" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="AG20" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>188</v>
+        <v>80</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>136</v>
+        <v>189</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AN20" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="B21" s="2"/>
-      <c r="C21" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="D21" s="2"/>
-      <c r="E21" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="B21" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>131</v>
+        <v>87</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>214</v>
+        <v>132</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>134</v>
+        <v>217</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="O21" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P21" s="2"/>
-      <c r="Q21" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="P21" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>216</v>
+        <v>78</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>78</v>
+        <v>218</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>136</v>
+        <v>78</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>128</v>
+        <v>78</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AN21" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="B22" s="2"/>
-      <c r="C22" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D22" s="2"/>
-      <c r="E22" t="s" s="2">
-        <v>85</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="B22" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>149</v>
+        <v>78</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>218</v>
+        <v>150</v>
       </c>
       <c r="L22" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="M22" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="N22" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="O22" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="P22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q22" s="2"/>
+      <c r="R22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF22" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="M22" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="O22" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P22" s="2"/>
-      <c r="Q22" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R22" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S22" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T22" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U22" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V22" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W22" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X22" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y22" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z22" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA22" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB22" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC22" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD22" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE22" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="AF22" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="AG22" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>155</v>
+        <v>98</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>222</v>
+        <v>156</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>77</v>
+        <v>224</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>223</v>
+        <v>78</v>
+      </c>
+      <c r="AN22" t="s" s="2">
+        <v>225</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="B23" s="2"/>
-      <c r="C23" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D23" s="2"/>
-      <c r="E23" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="B23" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>225</v>
+        <v>78</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="L23" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="M23" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="N23" s="2"/>
+      <c r="O23" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="P23" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q23" s="2"/>
+      <c r="R23" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S23" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T23" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U23" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V23" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W23" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X23" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y23" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z23" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA23" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB23" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC23" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD23" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE23" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF23" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="L23" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="M23" s="2"/>
-      <c r="N23" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="O23" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P23" s="2"/>
-      <c r="Q23" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R23" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S23" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T23" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U23" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V23" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W23" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X23" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y23" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z23" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA23" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB23" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC23" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD23" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE23" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="AF23" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="AG23" t="s" s="2">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>229</v>
+        <v>78</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>77</v>
+        <v>231</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AN23" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="B24" s="2"/>
-      <c r="C24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D24" s="2"/>
-      <c r="E24" t="s" s="2">
-        <v>85</v>
-      </c>
+        <v>232</v>
+      </c>
+      <c r="B24" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>184</v>
+        <v>78</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>231</v>
+        <v>185</v>
       </c>
       <c r="L24" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="M24" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="O24" s="2"/>
+      <c r="P24" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q24" s="2"/>
+      <c r="R24" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S24" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T24" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U24" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V24" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W24" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X24" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y24" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z24" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA24" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB24" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC24" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD24" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE24" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF24" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="M24" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="N24" s="2"/>
-      <c r="O24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P24" s="2"/>
-      <c r="Q24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE24" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="AF24" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="AG24" t="s" s="2">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>188</v>
+        <v>86</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>189</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>77</v>
+        <v>190</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>190</v>
+        <v>78</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>77</v>
+        <v>191</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>128</v>
+        <v>78</v>
+      </c>
+      <c r="AN24" t="s" s="2">
+        <v>129</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="B25" s="2"/>
-      <c r="C25" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D25" s="2"/>
-      <c r="E25" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="B25" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>198</v>
+        <v>78</v>
       </c>
       <c r="K25" t="s" s="2">
         <v>199</v>
@@ -3931,661 +4012,679 @@
       <c r="L25" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="M25" s="2"/>
+      <c r="M25" t="s" s="2">
+        <v>201</v>
+      </c>
       <c r="N25" s="2"/>
-      <c r="O25" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P25" s="2"/>
-      <c r="Q25" t="s" s="2">
-        <v>77</v>
-      </c>
+      <c r="O25" s="2"/>
+      <c r="P25" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q25" s="2"/>
       <c r="R25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>201</v>
+        <v>78</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>78</v>
+        <v>202</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>202</v>
+        <v>78</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>77</v>
+        <v>203</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AN25" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="B26" s="2"/>
-      <c r="C26" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="D26" s="2"/>
-      <c r="E26" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>237</v>
+      </c>
+      <c r="B26" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>131</v>
+        <v>78</v>
       </c>
       <c r="K26" t="s" s="2">
         <v>132</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>236</v>
+        <v>133</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="N26" s="2"/>
-      <c r="O26" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P26" s="2"/>
-      <c r="Q26" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="O26" s="2"/>
+      <c r="P26" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>206</v>
+        <v>78</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>237</v>
+        <v>207</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>77</v>
+        <v>239</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>207</v>
+        <v>78</v>
       </c>
       <c r="AE26" t="s" s="2">
         <v>208</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>78</v>
+        <v>209</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>136</v>
+        <v>78</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>202</v>
+        <v>78</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>77</v>
+        <v>203</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AN26" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D27" s="2"/>
-      <c r="E27" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="D27" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>239</v>
+        <v>78</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="M27" s="2"/>
+        <v>243</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>244</v>
+      </c>
       <c r="N27" s="2"/>
-      <c r="O27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P27" s="2"/>
-      <c r="Q27" t="s" s="2">
-        <v>77</v>
-      </c>
+      <c r="O27" s="2"/>
+      <c r="P27" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q27" s="2"/>
       <c r="R27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>208</v>
+        <v>78</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>78</v>
+        <v>209</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>136</v>
+        <v>78</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AN27" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="B28" s="2"/>
-      <c r="C28" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D28" s="2"/>
-      <c r="E28" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>245</v>
+      </c>
+      <c r="B28" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>243</v>
+        <v>78</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="N28" s="2"/>
-      <c r="O28" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P28" s="2"/>
-      <c r="Q28" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="O28" s="2"/>
+      <c r="P28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>247</v>
+        <v>78</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>78</v>
+        <v>250</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>188</v>
+        <v>86</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>248</v>
+        <v>189</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>77</v>
+        <v>251</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>249</v>
+        <v>78</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>77</v>
+        <v>252</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>250</v>
+        <v>78</v>
+      </c>
+      <c r="AN28" t="s" s="2">
+        <v>253</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="B29" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E29" s="2"/>
+      <c r="F29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G29" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K29" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="L29" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="O29" s="2"/>
+      <c r="P29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q29" s="2"/>
+      <c r="R29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF29" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="AG29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH29" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI29" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="AJ29" t="s" s="2">
         <v>251</v>
       </c>
-      <c r="B29" s="2"/>
-      <c r="C29" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D29" s="2"/>
-      <c r="E29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F29" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="G29" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H29" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I29" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J29" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="K29" t="s" s="2">
+      <c r="AK29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL29" t="s" s="2">
         <v>252</v>
       </c>
-      <c r="L29" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="N29" s="2"/>
-      <c r="O29" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P29" s="2"/>
-      <c r="Q29" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R29" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S29" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T29" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U29" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V29" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W29" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X29" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y29" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z29" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA29" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB29" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC29" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD29" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE29" t="s" s="2">
+      <c r="AM29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN29" t="s" s="2">
         <v>253</v>
-      </c>
-      <c r="AF29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG29" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH29" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="AI29" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="AJ29" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK29" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="AL29" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM29" t="s" s="2">
-        <v>250</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="B30" s="2"/>
-      <c r="C30" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D30" s="2"/>
-      <c r="E30" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="B30" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>192</v>
+        <v>78</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>255</v>
+        <v>193</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="M30" s="2"/>
+        <v>258</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>259</v>
+      </c>
       <c r="N30" s="2"/>
-      <c r="O30" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P30" s="2"/>
-      <c r="Q30" t="s" s="2">
-        <v>77</v>
-      </c>
+      <c r="O30" s="2"/>
+      <c r="P30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q30" s="2"/>
       <c r="R30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>254</v>
+        <v>78</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>78</v>
+        <v>257</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>171</v>
+        <v>98</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>257</v>
+        <v>172</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>77</v>
+        <v>260</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AN30" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="B31" s="2"/>
-      <c r="C31" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D31" s="2"/>
-      <c r="E31" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>261</v>
+      </c>
+      <c r="B31" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>198</v>
+        <v>78</v>
       </c>
       <c r="K31" t="s" s="2">
         <v>199</v>
@@ -4593,524 +4692,539 @@
       <c r="L31" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="M31" s="2"/>
+      <c r="M31" t="s" s="2">
+        <v>201</v>
+      </c>
       <c r="N31" s="2"/>
-      <c r="O31" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P31" s="2"/>
-      <c r="Q31" t="s" s="2">
-        <v>77</v>
-      </c>
+      <c r="O31" s="2"/>
+      <c r="P31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q31" s="2"/>
       <c r="R31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>201</v>
+        <v>78</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>78</v>
+        <v>202</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>202</v>
+        <v>78</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>77</v>
+        <v>203</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AN31" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="B32" s="2"/>
-      <c r="C32" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="D32" s="2"/>
-      <c r="E32" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>262</v>
+      </c>
+      <c r="B32" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>131</v>
+        <v>78</v>
       </c>
       <c r="K32" t="s" s="2">
         <v>132</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>236</v>
+        <v>133</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="N32" s="2"/>
-      <c r="O32" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P32" s="2"/>
-      <c r="Q32" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="O32" s="2"/>
+      <c r="P32" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q32" s="2"/>
       <c r="R32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>208</v>
+        <v>78</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>78</v>
+        <v>209</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>136</v>
+        <v>78</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>202</v>
+        <v>78</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>77</v>
+        <v>203</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AN32" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="B33" s="2"/>
-      <c r="C33" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="D33" s="2"/>
-      <c r="E33" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>263</v>
+      </c>
+      <c r="B33" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>131</v>
+        <v>87</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>214</v>
+        <v>132</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>134</v>
+        <v>217</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P33" s="2"/>
-      <c r="Q33" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="P33" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>216</v>
+        <v>78</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>78</v>
+        <v>218</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>136</v>
+        <v>78</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>128</v>
+        <v>78</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AN33" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="B34" s="2"/>
-      <c r="C34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D34" s="2"/>
-      <c r="E34" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>264</v>
+      </c>
+      <c r="B34" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="C34" s="2"/>
+      <c r="D34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>198</v>
+        <v>78</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>262</v>
+        <v>199</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="M34" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="O34" s="2"/>
+      <c r="P34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q34" s="2"/>
+      <c r="R34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF34" t="s" s="2">
         <v>264</v>
       </c>
-      <c r="N34" s="2"/>
-      <c r="O34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P34" s="2"/>
-      <c r="Q34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE34" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="AF34" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="AG34" t="s" s="2">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>171</v>
+        <v>98</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>146</v>
+        <v>172</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>77</v>
+        <v>147</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>265</v>
+        <v>78</v>
+      </c>
+      <c r="AN34" t="s" s="2">
+        <v>268</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="B35" s="2"/>
-      <c r="C35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D35" s="2"/>
-      <c r="E35" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>269</v>
+      </c>
+      <c r="B35" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="C35" s="2"/>
+      <c r="D35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>267</v>
+        <v>78</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="L35" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q35" s="2"/>
+      <c r="R35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF35" t="s" s="2">
         <v>269</v>
       </c>
-      <c r="M35" s="2"/>
-      <c r="N35" s="2"/>
-      <c r="O35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P35" s="2"/>
-      <c r="Q35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE35" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="AF35" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="AG35" t="s" s="2">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>171</v>
+        <v>98</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>270</v>
+        <v>172</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>77</v>
+        <v>273</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>271</v>
+        <v>78</v>
+      </c>
+      <c r="AN35" t="s" s="2">
+        <v>274</v>
       </c>
     </row>
   </sheetData>

--- a/jpcore-r4/develop/StructureDefinition-jp-medication.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medication.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1295" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1295" uniqueCount="276">
   <si>
     <t>Property</t>
   </si>
@@ -256,6 +256,10 @@
   </si>
   <si>
     <t>*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
   </si>
   <si>
     <t>Medication Resourceの定義</t>
@@ -1393,13 +1397,13 @@
         <v>78</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -1465,10 +1469,10 @@
         <v>78</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AM2" t="s" s="2">
         <v>78</v>
@@ -1479,10 +1483,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1493,7 +1497,7 @@
         <v>79</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>78</v>
@@ -1502,19 +1506,19 @@
         <v>78</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="N3" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
@@ -1564,13 +1568,13 @@
         <v>78</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>78</v>
@@ -1593,10 +1597,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -1607,7 +1611,7 @@
         <v>79</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>78</v>
@@ -1616,16 +1620,16 @@
         <v>78</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -1676,19 +1680,19 @@
         <v>78</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>78</v>
@@ -1705,10 +1709,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -1719,28 +1723,28 @@
         <v>79</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -1790,19 +1794,19 @@
         <v>78</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>78</v>
@@ -1819,10 +1823,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -1833,7 +1837,7 @@
         <v>79</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>78</v>
@@ -1845,16 +1849,16 @@
         <v>78</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -1880,13 +1884,13 @@
         <v>78</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AA6" t="s" s="2">
         <v>78</v>
@@ -1904,19 +1908,19 @@
         <v>78</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>78</v>
@@ -1933,21 +1937,21 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>78</v>
@@ -1959,16 +1963,16 @@
         <v>78</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2018,25 +2022,25 @@
         <v>78</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AM7" t="s" s="2">
         <v>78</v>
@@ -2047,14 +2051,14 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -2073,16 +2077,16 @@
         <v>78</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2132,7 +2136,7 @@
         <v>78</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>79</v>
@@ -2150,7 +2154,7 @@
         <v>78</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AM8" t="s" s="2">
         <v>78</v>
@@ -2161,14 +2165,14 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2187,16 +2191,16 @@
         <v>78</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -2246,7 +2250,7 @@
         <v>78</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>79</v>
@@ -2258,13 +2262,13 @@
         <v>78</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AM9" t="s" s="2">
         <v>78</v>
@@ -2275,14 +2279,14 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
@@ -2295,25 +2299,25 @@
         <v>78</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>78</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>78</v>
@@ -2362,7 +2366,7 @@
         <v>78</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>79</v>
@@ -2374,13 +2378,13 @@
         <v>78</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AM10" t="s" s="2">
         <v>78</v>
@@ -2391,10 +2395,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2414,19 +2418,19 @@
         <v>78</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
@@ -2476,7 +2480,7 @@
         <v>78</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>79</v>
@@ -2488,16 +2492,16 @@
         <v>78</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AN11" t="s" s="2">
         <v>78</v>
@@ -2505,10 +2509,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2519,7 +2523,7 @@
         <v>79</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>78</v>
@@ -2528,19 +2532,19 @@
         <v>78</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -2566,13 +2570,13 @@
         <v>78</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>78</v>
@@ -2590,39 +2594,39 @@
         <v>78</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2630,31 +2634,31 @@
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -2680,13 +2684,13 @@
         <v>78</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>78</v>
@@ -2704,25 +2708,25 @@
         <v>78</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>78</v>
@@ -2733,10 +2737,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2747,7 +2751,7 @@
         <v>79</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>78</v>
@@ -2756,16 +2760,16 @@
         <v>78</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -2816,39 +2820,39 @@
         <v>78</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -2859,7 +2863,7 @@
         <v>79</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>78</v>
@@ -2871,16 +2875,16 @@
         <v>78</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -2906,11 +2910,11 @@
         <v>78</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Y15" s="2"/>
       <c r="Z15" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>78</v>
@@ -2928,39 +2932,39 @@
         <v>78</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -2971,7 +2975,7 @@
         <v>79</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>78</v>
@@ -2983,16 +2987,16 @@
         <v>78</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -3042,39 +3046,39 @@
         <v>78</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3097,16 +3101,16 @@
         <v>78</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -3156,7 +3160,7 @@
         <v>78</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>79</v>
@@ -3168,13 +3172,13 @@
         <v>78</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>78</v>
@@ -3185,10 +3189,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3199,7 +3203,7 @@
         <v>79</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>78</v>
@@ -3211,13 +3215,13 @@
         <v>78</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -3268,13 +3272,13 @@
         <v>78</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>78</v>
@@ -3286,7 +3290,7 @@
         <v>78</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>78</v>
@@ -3297,10 +3301,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3323,13 +3327,13 @@
         <v>78</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -3368,17 +3372,17 @@
         <v>78</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AC19" s="2"/>
       <c r="AD19" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>79</v>
@@ -3390,7 +3394,7 @@
         <v>78</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>78</v>
@@ -3407,13 +3411,13 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>78</v>
@@ -3435,13 +3439,13 @@
         <v>78</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -3492,7 +3496,7 @@
         <v>78</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>79</v>
@@ -3501,10 +3505,10 @@
         <v>80</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>78</v>
@@ -3521,14 +3525,14 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
@@ -3541,25 +3545,25 @@
         <v>78</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O21" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>78</v>
@@ -3608,7 +3612,7 @@
         <v>78</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>79</v>
@@ -3620,13 +3624,13 @@
         <v>78</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>78</v>
@@ -3637,10 +3641,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3648,10 +3652,10 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>78</v>
@@ -3663,19 +3667,19 @@
         <v>78</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>78</v>
@@ -3724,39 +3728,39 @@
         <v>78</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3767,7 +3771,7 @@
         <v>79</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>78</v>
@@ -3779,17 +3783,17 @@
         <v>78</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>78</v>
@@ -3838,25 +3842,25 @@
         <v>78</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>78</v>
@@ -3867,10 +3871,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3878,10 +3882,10 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>78</v>
@@ -3893,16 +3897,16 @@
         <v>78</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -3952,39 +3956,39 @@
         <v>78</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -3995,7 +3999,7 @@
         <v>79</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>78</v>
@@ -4007,13 +4011,13 @@
         <v>78</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -4064,13 +4068,13 @@
         <v>78</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>78</v>
@@ -4082,7 +4086,7 @@
         <v>78</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>78</v>
@@ -4093,14 +4097,14 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
@@ -4119,16 +4123,16 @@
         <v>78</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -4166,19 +4170,19 @@
         <v>78</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AD26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>79</v>
@@ -4190,13 +4194,13 @@
         <v>78</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>78</v>
@@ -4207,13 +4211,13 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C27" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D27" t="s" s="2">
         <v>78</v>
@@ -4235,13 +4239,13 @@
         <v>78</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -4292,7 +4296,7 @@
         <v>78</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>79</v>
@@ -4304,7 +4308,7 @@
         <v>78</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>78</v>
@@ -4321,10 +4325,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4335,7 +4339,7 @@
         <v>79</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>78</v>
@@ -4347,16 +4351,16 @@
         <v>78</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -4406,39 +4410,39 @@
         <v>78</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4449,7 +4453,7 @@
         <v>79</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>78</v>
@@ -4461,16 +4465,16 @@
         <v>78</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -4520,39 +4524,39 @@
         <v>78</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4563,7 +4567,7 @@
         <v>79</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>78</v>
@@ -4575,13 +4579,13 @@
         <v>78</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -4632,25 +4636,25 @@
         <v>78</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>78</v>
@@ -4661,10 +4665,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4675,7 +4679,7 @@
         <v>79</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>78</v>
@@ -4687,13 +4691,13 @@
         <v>78</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -4744,13 +4748,13 @@
         <v>78</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>78</v>
@@ -4762,7 +4766,7 @@
         <v>78</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>78</v>
@@ -4773,14 +4777,14 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
@@ -4799,16 +4803,16 @@
         <v>78</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -4858,7 +4862,7 @@
         <v>78</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>79</v>
@@ -4870,13 +4874,13 @@
         <v>78</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>78</v>
@@ -4887,14 +4891,14 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
@@ -4907,25 +4911,25 @@
         <v>78</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>78</v>
@@ -4974,7 +4978,7 @@
         <v>78</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>79</v>
@@ -4986,13 +4990,13 @@
         <v>78</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>78</v>
@@ -5003,10 +5007,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5017,7 +5021,7 @@
         <v>79</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>78</v>
@@ -5029,16 +5033,16 @@
         <v>78</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -5088,39 +5092,39 @@
         <v>78</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5131,7 +5135,7 @@
         <v>79</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>78</v>
@@ -5143,13 +5147,13 @@
         <v>78</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -5200,31 +5204,31 @@
         <v>78</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
   </sheetData>

--- a/jpcore-r4/develop/StructureDefinition-jp-medication.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medication.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1295" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1295" uniqueCount="275">
   <si>
     <t>Property</t>
   </si>
@@ -256,10 +256,6 @@
   </si>
   <si>
     <t>*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-</t>
   </si>
   <si>
     <t>Medication Resourceの定義</t>
@@ -1397,13 +1393,13 @@
         <v>78</v>
       </c>
       <c r="K2" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L2" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="L2" t="s" s="2">
+      <c r="M2" t="s" s="2">
         <v>82</v>
-      </c>
-      <c r="M2" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -1469,10 +1465,10 @@
         <v>78</v>
       </c>
       <c r="AK2" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL2" t="s" s="2">
         <v>84</v>
-      </c>
-      <c r="AL2" t="s" s="2">
-        <v>85</v>
       </c>
       <c r="AM2" t="s" s="2">
         <v>78</v>
@@ -1483,10 +1479,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1497,28 +1493,28 @@
         <v>79</v>
       </c>
       <c r="G3" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I3" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J3" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="H3" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I3" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="M3" t="s" s="2">
+      <c r="N3" t="s" s="2">
         <v>91</v>
-      </c>
-      <c r="N3" t="s" s="2">
-        <v>92</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
@@ -1568,13 +1564,13 @@
         <v>78</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>78</v>
@@ -1597,10 +1593,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -1611,25 +1607,25 @@
         <v>79</v>
       </c>
       <c r="G4" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I4" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J4" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="H4" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I4" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J4" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="K4" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="L4" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="L4" t="s" s="2">
+      <c r="M4" t="s" s="2">
         <v>96</v>
-      </c>
-      <c r="M4" t="s" s="2">
-        <v>97</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -1680,19 +1676,19 @@
         <v>78</v>
       </c>
       <c r="AF4" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AG4" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH4" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI4" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ4" t="s" s="2">
         <v>98</v>
-      </c>
-      <c r="AG4" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH4" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI4" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ4" t="s" s="2">
-        <v>99</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>78</v>
@@ -1709,10 +1705,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -1723,28 +1719,28 @@
         <v>79</v>
       </c>
       <c r="G5" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H5" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I5" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="H5" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I5" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J5" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K5" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="L5" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="M5" t="s" s="2">
+      <c r="N5" t="s" s="2">
         <v>103</v>
-      </c>
-      <c r="N5" t="s" s="2">
-        <v>104</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -1794,19 +1790,19 @@
         <v>78</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>78</v>
@@ -1823,10 +1819,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -1837,7 +1833,7 @@
         <v>79</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>78</v>
@@ -1849,16 +1845,16 @@
         <v>78</v>
       </c>
       <c r="K6" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L6" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="M6" t="s" s="2">
+      <c r="N6" t="s" s="2">
         <v>109</v>
-      </c>
-      <c r="N6" t="s" s="2">
-        <v>110</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -1884,43 +1880,43 @@
         <v>78</v>
       </c>
       <c r="X6" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="Y6" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="Y6" t="s" s="2">
+      <c r="Z6" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="Z6" t="s" s="2">
+      <c r="AA6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF6" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="AA6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF6" t="s" s="2">
-        <v>114</v>
-      </c>
       <c r="AG6" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>78</v>
@@ -1937,21 +1933,21 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>78</v>
@@ -1963,16 +1959,16 @@
         <v>78</v>
       </c>
       <c r="K7" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="L7" t="s" s="2">
         <v>117</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>118</v>
       </c>
-      <c r="M7" t="s" s="2">
+      <c r="N7" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="N7" t="s" s="2">
-        <v>120</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2022,25 +2018,25 @@
         <v>78</v>
       </c>
       <c r="AF7" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="AG7" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH7" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI7" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK7" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL7" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="AG7" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH7" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI7" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ7" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK7" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL7" t="s" s="2">
-        <v>122</v>
       </c>
       <c r="AM7" t="s" s="2">
         <v>78</v>
@@ -2051,14 +2047,14 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -2077,16 +2073,16 @@
         <v>78</v>
       </c>
       <c r="K8" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="L8" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>126</v>
       </c>
-      <c r="M8" t="s" s="2">
+      <c r="N8" t="s" s="2">
         <v>127</v>
-      </c>
-      <c r="N8" t="s" s="2">
-        <v>128</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2136,7 +2132,7 @@
         <v>78</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>79</v>
@@ -2154,7 +2150,7 @@
         <v>78</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AM8" t="s" s="2">
         <v>78</v>
@@ -2165,14 +2161,14 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2191,16 +2187,16 @@
         <v>78</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="L9" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="M9" t="s" s="2">
+      <c r="N9" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -2250,7 +2246,7 @@
         <v>78</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>79</v>
@@ -2262,13 +2258,13 @@
         <v>78</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AM9" t="s" s="2">
         <v>78</v>
@@ -2279,14 +2275,14 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
@@ -2299,25 +2295,25 @@
         <v>78</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>78</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L10" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="M10" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="M10" t="s" s="2">
+      <c r="N10" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="O10" t="s" s="2">
         <v>141</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="O10" t="s" s="2">
-        <v>142</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>78</v>
@@ -2366,7 +2362,7 @@
         <v>78</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>79</v>
@@ -2378,13 +2374,13 @@
         <v>78</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AM10" t="s" s="2">
         <v>78</v>
@@ -2395,10 +2391,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2418,19 +2414,19 @@
         <v>78</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K11" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="L11" t="s" s="2">
         <v>145</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="M11" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="N11" t="s" s="2">
         <v>146</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>147</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
@@ -2480,7 +2476,7 @@
         <v>78</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>79</v>
@@ -2492,16 +2488,16 @@
         <v>78</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL11" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="AM11" t="s" s="2">
         <v>148</v>
-      </c>
-      <c r="AM11" t="s" s="2">
-        <v>149</v>
       </c>
       <c r="AN11" t="s" s="2">
         <v>78</v>
@@ -2509,10 +2505,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2523,28 +2519,28 @@
         <v>79</v>
       </c>
       <c r="G12" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J12" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="H12" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I12" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J12" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="K12" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>151</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="M12" t="s" s="2">
         <v>152</v>
       </c>
-      <c r="M12" t="s" s="2">
+      <c r="N12" t="s" s="2">
         <v>153</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>154</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -2570,63 +2566,63 @@
         <v>78</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="Y12" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="Z12" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="Z12" t="s" s="2">
+      <c r="AA12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF12" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="AG12" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH12" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ12" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK12" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="AA12" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB12" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC12" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD12" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE12" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF12" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="AG12" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH12" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI12" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ12" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK12" t="s" s="2">
+      <c r="AL12" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="AL12" t="s" s="2">
+      <c r="AM12" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="AM12" t="s" s="2">
+      <c r="AN12" t="s" s="2">
         <v>159</v>
-      </c>
-      <c r="AN12" t="s" s="2">
-        <v>160</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2634,31 +2630,31 @@
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G13" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H13" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I13" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G13" t="s" s="2">
+      <c r="J13" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="H13" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I13" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="J13" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="K13" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L13" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="M13" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="M13" t="s" s="2">
+      <c r="N13" t="s" s="2">
         <v>163</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>164</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -2684,49 +2680,49 @@
         <v>78</v>
       </c>
       <c r="X13" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="Y13" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="Y13" t="s" s="2">
+      <c r="Z13" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="Z13" t="s" s="2">
+      <c r="AA13" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB13" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC13" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD13" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE13" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF13" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="AG13" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH13" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI13" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK13" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL13" t="s" s="2">
         <v>167</v>
-      </c>
-      <c r="AA13" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB13" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC13" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD13" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE13" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF13" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="AG13" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH13" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI13" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ13" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK13" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL13" t="s" s="2">
-        <v>168</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>78</v>
@@ -2737,10 +2733,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2751,25 +2747,25 @@
         <v>79</v>
       </c>
       <c r="G14" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J14" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="H14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J14" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="K14" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>171</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>172</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -2820,39 +2816,39 @@
         <v>78</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AK14" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="AL14" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="AL14" t="s" s="2">
+      <c r="AM14" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="AM14" t="s" s="2">
+      <c r="AN14" t="s" s="2">
         <v>175</v>
-      </c>
-      <c r="AN14" t="s" s="2">
-        <v>176</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -2863,7 +2859,7 @@
         <v>79</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>78</v>
@@ -2875,16 +2871,16 @@
         <v>78</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L15" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="M15" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="M15" t="s" s="2">
+      <c r="N15" t="s" s="2">
         <v>179</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>180</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -2910,61 +2906,61 @@
         <v>78</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="Y15" s="2"/>
       <c r="Z15" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="AA15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF15" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="AG15" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH15" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK15" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="AA15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF15" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="AG15" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH15" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ15" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK15" t="s" s="2">
+      <c r="AL15" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="AL15" t="s" s="2">
+      <c r="AM15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN15" t="s" s="2">
         <v>183</v>
-      </c>
-      <c r="AM15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN15" t="s" s="2">
-        <v>184</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -2975,7 +2971,7 @@
         <v>79</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>78</v>
@@ -2987,16 +2983,16 @@
         <v>78</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="M16" t="s" s="2">
+      <c r="N16" t="s" s="2">
         <v>188</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>189</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -3046,39 +3042,39 @@
         <v>78</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AI16" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="AJ16" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="AJ16" t="s" s="2">
+      <c r="AK16" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL16" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="AK16" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL16" t="s" s="2">
-        <v>192</v>
-      </c>
       <c r="AM16" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3101,16 +3097,16 @@
         <v>78</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="M17" t="s" s="2">
+      <c r="N17" t="s" s="2">
         <v>196</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>197</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -3160,7 +3156,7 @@
         <v>78</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>79</v>
@@ -3172,13 +3168,13 @@
         <v>78</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>78</v>
@@ -3189,10 +3185,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3203,7 +3199,7 @@
         <v>79</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>78</v>
@@ -3215,13 +3211,13 @@
         <v>78</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>201</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>202</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -3272,25 +3268,25 @@
         <v>78</v>
       </c>
       <c r="AF18" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="AG18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH18" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI18" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK18" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL18" t="s" s="2">
         <v>203</v>
-      </c>
-      <c r="AG18" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH18" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL18" t="s" s="2">
-        <v>204</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>78</v>
@@ -3301,10 +3297,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3327,13 +3323,13 @@
         <v>78</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L19" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="M19" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -3372,17 +3368,17 @@
         <v>78</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AC19" s="2"/>
       <c r="AD19" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE19" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="AF19" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="AF19" t="s" s="2">
-        <v>210</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>79</v>
@@ -3394,7 +3390,7 @@
         <v>78</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>78</v>
@@ -3411,13 +3407,13 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="C20" t="s" s="2">
         <v>211</v>
-      </c>
-      <c r="B20" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="C20" t="s" s="2">
-        <v>212</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>78</v>
@@ -3439,13 +3435,13 @@
         <v>78</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="L20" t="s" s="2">
-        <v>214</v>
-      </c>
       <c r="M20" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -3496,7 +3492,7 @@
         <v>78</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>79</v>
@@ -3505,10 +3501,10 @@
         <v>80</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>78</v>
@@ -3525,14 +3521,14 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
@@ -3545,25 +3541,25 @@
         <v>78</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L21" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="M21" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="M21" t="s" s="2">
-        <v>218</v>
-      </c>
       <c r="N21" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O21" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>78</v>
@@ -3612,7 +3608,7 @@
         <v>78</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>79</v>
@@ -3624,13 +3620,13 @@
         <v>78</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>78</v>
@@ -3641,10 +3637,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3652,10 +3648,10 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>78</v>
@@ -3667,19 +3663,19 @@
         <v>78</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L22" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="M22" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="M22" t="s" s="2">
+      <c r="N22" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="N22" t="s" s="2">
+      <c r="O22" t="s" s="2">
         <v>223</v>
-      </c>
-      <c r="O22" t="s" s="2">
-        <v>224</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>78</v>
@@ -3728,39 +3724,39 @@
         <v>78</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AL22" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="AM22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN22" t="s" s="2">
         <v>225</v>
-      </c>
-      <c r="AM22" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN22" t="s" s="2">
-        <v>226</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3771,7 +3767,7 @@
         <v>79</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>78</v>
@@ -3783,17 +3779,17 @@
         <v>78</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>229</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>230</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>78</v>
@@ -3842,25 +3838,25 @@
         <v>78</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>78</v>
@@ -3871,10 +3867,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3882,10 +3878,10 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>78</v>
@@ -3897,16 +3893,16 @@
         <v>78</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="L24" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="M24" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>235</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>236</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -3956,39 +3952,39 @@
         <v>78</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AI24" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="AJ24" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="AJ24" t="s" s="2">
+      <c r="AK24" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL24" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="AK24" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL24" t="s" s="2">
-        <v>192</v>
-      </c>
       <c r="AM24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -3999,7 +3995,7 @@
         <v>79</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>78</v>
@@ -4011,13 +4007,13 @@
         <v>78</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>201</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>202</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -4068,25 +4064,25 @@
         <v>78</v>
       </c>
       <c r="AF25" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="AG25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH25" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI25" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ25" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK25" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL25" t="s" s="2">
         <v>203</v>
-      </c>
-      <c r="AG25" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH25" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI25" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ25" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK25" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL25" t="s" s="2">
-        <v>204</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>78</v>
@@ -4097,14 +4093,14 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
@@ -4123,16 +4119,16 @@
         <v>78</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="L26" t="s" s="2">
-        <v>134</v>
-      </c>
       <c r="M26" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -4170,19 +4166,19 @@
         <v>78</v>
       </c>
       <c r="AB26" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AC26" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="AD26" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE26" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="AC26" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="AD26" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE26" t="s" s="2">
+      <c r="AF26" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="AF26" t="s" s="2">
-        <v>210</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>79</v>
@@ -4194,13 +4190,13 @@
         <v>78</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>78</v>
@@ -4211,13 +4207,13 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="B27" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="C27" t="s" s="2">
         <v>241</v>
-      </c>
-      <c r="B27" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="C27" t="s" s="2">
-        <v>242</v>
       </c>
       <c r="D27" t="s" s="2">
         <v>78</v>
@@ -4239,13 +4235,13 @@
         <v>78</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="M27" t="s" s="2">
         <v>244</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>245</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -4296,7 +4292,7 @@
         <v>78</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>79</v>
@@ -4308,7 +4304,7 @@
         <v>78</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>78</v>
@@ -4325,10 +4321,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4339,7 +4335,7 @@
         <v>79</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>78</v>
@@ -4351,16 +4347,16 @@
         <v>78</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="M28" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="M28" t="s" s="2">
+      <c r="N28" t="s" s="2">
         <v>249</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>250</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -4410,39 +4406,39 @@
         <v>78</v>
       </c>
       <c r="AF28" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="AG28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH28" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI28" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="AJ28" t="s" s="2">
         <v>251</v>
       </c>
-      <c r="AG28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH28" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI28" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="AJ28" t="s" s="2">
+      <c r="AK28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL28" t="s" s="2">
         <v>252</v>
       </c>
-      <c r="AK28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL28" t="s" s="2">
+      <c r="AM28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN28" t="s" s="2">
         <v>253</v>
-      </c>
-      <c r="AM28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN28" t="s" s="2">
-        <v>254</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4453,7 +4449,7 @@
         <v>79</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>78</v>
@@ -4465,16 +4461,16 @@
         <v>78</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="M29" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="N29" t="s" s="2">
         <v>249</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>250</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -4524,39 +4520,39 @@
         <v>78</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AJ29" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="AK29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL29" t="s" s="2">
         <v>252</v>
       </c>
-      <c r="AK29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL29" t="s" s="2">
+      <c r="AM29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN29" t="s" s="2">
         <v>253</v>
-      </c>
-      <c r="AM29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN29" t="s" s="2">
-        <v>254</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4567,7 +4563,7 @@
         <v>79</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>78</v>
@@ -4579,13 +4575,13 @@
         <v>78</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="L30" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="M30" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>260</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -4636,25 +4632,25 @@
         <v>78</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>78</v>
@@ -4665,10 +4661,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4679,7 +4675,7 @@
         <v>79</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>78</v>
@@ -4691,13 +4687,13 @@
         <v>78</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>201</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>202</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -4748,25 +4744,25 @@
         <v>78</v>
       </c>
       <c r="AF31" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="AG31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH31" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL31" t="s" s="2">
         <v>203</v>
-      </c>
-      <c r="AG31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH31" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI31" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ31" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK31" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL31" t="s" s="2">
-        <v>204</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>78</v>
@@ -4777,14 +4773,14 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
@@ -4803,16 +4799,16 @@
         <v>78</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="L32" t="s" s="2">
-        <v>134</v>
-      </c>
       <c r="M32" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -4862,7 +4858,7 @@
         <v>78</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>79</v>
@@ -4874,13 +4870,13 @@
         <v>78</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>78</v>
@@ -4891,14 +4887,14 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
@@ -4911,25 +4907,25 @@
         <v>78</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L33" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="M33" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="M33" t="s" s="2">
-        <v>218</v>
-      </c>
       <c r="N33" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>78</v>
@@ -4978,7 +4974,7 @@
         <v>78</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>79</v>
@@ -4990,13 +4986,13 @@
         <v>78</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>78</v>
@@ -5007,10 +5003,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5021,7 +5017,7 @@
         <v>79</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>78</v>
@@ -5033,16 +5029,16 @@
         <v>78</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="L34" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="M34" t="s" s="2">
         <v>266</v>
       </c>
-      <c r="M34" t="s" s="2">
+      <c r="N34" t="s" s="2">
         <v>267</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>268</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -5092,39 +5088,39 @@
         <v>78</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5135,7 +5131,7 @@
         <v>79</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>78</v>
@@ -5147,13 +5143,13 @@
         <v>78</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>271</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>272</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>273</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -5204,31 +5200,31 @@
         <v>78</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AL35" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="AM35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN35" t="s" s="2">
         <v>274</v>
-      </c>
-      <c r="AM35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN35" t="s" s="2">
-        <v>275</v>
       </c>
     </row>
   </sheetData>

--- a/jpcore-r4/develop/StructureDefinition-jp-medication.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medication.xlsx
@@ -313,16 +313,16 @@
 </t>
   </si>
   <si>
-    <t>Metadata about the resource</t>
-  </si>
-  <si>
-    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
+    <t>リソースに関するメタデータ / Metadata about the resource</t>
+  </si>
+  <si>
+    <t>リソースに関するメタデータ。これは、インフラストラクチャによって維持されるコンテンツです。コンテンツの変更は、常にリソースのバージョンの変更に関連付けられているとは限りません。 / The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
   </si>
   <si>
     <t>Resource.meta</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+    <t xml:space="preserve">ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
   </si>
   <si>
@@ -333,13 +333,13 @@
 </t>
   </si>
   <si>
-    <t>A set of rules under which this content was created</t>
-  </si>
-  <si>
-    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
-  </si>
-  <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
+    <t>このコンテンツが作成されたルールのセット / A set of rules under which this content was created</t>
+  </si>
+  <si>
+    <t>リソースが構築されたときに従った一連のルールへの参照。コンテンツの処理時に理解する必要があります。多くの場合、これは他のプロファイルなどとともに特別なルールを定義する実装ガイドへの参照です。 / A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
+  </si>
+  <si>
+    <t>このルールセットを主張することは、コンテンツが限られた取引パートナーのセットによってのみ理解されることを制限します。これにより、本質的に長期的にデータの有用性が制限されます。ただし、既存の健康エコシステムは非常に破壊されており、一般的に計算可能な意味でデータを定義、収集、交換する準備ができていません。可能な限り、実装者や仕様ライターはこの要素の使用を避ける必要があります。多くの場合、使用する場合、URLは、これらの特別なルールを他のプロファイル、バリューセットなどとともに叙述(Narative)の一部として定義する実装ガイドへの参照です。 / Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
   </si>
   <si>
     <t>Resource.implicitRules</t>
@@ -352,19 +352,19 @@
 </t>
   </si>
   <si>
-    <t>Language of the resource content</t>
-  </si>
-  <si>
-    <t>The base language in which the resource is written.</t>
-  </si>
-  <si>
-    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
+    <t>リソースコンテンツの言語 / Language of the resource content</t>
+  </si>
+  <si>
+    <t>リソースが書かれている基本言語。 / The base language in which the resource is written.</t>
+  </si>
+  <si>
+    <t>言語は、インデックス作成とアクセシビリティをサポートするために提供されます（通常、テキストから音声までのサービスなどのサービスが言語タグを使用します）。叙述(Narative)のHTML言語タグは、叙述(Narative)に適用されます。リソース上の言語タグを使用して、リソース内のデータから生成された他のプレゼンテーションの言語を指定できます。すべてのコンテンツが基本言語である必要はありません。リソース。言語は、叙述(Narative)に自動的に適用されると想定されるべきではありません。言語が指定されている場合、HTMLのDIV要素にも指定されている場合（XML：LangとHTML Lang属性の関係については、HTML5のルールを参照してください）。 / Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
   </si>
   <si>
     <t>preferred</t>
   </si>
   <si>
-    <t>A human language.</t>
+    <t>人間の言語。 / A human language.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/languages</t>
@@ -384,13 +384,13 @@
 </t>
   </si>
   <si>
-    <t>Text summary of the resource, for human interpretation</t>
-  </si>
-  <si>
-    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
-  </si>
-  <si>
-    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
+    <t>人間の解釈のためのリソースのテキスト概要 / Text summary of the resource, for human interpretation</t>
+  </si>
+  <si>
+    <t>リソースの概要を含み、人間へのリソースの内容を表すために使用できる人間の読み取り可能な叙述(Narative)。叙述(Narative)はすべての構造化されたデータをエンコードする必要はありませんが、人間が叙述(Narative)を読むだけで「臨床的に安全」にするために十分な詳細を含める必要があります。リソースの定義は、臨床的安全を確保するために、叙述(Narative)で表現するコンテンツを定義する場合があります。 / A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
+  </si>
+  <si>
+    <t>含まれるリソースには叙述(Narative)がありません。含まれていないリソースには叙述(Narative)が必要です。場合によっては、リソースには、追加の個別のデータがほとんどまたはまったくないテキストのみがあります（すべてのMinoccur = 1要素が満たされている限り）。これは、情報がtext blob (バイナリー ラージ オブジェクト)としてキャプチャされるレガシーシステムからのデータ、またはテキストが生またはナレーションされ、エンコードされた情報が後で追加される場合に必要になる場合があります。 / Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
   </si>
   <si>
     <t>DomainResource.text</t>
@@ -410,13 +410,13 @@
 </t>
   </si>
   <si>
-    <t>Contained, inline Resources</t>
-  </si>
-  <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
-  </si>
-  <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
+    <t>インラインリソースが含まれています / Contained, inline Resources</t>
+  </si>
+  <si>
+    <t>これらのリソースには、それらを含むリソースを除いて独立した存在はありません - 独立して特定することはできず、独自の独立したトランザクションスコープを持つこともできません。 / These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
+  </si>
+  <si>
+    <t>識別が失われると、コンテンツを適切に識別できる場合は、これを行うべきではありません。含まれるリソースには、メタ要素にプロファイルとタグがある場合がありますが、セキュリティラベルはありません。 / This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
   </si>
   <si>
     <t>DomainResource.contained</t>
@@ -436,33 +436,34 @@
 </t>
   </si>
   <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+    <t>実装で定義された追加のコンテンツ / Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>リソースの基本的な定義の一部ではない追加情報を表すために使用できます。拡張機能を安全で管理しやすくするために、拡張機能の定義と使用に適用される厳格なガバナンスセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たされる一連の要件があります。 / May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>拡張機能を使用または定義する機関や管轄権に関係なく、アプリケーション、プロジェクト、または標準による拡張機能の使用に関連するスティグマはありません。拡張機能の使用は、FHIR仕様がすべての人にコアレベルのシンプルさを保持できるようにするものです。 / There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
     <t>DomainResource.extension</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+    <t>ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:両方ではなく、拡張または値[x]が必要です / Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
     <t>Medication.modifierExtension</t>
   </si>
   <si>
-    <t>Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+    <t>無視できない拡張機能 / Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>リソースの基本的な定義の一部ではなく、それを含む要素の理解および/または含有要素の子孫の理解を変更するために使用される場合があります。通常、修飾子要素は否定または資格を提供します。拡張機能を安全で管理しやすくするために、拡張機能の定義と使用に適用される厳格なガバナンスセットがあります。実装者は拡張機能を定義することが許可されていますが、拡張機能の定義の一部として満たされる一連の要件があります。アプリケーションの処理リソースは、修飾子拡張機能をチェックする必要があります。
+モディファイア拡張は、リソースまたはdomainResource上の要素の意味を変更してはなりません（修飾軸自体の意味を変更することはできません）。 / May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
+    <t>修飾子拡張機能により、安全に無視できる大部分の拡張機能と明確に区別できるように、安全に無視できない拡張機能が可能になります。これにより、実装者が拡張の存在を禁止する必要性を排除することにより、相互運用性が促進されます。詳細については、[修飾子拡張の定義]（拡張性.html＃modifierextension）を参照してください。 / Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
     <t>DomainResource.modifierExtension</t>
@@ -531,7 +532,7 @@
     <t>Medication.status</t>
   </si>
   <si>
-    <t>active | inactive | entered-in-error</t>
+    <t>アクティブ|非アクティブ|エラーに入った / active | inactive | entered-in-error</t>
   </si>
   <si>
     <t>薬剤が有効に使われているかどうかを指定するコード。</t>
@@ -543,7 +544,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>A coded concept defining if the medication is in active use.</t>
+    <t>薬が積極的に使用されているかどうかを定義するコード化された概念。 / A coded concept defining if the medication is in active use.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/medication-status|4.0.1</t>
@@ -624,8 +625,8 @@
 </t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-rat-1:Numerator and denominator SHALL both be present, or both are absent. If both are absent, there SHALL be some extension present {(numerator.empty() xor denominator.exists()) and (numerator.exists() or extension.exists())}</t>
+    <t>ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+rat-1:分子と分母の両方が存在するか、両方が存在します。両方が欠席している場合、いくつかの拡張が存在するものとします / Numerator and denominator SHALL both be present, or both are absent. If both are absent, there SHALL be some extension present {(numerator.empty() xor denominator.exists()) and (numerator.exists() or extension.exists())}</t>
   </si>
   <si>
     <t>RTO</t>
@@ -657,10 +658,10 @@
 </t>
   </si>
   <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+    <t>要素間参照のための一意のID / Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>リソース内の要素の一意のID（内部参照用）。これは、スペースを含まない文字列値である場合があります。 / Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
   </si>
   <si>
     <t>Element.id</t>
@@ -708,10 +709,11 @@
 user contentmodifiers</t>
   </si>
   <si>
-    <t>Extensions that cannot be ignored even if unrecognized</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+    <t>認識されていなくても無視できない拡張機能 / Extensions that cannot be ignored even if unrecognized</t>
+  </si>
+  <si>
+    <t>要素の基本的な定義の一部ではなく、それが含まれている要素の理解、および/または含まれる要素の子孫の理解を変更するために使用される場合があります。通常、修飾子要素は否定または資格を提供します。拡張機能を安全で管理しやすくするために、拡張機能の定義と使用に適用される厳格なガバナンスセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たされる一連の要件があります。アプリケーションの処理リソースは、修飾子拡張機能をチェックする必要があります。
+モディファイア拡張は、リソースまたはdomainResource上の要素の意味を変更してはなりません（修飾軸自体の意味を変更することはできません）。 / May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
@@ -778,7 +780,7 @@
     <t>Medication.ingredient.strength.extension</t>
   </si>
   <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+    <t>要素の基本的な定義の一部ではない追加情報を表すために使用できます。拡張機能を安全で管理しやすくするために、拡張機能の定義と使用に適用される厳格なガバナンスセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たされる一連の要件があります。 / May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>Extensions are always sliced by (at least) url</t>
@@ -819,8 +821,8 @@
     <t>Ratio.numerator</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-qty-3:If a code for the unit is present, the system SHALL also be present {code.empty() or system.exists()}</t>
+    <t>ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+qty-3:ユニットのコードが存在する場合、システムも存在するものとします / If a code for the unit is present, the system SHALL also be present {code.empty() or system.exists()}</t>
   </si>
   <si>
     <t>PQ, IVL&lt;PQ&gt;, MO, CO, depending on the values</t>
@@ -1230,7 +1232,7 @@
     <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="55.39453125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="92.3828125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="58.87890625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>

--- a/jpcore-r4/develop/StructureDefinition-jp-medication.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medication.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1295" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1255" uniqueCount="236">
   <si>
     <t>Property</t>
   </si>
@@ -127,126 +127,6 @@
   </si>
   <si>
     <t>constraint</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Path</t>
-  </si>
-  <si>
-    <t>Slice Name</t>
-  </si>
-  <si>
-    <t>Alias(s)</t>
-  </si>
-  <si>
-    <t>Label</t>
-  </si>
-  <si>
-    <t>Min</t>
-  </si>
-  <si>
-    <t>Max</t>
-  </si>
-  <si>
-    <t>Must Support?</t>
-  </si>
-  <si>
-    <t>Is Modifier?</t>
-  </si>
-  <si>
-    <t>Is Summary?</t>
-  </si>
-  <si>
-    <t>Type(s)</t>
-  </si>
-  <si>
-    <t>Short</t>
-  </si>
-  <si>
-    <t>Definition</t>
-  </si>
-  <si>
-    <t>Comments</t>
-  </si>
-  <si>
-    <t>Requirements</t>
-  </si>
-  <si>
-    <t>Default Value</t>
-  </si>
-  <si>
-    <t>Meaning When Missing</t>
-  </si>
-  <si>
-    <t>Fixed Value</t>
-  </si>
-  <si>
-    <t>Pattern</t>
-  </si>
-  <si>
-    <t>Example</t>
-  </si>
-  <si>
-    <t>Minimum Value</t>
-  </si>
-  <si>
-    <t>Maximum Value</t>
-  </si>
-  <si>
-    <t>Maximum Length</t>
-  </si>
-  <si>
-    <t>Binding Strength</t>
-  </si>
-  <si>
-    <t>Binding Description</t>
-  </si>
-  <si>
-    <t>Binding Value Set</t>
-  </si>
-  <si>
-    <t>Code</t>
-  </si>
-  <si>
-    <t>Slicing Discriminator</t>
-  </si>
-  <si>
-    <t>Slicing Description</t>
-  </si>
-  <si>
-    <t>Slicing Ordered</t>
-  </si>
-  <si>
-    <t>Slicing Rules</t>
-  </si>
-  <si>
-    <t>Base Path</t>
-  </si>
-  <si>
-    <t>Base Min</t>
-  </si>
-  <si>
-    <t>Base Max</t>
-  </si>
-  <si>
-    <t>Condition(s)</t>
-  </si>
-  <si>
-    <t>Constraint(s)</t>
-  </si>
-  <si>
-    <t>Mapping: Mapping to NCPDP SCRIPT 10.6</t>
-  </si>
-  <si>
-    <t>Mapping: RIM Mapping</t>
-  </si>
-  <si>
-    <t>Mapping: FiveWs Pattern Mapping</t>
-  </si>
-  <si>
-    <t>Mapping: HL7 v2 Mapping</t>
   </si>
   <si>
     <t/>
@@ -1014,10 +894,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -1199,7 +1079,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN35"/>
+  <dimension ref="A1:AN34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1212,11 +1092,10 @@
     <col min="2" max="2" width="41.73046875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="13.3046875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="2.2109375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="2.2109375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="2.1640625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="106.484375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1224,4013 +1103,3891 @@
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="15" max="15" width="255.0" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="9.6640625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="92.3828125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="58.87890625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="10.26171875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="30" max="30" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="5.62109375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="33" max="33" width="2.2109375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="2.2109375" customWidth="true" bestFit="true"/>
+    <col min="17" max="17" width="20.703125" customWidth="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="37" max="37" width="195.5390625" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="98.9296875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="16.3984375" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="173.4375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>38</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>39</v>
-      </c>
-      <c r="C1" t="s" s="1">
+      <c r="A1" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B1" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="E1" s="2"/>
+      <c r="F1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G1" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="D1" t="s" s="1">
+      <c r="H1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K1" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="E1" t="s" s="1">
+      <c r="L1" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="F1" t="s" s="1">
+      <c r="M1" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="G1" t="s" s="1">
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q1" s="2"/>
+      <c r="R1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF1" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH1" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK1" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="H1" t="s" s="1">
+      <c r="AL1" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="I1" t="s" s="1">
-        <v>46</v>
-      </c>
-      <c r="J1" t="s" s="1">
-        <v>47</v>
-      </c>
-      <c r="K1" t="s" s="1">
-        <v>48</v>
-      </c>
-      <c r="L1" t="s" s="1">
-        <v>49</v>
-      </c>
-      <c r="M1" t="s" s="1">
-        <v>50</v>
-      </c>
-      <c r="N1" t="s" s="1">
-        <v>51</v>
-      </c>
-      <c r="O1" t="s" s="1">
-        <v>52</v>
-      </c>
-      <c r="P1" t="s" s="1">
-        <v>53</v>
-      </c>
-      <c r="Q1" t="s" s="1">
-        <v>54</v>
-      </c>
-      <c r="R1" t="s" s="1">
-        <v>55</v>
-      </c>
-      <c r="S1" t="s" s="1">
-        <v>56</v>
-      </c>
-      <c r="T1" t="s" s="1">
-        <v>57</v>
-      </c>
-      <c r="U1" t="s" s="1">
-        <v>58</v>
-      </c>
-      <c r="V1" t="s" s="1">
-        <v>59</v>
-      </c>
-      <c r="W1" t="s" s="1">
-        <v>60</v>
-      </c>
-      <c r="X1" t="s" s="1">
-        <v>61</v>
-      </c>
-      <c r="Y1" t="s" s="1">
-        <v>62</v>
-      </c>
-      <c r="Z1" t="s" s="1">
-        <v>63</v>
-      </c>
-      <c r="AA1" t="s" s="1">
-        <v>64</v>
-      </c>
-      <c r="AB1" t="s" s="1">
-        <v>65</v>
-      </c>
-      <c r="AC1" t="s" s="1">
-        <v>66</v>
-      </c>
-      <c r="AD1" t="s" s="1">
-        <v>67</v>
-      </c>
-      <c r="AE1" t="s" s="1">
-        <v>68</v>
-      </c>
-      <c r="AF1" t="s" s="1">
-        <v>69</v>
-      </c>
-      <c r="AG1" t="s" s="1">
-        <v>70</v>
-      </c>
-      <c r="AH1" t="s" s="1">
-        <v>71</v>
-      </c>
-      <c r="AI1" t="s" s="1">
-        <v>72</v>
-      </c>
-      <c r="AJ1" t="s" s="1">
-        <v>73</v>
-      </c>
-      <c r="AK1" t="s" s="1">
-        <v>74</v>
-      </c>
-      <c r="AL1" t="s" s="1">
-        <v>75</v>
-      </c>
-      <c r="AM1" t="s" s="1">
-        <v>76</v>
-      </c>
-      <c r="AN1" t="s" s="1">
-        <v>77</v>
+      <c r="AM1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s" s="2">
+        <v>38</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>80</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>82</v>
+        <v>50</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="N2" s="2"/>
+        <v>51</v>
+      </c>
+      <c r="N2" t="s" s="2">
+        <v>52</v>
+      </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>80</v>
+        <v>47</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>84</v>
+        <v>38</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>85</v>
+        <v>38</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AN2" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>86</v>
+        <v>54</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>86</v>
+        <v>54</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>87</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>89</v>
+        <v>55</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>90</v>
+        <v>56</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="N3" t="s" s="2">
-        <v>92</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>93</v>
+        <v>58</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>87</v>
+        <v>47</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AM3" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AN3" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>94</v>
+        <v>60</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>94</v>
+        <v>60</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>87</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>95</v>
+        <v>61</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>96</v>
+        <v>62</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="N4" s="2"/>
+        <v>63</v>
+      </c>
+      <c r="N4" t="s" s="2">
+        <v>64</v>
+      </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>98</v>
+        <v>65</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>87</v>
+        <v>47</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>99</v>
+        <v>59</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AN4" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>87</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>88</v>
+        <v>38</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>88</v>
+        <v>38</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>102</v>
+        <v>68</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>103</v>
+        <v>69</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>104</v>
+        <v>70</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>105</v>
+        <v>74</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>87</v>
+        <v>47</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>99</v>
+        <v>59</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AN5" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G6" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H6" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I6" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J6" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="L6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="M6" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="G6" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K6" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="L6" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>109</v>
-      </c>
       <c r="N6" t="s" s="2">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>111</v>
+        <v>38</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>112</v>
+        <v>38</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>113</v>
+        <v>38</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>114</v>
+        <v>81</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>87</v>
+        <v>47</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>99</v>
+        <v>59</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AN6" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>115</v>
+        <v>83</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>115</v>
+        <v>83</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>116</v>
+        <v>84</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G7" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H7" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I7" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J7" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K7" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="L7" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="M7" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="H7" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I7" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J7" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K7" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="L7" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>119</v>
-      </c>
       <c r="N7" t="s" s="2">
-        <v>120</v>
+        <v>88</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>121</v>
+        <v>89</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>87</v>
+        <v>40</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>99</v>
+        <v>38</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>122</v>
+        <v>90</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AN7" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>123</v>
+        <v>91</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>123</v>
+        <v>91</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>124</v>
+        <v>92</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>125</v>
+        <v>93</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>126</v>
+        <v>94</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>127</v>
+        <v>95</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>128</v>
+        <v>96</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>129</v>
+        <v>97</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AN8" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>131</v>
+        <v>99</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>131</v>
+        <v>99</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>132</v>
+        <v>92</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>133</v>
+        <v>93</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>134</v>
+        <v>100</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>135</v>
+        <v>101</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="O9" s="2"/>
+        <v>96</v>
+      </c>
+      <c r="O9" t="s" s="2">
+        <v>102</v>
+      </c>
       <c r="P9" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>137</v>
+        <v>103</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>138</v>
+        <v>98</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>139</v>
+        <v>104</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>139</v>
+        <v>104</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>132</v>
+        <v>38</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>88</v>
+        <v>38</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>133</v>
+        <v>105</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>140</v>
+        <v>106</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>141</v>
+        <v>106</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="O10" t="s" s="2">
-        <v>142</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>143</v>
+        <v>104</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>138</v>
+        <v>59</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>78</v>
+        <v>109</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>144</v>
+        <v>110</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>144</v>
+        <v>110</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>80</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>145</v>
+        <v>111</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>146</v>
+        <v>112</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>146</v>
+        <v>113</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>147</v>
+        <v>114</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>78</v>
+        <v>116</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>144</v>
+        <v>110</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>80</v>
+        <v>47</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>99</v>
+        <v>59</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>78</v>
+        <v>117</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>148</v>
+        <v>118</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>149</v>
+        <v>119</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>78</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>150</v>
+        <v>121</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>150</v>
+        <v>121</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>87</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>151</v>
+        <v>67</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>152</v>
+        <v>122</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>153</v>
+        <v>123</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>154</v>
+        <v>124</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>155</v>
+        <v>126</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>156</v>
+        <v>127</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>150</v>
+        <v>121</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>87</v>
+        <v>47</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>99</v>
+        <v>59</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>157</v>
+        <v>38</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>158</v>
+        <v>128</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>159</v>
+        <v>38</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>160</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>161</v>
+        <v>129</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>161</v>
+        <v>129</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>87</v>
+        <v>39</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>87</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>88</v>
+        <v>38</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>107</v>
+        <v>130</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>162</v>
+        <v>131</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>164</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>165</v>
+        <v>38</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>166</v>
+        <v>38</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>167</v>
+        <v>38</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>161</v>
+        <v>129</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>87</v>
+        <v>47</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>99</v>
+        <v>59</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>78</v>
+        <v>133</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>168</v>
+        <v>134</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>78</v>
+        <v>135</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>78</v>
+        <v>136</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>169</v>
+        <v>137</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>169</v>
+        <v>137</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>87</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>88</v>
+        <v>38</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>170</v>
+        <v>111</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>171</v>
+        <v>138</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="N14" s="2"/>
+        <v>139</v>
+      </c>
+      <c r="N14" t="s" s="2">
+        <v>140</v>
+      </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y14" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="Y14" s="2"/>
       <c r="Z14" t="s" s="2">
-        <v>78</v>
+        <v>141</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>169</v>
+        <v>137</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>87</v>
+        <v>47</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>99</v>
+        <v>59</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>173</v>
+        <v>142</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>174</v>
+        <v>143</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>175</v>
+        <v>38</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>176</v>
+        <v>144</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>177</v>
+        <v>145</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>177</v>
+        <v>145</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>87</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>178</v>
+        <v>147</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>179</v>
+        <v>148</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>180</v>
+        <v>149</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Q15" s="2"/>
       <c r="R15" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="Y15" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="Y15" t="s" s="2">
+        <v>38</v>
+      </c>
       <c r="Z15" t="s" s="2">
-        <v>181</v>
+        <v>38</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>177</v>
+        <v>145</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>87</v>
+        <v>47</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>78</v>
+        <v>150</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>99</v>
+        <v>151</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>182</v>
+        <v>38</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>183</v>
+        <v>152</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>184</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>185</v>
+        <v>153</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>185</v>
+        <v>153</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>87</v>
+        <v>40</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>186</v>
+        <v>154</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>187</v>
+        <v>155</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>188</v>
+        <v>156</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>189</v>
+        <v>157</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>185</v>
+        <v>153</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>87</v>
+        <v>40</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>190</v>
+        <v>38</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>191</v>
+        <v>59</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>192</v>
+        <v>158</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>130</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>193</v>
+        <v>159</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>193</v>
+        <v>159</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>80</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>194</v>
+        <v>160</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>195</v>
+        <v>161</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>197</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>193</v>
+        <v>163</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>80</v>
+        <v>47</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>99</v>
+        <v>38</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>198</v>
+        <v>164</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>199</v>
+        <v>165</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>199</v>
+        <v>165</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>87</v>
+        <v>40</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>200</v>
+        <v>93</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>201</v>
+        <v>166</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>202</v>
+        <v>167</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC18" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="AC18" s="2"/>
       <c r="AD18" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>78</v>
+        <v>169</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>203</v>
+        <v>170</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>87</v>
+        <v>40</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>204</v>
+        <v>38</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>205</v>
+        <v>171</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="C19" s="2"/>
+        <v>165</v>
+      </c>
+      <c r="C19" t="s" s="2">
+        <v>172</v>
+      </c>
       <c r="D19" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>133</v>
+        <v>173</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>206</v>
+        <v>174</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>207</v>
+        <v>174</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="AC19" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="AC19" t="s" s="2">
+        <v>38</v>
+      </c>
       <c r="AD19" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>209</v>
+        <v>38</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>210</v>
+        <v>170</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>78</v>
+        <v>150</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>138</v>
+        <v>98</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>211</v>
+        <v>175</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="C20" t="s" s="2">
-        <v>212</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>78</v>
+        <v>176</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>213</v>
+        <v>93</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>214</v>
+        <v>177</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
+        <v>178</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="O20" t="s" s="2">
+        <v>102</v>
+      </c>
       <c r="P20" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Q20" s="2"/>
       <c r="R20" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>210</v>
+        <v>179</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>190</v>
+        <v>38</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>138</v>
+        <v>98</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>215</v>
+        <v>180</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>215</v>
+        <v>180</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>216</v>
+        <v>38</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>80</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>88</v>
+        <v>38</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>88</v>
+        <v>38</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>217</v>
+        <v>181</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>218</v>
+        <v>182</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>136</v>
+        <v>183</v>
       </c>
       <c r="O21" t="s" s="2">
-        <v>142</v>
+        <v>184</v>
       </c>
       <c r="P21" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>219</v>
+        <v>180</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>80</v>
+        <v>47</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>138</v>
+        <v>59</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>78</v>
+        <v>117</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>130</v>
+        <v>185</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>78</v>
+        <v>186</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>220</v>
+        <v>187</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>220</v>
+        <v>187</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>87</v>
+        <v>39</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>87</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>151</v>
+        <v>188</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>221</v>
+        <v>189</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>223</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
-        <v>224</v>
+        <v>191</v>
       </c>
       <c r="P22" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>220</v>
+        <v>187</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>87</v>
+        <v>39</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>87</v>
+        <v>47</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>99</v>
+        <v>59</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>157</v>
+        <v>38</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>225</v>
+        <v>192</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>226</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>227</v>
+        <v>193</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>227</v>
+        <v>193</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>87</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>228</v>
+        <v>146</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>229</v>
+        <v>194</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="N23" s="2"/>
-      <c r="O23" t="s" s="2">
-        <v>231</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>227</v>
+        <v>193</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>87</v>
+        <v>47</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>78</v>
+        <v>150</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>99</v>
+        <v>151</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>232</v>
+        <v>152</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>233</v>
+        <v>197</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>233</v>
+        <v>197</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>87</v>
+        <v>39</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>87</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>186</v>
+        <v>160</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>234</v>
+        <v>161</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>236</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="N24" s="2"/>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>233</v>
+        <v>163</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>87</v>
+        <v>47</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>190</v>
+        <v>38</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>191</v>
+        <v>38</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>192</v>
+        <v>164</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>130</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>237</v>
+        <v>198</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>237</v>
+        <v>198</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>87</v>
+        <v>40</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>200</v>
+        <v>93</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>201</v>
+        <v>94</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="N25" s="2"/>
+        <v>199</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>96</v>
+      </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Q25" s="2"/>
       <c r="R25" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>78</v>
+        <v>168</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>78</v>
+        <v>200</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>78</v>
+        <v>169</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>203</v>
+        <v>170</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>87</v>
+        <v>40</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>204</v>
+        <v>164</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>238</v>
+        <v>201</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="C26" s="2"/>
+        <v>198</v>
+      </c>
+      <c r="C26" t="s" s="2">
+        <v>202</v>
+      </c>
       <c r="D26" t="s" s="2">
-        <v>132</v>
+        <v>38</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>133</v>
+        <v>203</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>134</v>
+        <v>204</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>136</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="N26" s="2"/>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>208</v>
+        <v>38</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>240</v>
+        <v>38</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>209</v>
+        <v>38</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>210</v>
+        <v>170</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>138</v>
+        <v>98</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>204</v>
+        <v>38</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>241</v>
+        <v>206</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="C27" t="s" s="2">
-        <v>242</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>80</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>243</v>
+        <v>207</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>244</v>
+        <v>208</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="N27" s="2"/>
+        <v>209</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>210</v>
+      </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Q27" s="2"/>
       <c r="R27" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>80</v>
+        <v>47</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>78</v>
+        <v>150</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>138</v>
+        <v>212</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>78</v>
+        <v>213</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>78</v>
+        <v>214</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>246</v>
+        <v>215</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>246</v>
+        <v>215</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>87</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>247</v>
+        <v>207</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>248</v>
+        <v>216</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>249</v>
+        <v>209</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>250</v>
+        <v>210</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>251</v>
+        <v>217</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>87</v>
+        <v>47</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>252</v>
+        <v>212</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>253</v>
+        <v>213</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>254</v>
+        <v>214</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>255</v>
+        <v>218</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>255</v>
+        <v>218</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>87</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>247</v>
+        <v>154</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>256</v>
+        <v>219</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>250</v>
-      </c>
+        <v>220</v>
+      </c>
+      <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Q29" s="2"/>
       <c r="R29" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>257</v>
+        <v>218</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>87</v>
+        <v>47</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>190</v>
+        <v>38</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>252</v>
+        <v>59</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>78</v>
+        <v>133</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>253</v>
+        <v>221</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>254</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>258</v>
+        <v>222</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>258</v>
+        <v>222</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>87</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>194</v>
+        <v>160</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>259</v>
+        <v>161</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>260</v>
+        <v>162</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Q30" s="2"/>
       <c r="R30" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="U30" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="V30" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>258</v>
+        <v>163</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>87</v>
+        <v>47</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>99</v>
+        <v>38</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>173</v>
+        <v>38</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>261</v>
+        <v>164</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>262</v>
+        <v>223</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>262</v>
+        <v>223</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>87</v>
+        <v>40</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>200</v>
+        <v>93</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>201</v>
+        <v>94</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="N31" s="2"/>
+        <v>199</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>96</v>
+      </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="U31" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="V31" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>203</v>
+        <v>170</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>87</v>
+        <v>40</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>204</v>
+        <v>164</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>263</v>
+        <v>224</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>263</v>
+        <v>224</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>132</v>
+        <v>176</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>133</v>
+        <v>93</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>134</v>
+        <v>177</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>239</v>
+        <v>178</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="O32" s="2"/>
+        <v>96</v>
+      </c>
+      <c r="O32" t="s" s="2">
+        <v>102</v>
+      </c>
       <c r="P32" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Q32" s="2"/>
       <c r="R32" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="U32" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="V32" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>210</v>
+        <v>179</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>138</v>
+        <v>98</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>204</v>
+        <v>90</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>264</v>
+        <v>225</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>264</v>
+        <v>225</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>216</v>
+        <v>38</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>80</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>88</v>
+        <v>38</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>88</v>
+        <v>38</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>133</v>
+        <v>160</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="O33" t="s" s="2">
-        <v>142</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="U33" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="V33" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>80</v>
+        <v>47</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>138</v>
+        <v>59</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>78</v>
+        <v>133</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>78</v>
+        <v>229</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>265</v>
+        <v>230</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>265</v>
+        <v>230</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>87</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>200</v>
+        <v>231</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>266</v>
+        <v>232</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>268</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="N34" s="2"/>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="U34" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="V34" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>265</v>
+        <v>230</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>87</v>
+        <v>47</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>99</v>
+        <v>59</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>173</v>
+        <v>133</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>148</v>
+        <v>234</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="B35" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="C35" s="2"/>
-      <c r="D35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E35" s="2"/>
-      <c r="F35" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G35" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K35" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="L35" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="N35" s="2"/>
-      <c r="O35" s="2"/>
-      <c r="P35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q35" s="2"/>
-      <c r="R35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF35" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="AG35" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH35" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ35" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK35" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="AL35" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="AM35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN35" t="s" s="2">
-        <v>275</v>
+        <v>235</v>
       </c>
     </row>
   </sheetData>

--- a/jpcore-r4/develop/StructureDefinition-jp-medication.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medication.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1255" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1295" uniqueCount="276">
   <si>
     <t>Property</t>
   </si>
@@ -127,6 +127,126 @@
   </si>
   <si>
     <t>constraint</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Path</t>
+  </si>
+  <si>
+    <t>Slice Name</t>
+  </si>
+  <si>
+    <t>Alias(s)</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Must Support?</t>
+  </si>
+  <si>
+    <t>Is Modifier?</t>
+  </si>
+  <si>
+    <t>Is Summary?</t>
+  </si>
+  <si>
+    <t>Type(s)</t>
+  </si>
+  <si>
+    <t>Short</t>
+  </si>
+  <si>
+    <t>Definition</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Requirements</t>
+  </si>
+  <si>
+    <t>Default Value</t>
+  </si>
+  <si>
+    <t>Meaning When Missing</t>
+  </si>
+  <si>
+    <t>Fixed Value</t>
+  </si>
+  <si>
+    <t>Pattern</t>
+  </si>
+  <si>
+    <t>Example</t>
+  </si>
+  <si>
+    <t>Minimum Value</t>
+  </si>
+  <si>
+    <t>Maximum Value</t>
+  </si>
+  <si>
+    <t>Maximum Length</t>
+  </si>
+  <si>
+    <t>Binding Strength</t>
+  </si>
+  <si>
+    <t>Binding Description</t>
+  </si>
+  <si>
+    <t>Binding Value Set</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Slicing Discriminator</t>
+  </si>
+  <si>
+    <t>Slicing Description</t>
+  </si>
+  <si>
+    <t>Slicing Ordered</t>
+  </si>
+  <si>
+    <t>Slicing Rules</t>
+  </si>
+  <si>
+    <t>Base Path</t>
+  </si>
+  <si>
+    <t>Base Min</t>
+  </si>
+  <si>
+    <t>Base Max</t>
+  </si>
+  <si>
+    <t>Condition(s)</t>
+  </si>
+  <si>
+    <t>Constraint(s)</t>
+  </si>
+  <si>
+    <t>Mapping: Mapping to NCPDP SCRIPT 10.6</t>
+  </si>
+  <si>
+    <t>Mapping: RIM Mapping</t>
+  </si>
+  <si>
+    <t>Mapping: FiveWs Pattern Mapping</t>
+  </si>
+  <si>
+    <t>Mapping: HL7 v2 Mapping</t>
   </si>
   <si>
     <t/>
@@ -894,10 +1014,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -1079,7 +1199,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN34"/>
+  <dimension ref="A1:AN35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1092,10 +1212,11 @@
     <col min="2" max="2" width="41.73046875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="13.3046875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="6" max="6" width="2.2109375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="2.2109375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="2.1640625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="106.484375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1103,3891 +1224,4013 @@
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="15" max="15" width="255.0" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
+    <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="9.6640625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="92.3828125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="58.87890625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="10.26171875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="5.62109375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="2.2109375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="2.2109375" customWidth="true" bestFit="true"/>
-    <col min="17" max="17" width="20.703125" customWidth="true"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="37" max="37" width="195.5390625" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="98.9296875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="16.3984375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="36.91796875" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="173.4375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B1" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="C1" s="2"/>
-      <c r="D1" t="s" s="2">
+      <c r="A1" t="s" s="1">
         <v>38</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" t="s" s="2">
+      <c r="B1" t="s" s="1">
         <v>39</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="C1" t="s" s="1">
         <v>40</v>
       </c>
-      <c r="H1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="K1" t="s" s="2">
+      <c r="D1" t="s" s="1">
         <v>41</v>
       </c>
-      <c r="L1" t="s" s="2">
+      <c r="E1" t="s" s="1">
         <v>42</v>
       </c>
-      <c r="M1" t="s" s="2">
+      <c r="F1" t="s" s="1">
         <v>43</v>
       </c>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Q1" s="2"/>
-      <c r="R1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF1" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="AG1" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH1" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AK1" t="s" s="2">
+      <c r="G1" t="s" s="1">
         <v>44</v>
       </c>
-      <c r="AL1" t="s" s="2">
+      <c r="H1" t="s" s="1">
         <v>45</v>
       </c>
-      <c r="AM1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN1" t="s" s="2">
-        <v>38</v>
+      <c r="I1" t="s" s="1">
+        <v>46</v>
+      </c>
+      <c r="J1" t="s" s="1">
+        <v>47</v>
+      </c>
+      <c r="K1" t="s" s="1">
+        <v>48</v>
+      </c>
+      <c r="L1" t="s" s="1">
+        <v>49</v>
+      </c>
+      <c r="M1" t="s" s="1">
+        <v>50</v>
+      </c>
+      <c r="N1" t="s" s="1">
+        <v>51</v>
+      </c>
+      <c r="O1" t="s" s="1">
+        <v>52</v>
+      </c>
+      <c r="P1" t="s" s="1">
+        <v>53</v>
+      </c>
+      <c r="Q1" t="s" s="1">
+        <v>54</v>
+      </c>
+      <c r="R1" t="s" s="1">
+        <v>55</v>
+      </c>
+      <c r="S1" t="s" s="1">
+        <v>56</v>
+      </c>
+      <c r="T1" t="s" s="1">
+        <v>57</v>
+      </c>
+      <c r="U1" t="s" s="1">
+        <v>58</v>
+      </c>
+      <c r="V1" t="s" s="1">
+        <v>59</v>
+      </c>
+      <c r="W1" t="s" s="1">
+        <v>60</v>
+      </c>
+      <c r="X1" t="s" s="1">
+        <v>61</v>
+      </c>
+      <c r="Y1" t="s" s="1">
+        <v>62</v>
+      </c>
+      <c r="Z1" t="s" s="1">
+        <v>63</v>
+      </c>
+      <c r="AA1" t="s" s="1">
+        <v>64</v>
+      </c>
+      <c r="AB1" t="s" s="1">
+        <v>65</v>
+      </c>
+      <c r="AC1" t="s" s="1">
+        <v>66</v>
+      </c>
+      <c r="AD1" t="s" s="1">
+        <v>67</v>
+      </c>
+      <c r="AE1" t="s" s="1">
+        <v>68</v>
+      </c>
+      <c r="AF1" t="s" s="1">
+        <v>69</v>
+      </c>
+      <c r="AG1" t="s" s="1">
+        <v>70</v>
+      </c>
+      <c r="AH1" t="s" s="1">
+        <v>71</v>
+      </c>
+      <c r="AI1" t="s" s="1">
+        <v>72</v>
+      </c>
+      <c r="AJ1" t="s" s="1">
+        <v>73</v>
+      </c>
+      <c r="AK1" t="s" s="1">
+        <v>74</v>
+      </c>
+      <c r="AL1" t="s" s="1">
+        <v>75</v>
+      </c>
+      <c r="AM1" t="s" s="1">
+        <v>76</v>
+      </c>
+      <c r="AN1" t="s" s="1">
+        <v>77</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="N2" t="s" s="2">
-        <v>52</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>38</v>
+        <v>84</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>38</v>
+        <v>85</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AN2" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>56</v>
+        <v>90</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="N3" s="2"/>
+        <v>91</v>
+      </c>
+      <c r="N3" t="s" s="2">
+        <v>92</v>
+      </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>58</v>
+        <v>93</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AM3" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AN3" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>60</v>
+        <v>94</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>60</v>
+        <v>94</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>62</v>
+        <v>96</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="N4" t="s" s="2">
-        <v>64</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>65</v>
+        <v>98</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AN4" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>66</v>
+        <v>100</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>66</v>
+        <v>100</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>68</v>
+        <v>102</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>69</v>
+        <v>103</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>70</v>
+        <v>104</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>74</v>
+        <v>105</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AN5" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>75</v>
+        <v>106</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>75</v>
+        <v>106</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>79</v>
+        <v>109</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>38</v>
+        <v>111</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>38</v>
+        <v>112</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>38</v>
+        <v>113</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>81</v>
+        <v>114</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AN6" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>83</v>
+        <v>115</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>83</v>
+        <v>115</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>84</v>
+        <v>116</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>40</v>
+        <v>87</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>85</v>
+        <v>117</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>86</v>
+        <v>118</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>87</v>
+        <v>119</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>88</v>
+        <v>120</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>89</v>
+        <v>121</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>40</v>
+        <v>87</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>38</v>
+        <v>99</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>90</v>
+        <v>122</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AN7" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>91</v>
+        <v>123</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>91</v>
+        <v>123</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>92</v>
+        <v>124</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>93</v>
+        <v>125</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>94</v>
+        <v>126</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>95</v>
+        <v>127</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>96</v>
+        <v>128</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>97</v>
+        <v>129</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AN8" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>99</v>
+        <v>131</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>99</v>
+        <v>131</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>92</v>
+        <v>132</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>93</v>
+        <v>133</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>100</v>
+        <v>134</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>101</v>
+        <v>135</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="O9" t="s" s="2">
-        <v>102</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>103</v>
+        <v>137</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>98</v>
+        <v>138</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>104</v>
+        <v>139</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>104</v>
+        <v>139</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>38</v>
+        <v>132</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>106</v>
+        <v>140</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>106</v>
+        <v>141</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="O10" s="2"/>
+        <v>136</v>
+      </c>
+      <c r="O10" t="s" s="2">
+        <v>142</v>
+      </c>
       <c r="P10" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>104</v>
+        <v>143</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>59</v>
+        <v>138</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>108</v>
+        <v>130</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>109</v>
+        <v>78</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>110</v>
+        <v>144</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>110</v>
+        <v>144</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>111</v>
+        <v>145</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>112</v>
+        <v>146</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>113</v>
+        <v>146</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>114</v>
+        <v>147</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>115</v>
+        <v>78</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>116</v>
+        <v>78</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>110</v>
+        <v>144</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>117</v>
+        <v>78</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>118</v>
+        <v>148</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>119</v>
+        <v>149</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>120</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>121</v>
+        <v>150</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>121</v>
+        <v>150</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>67</v>
+        <v>151</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>122</v>
+        <v>152</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>123</v>
+        <v>153</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>124</v>
+        <v>154</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>126</v>
+        <v>155</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>127</v>
+        <v>156</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>121</v>
+        <v>150</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>38</v>
+        <v>157</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>128</v>
+        <v>158</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>38</v>
+        <v>159</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>38</v>
+        <v>160</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>129</v>
+        <v>161</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>129</v>
+        <v>161</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>39</v>
+        <v>87</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>131</v>
+        <v>162</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="N13" s="2"/>
+        <v>163</v>
+      </c>
+      <c r="N13" t="s" s="2">
+        <v>164</v>
+      </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>38</v>
+        <v>165</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>38</v>
+        <v>166</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>38</v>
+        <v>167</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>129</v>
+        <v>161</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>133</v>
+        <v>78</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>134</v>
+        <v>168</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>135</v>
+        <v>78</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>136</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>137</v>
+        <v>169</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>137</v>
+        <v>169</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>111</v>
+        <v>170</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>138</v>
+        <v>171</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>140</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Y14" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="Y14" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="Z14" t="s" s="2">
-        <v>141</v>
+        <v>78</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>137</v>
+        <v>169</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>142</v>
+        <v>173</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>143</v>
+        <v>174</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>38</v>
+        <v>175</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>144</v>
+        <v>176</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>145</v>
+        <v>177</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>145</v>
+        <v>177</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>147</v>
+        <v>178</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>148</v>
+        <v>179</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>149</v>
+        <v>180</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Q15" s="2"/>
       <c r="R15" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y15" t="s" s="2">
-        <v>38</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="Y15" s="2"/>
       <c r="Z15" t="s" s="2">
-        <v>38</v>
+        <v>181</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>145</v>
+        <v>177</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>150</v>
+        <v>78</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>151</v>
+        <v>99</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>38</v>
+        <v>182</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>152</v>
+        <v>183</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>90</v>
+        <v>184</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>153</v>
+        <v>185</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>153</v>
+        <v>185</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>40</v>
+        <v>87</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>154</v>
+        <v>186</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>155</v>
+        <v>187</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>156</v>
+        <v>188</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>157</v>
+        <v>189</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>153</v>
+        <v>185</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>40</v>
+        <v>87</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>38</v>
+        <v>190</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>59</v>
+        <v>191</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>158</v>
+        <v>192</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>38</v>
+        <v>130</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>159</v>
+        <v>193</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>159</v>
+        <v>193</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>160</v>
+        <v>194</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>161</v>
+        <v>195</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="N17" s="2"/>
+        <v>196</v>
+      </c>
+      <c r="N17" t="s" s="2">
+        <v>197</v>
+      </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>163</v>
+        <v>193</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>38</v>
+        <v>99</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>164</v>
+        <v>198</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>165</v>
+        <v>199</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>165</v>
+        <v>199</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>40</v>
+        <v>87</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>93</v>
+        <v>200</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>166</v>
+        <v>201</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>167</v>
+        <v>202</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="AC18" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="AC18" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="AD18" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>169</v>
+        <v>78</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>170</v>
+        <v>203</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>40</v>
+        <v>87</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>38</v>
+        <v>204</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>171</v>
+        <v>205</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="C19" t="s" s="2">
-        <v>172</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>173</v>
+        <v>133</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>174</v>
+        <v>206</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>174</v>
+        <v>207</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC19" t="s" s="2">
-        <v>38</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="AC19" s="2"/>
       <c r="AD19" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>38</v>
+        <v>209</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>170</v>
+        <v>210</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>150</v>
+        <v>78</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>98</v>
+        <v>138</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>175</v>
+        <v>211</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="C20" s="2"/>
+        <v>205</v>
+      </c>
+      <c r="C20" t="s" s="2">
+        <v>212</v>
+      </c>
       <c r="D20" t="s" s="2">
-        <v>176</v>
+        <v>78</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>93</v>
+        <v>213</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>177</v>
+        <v>214</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="O20" t="s" s="2">
-        <v>102</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Q20" s="2"/>
       <c r="R20" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>179</v>
+        <v>210</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>38</v>
+        <v>190</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>98</v>
+        <v>138</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>180</v>
+        <v>215</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>180</v>
+        <v>215</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>38</v>
+        <v>216</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>111</v>
+        <v>133</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>181</v>
+        <v>217</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>182</v>
+        <v>218</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>183</v>
+        <v>136</v>
       </c>
       <c r="O21" t="s" s="2">
-        <v>184</v>
+        <v>142</v>
       </c>
       <c r="P21" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>180</v>
+        <v>219</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>59</v>
+        <v>138</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>117</v>
+        <v>78</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>185</v>
+        <v>130</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>186</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>187</v>
+        <v>220</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>187</v>
+        <v>220</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>39</v>
+        <v>87</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>188</v>
+        <v>151</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>189</v>
+        <v>221</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="N22" s="2"/>
+        <v>222</v>
+      </c>
+      <c r="N22" t="s" s="2">
+        <v>223</v>
+      </c>
       <c r="O22" t="s" s="2">
-        <v>191</v>
+        <v>224</v>
       </c>
       <c r="P22" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>187</v>
+        <v>220</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>39</v>
+        <v>87</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>38</v>
+        <v>157</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>192</v>
+        <v>225</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>38</v>
+        <v>226</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>193</v>
+        <v>227</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>193</v>
+        <v>227</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>146</v>
+        <v>228</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="O23" s="2"/>
+        <v>230</v>
+      </c>
+      <c r="N23" s="2"/>
+      <c r="O23" t="s" s="2">
+        <v>231</v>
+      </c>
       <c r="P23" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>193</v>
+        <v>227</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>150</v>
+        <v>78</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>151</v>
+        <v>99</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>152</v>
+        <v>232</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>197</v>
+        <v>233</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>197</v>
+        <v>233</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>39</v>
+        <v>87</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>160</v>
+        <v>186</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>161</v>
+        <v>234</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="N24" s="2"/>
+        <v>235</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>236</v>
+      </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>163</v>
+        <v>233</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>38</v>
+        <v>190</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>38</v>
+        <v>191</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>164</v>
+        <v>192</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>38</v>
+        <v>130</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>198</v>
+        <v>237</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>198</v>
+        <v>237</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>40</v>
+        <v>87</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>93</v>
+        <v>200</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>94</v>
+        <v>201</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>96</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Q25" s="2"/>
       <c r="R25" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>168</v>
+        <v>78</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>200</v>
+        <v>78</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>169</v>
+        <v>78</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>170</v>
+        <v>203</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>40</v>
+        <v>87</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>164</v>
+        <v>204</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>201</v>
+        <v>238</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="C26" t="s" s="2">
-        <v>202</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>38</v>
+        <v>132</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>203</v>
+        <v>133</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>204</v>
+        <v>134</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="N26" s="2"/>
+        <v>239</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>136</v>
+      </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>38</v>
+        <v>208</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>38</v>
+        <v>240</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>38</v>
+        <v>209</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>170</v>
+        <v>210</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>98</v>
+        <v>138</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>38</v>
+        <v>204</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>206</v>
+        <v>241</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="C27" s="2"/>
+        <v>238</v>
+      </c>
+      <c r="C27" t="s" s="2">
+        <v>242</v>
+      </c>
       <c r="D27" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>207</v>
+        <v>243</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>208</v>
+        <v>244</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>210</v>
-      </c>
+        <v>245</v>
+      </c>
+      <c r="N27" s="2"/>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Q27" s="2"/>
       <c r="R27" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>150</v>
+        <v>78</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>212</v>
+        <v>138</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>213</v>
+        <v>78</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>214</v>
+        <v>78</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>215</v>
+        <v>246</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>215</v>
+        <v>246</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>207</v>
+        <v>247</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>216</v>
+        <v>248</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>209</v>
+        <v>249</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>210</v>
+        <v>250</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>217</v>
+        <v>251</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>150</v>
+        <v>190</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>212</v>
+        <v>252</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>213</v>
+        <v>253</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>214</v>
+        <v>254</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>218</v>
+        <v>255</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>218</v>
+        <v>255</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>154</v>
+        <v>247</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>219</v>
+        <v>256</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="N29" s="2"/>
+        <v>249</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>250</v>
+      </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Q29" s="2"/>
       <c r="R29" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>218</v>
+        <v>257</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>38</v>
+        <v>190</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>59</v>
+        <v>252</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>133</v>
+        <v>78</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>221</v>
+        <v>253</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>38</v>
+        <v>254</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>222</v>
+        <v>258</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>222</v>
+        <v>258</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>160</v>
+        <v>194</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>161</v>
+        <v>259</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>162</v>
+        <v>260</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Q30" s="2"/>
       <c r="R30" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="U30" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="V30" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>163</v>
+        <v>258</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>38</v>
+        <v>99</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>38</v>
+        <v>173</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>164</v>
+        <v>261</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>223</v>
+        <v>262</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>223</v>
+        <v>262</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>40</v>
+        <v>87</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>93</v>
+        <v>200</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>94</v>
+        <v>201</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>96</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="N31" s="2"/>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="U31" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="V31" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>170</v>
+        <v>203</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>40</v>
+        <v>87</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>164</v>
+        <v>204</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>224</v>
+        <v>263</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>224</v>
+        <v>263</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>176</v>
+        <v>132</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>93</v>
+        <v>133</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>177</v>
+        <v>134</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>178</v>
+        <v>239</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="O32" t="s" s="2">
-        <v>102</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Q32" s="2"/>
       <c r="R32" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="U32" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="V32" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>179</v>
+        <v>210</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>98</v>
+        <v>138</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>90</v>
+        <v>204</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>225</v>
+        <v>264</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>225</v>
+        <v>264</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>38</v>
+        <v>216</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>160</v>
+        <v>133</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="O33" s="2"/>
+        <v>136</v>
+      </c>
+      <c r="O33" t="s" s="2">
+        <v>142</v>
+      </c>
       <c r="P33" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="U33" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="V33" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>59</v>
+        <v>138</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>133</v>
+        <v>78</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>108</v>
+        <v>130</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>229</v>
+        <v>78</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>230</v>
+        <v>265</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>230</v>
+        <v>265</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>231</v>
+        <v>200</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>232</v>
+        <v>266</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="N34" s="2"/>
+        <v>267</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>268</v>
+      </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="U34" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="V34" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>230</v>
+        <v>265</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>133</v>
+        <v>173</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>234</v>
+        <v>148</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>235</v>
+        <v>269</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="B35" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="C35" s="2"/>
+      <c r="D35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E35" s="2"/>
+      <c r="F35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G35" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K35" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="L35" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q35" s="2"/>
+      <c r="R35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF35" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="AG35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH35" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK35" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="AL35" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="AM35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN35" t="s" s="2">
+        <v>275</v>
       </c>
     </row>
   </sheetData>

--- a/jpcore-r4/develop/StructureDefinition-jp-medication.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medication.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.1</t>
+    <t>1.1.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-24</t>
+    <t>2023-06-26</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medication.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medication.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1255" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1255" uniqueCount="237">
   <si>
     <t>Property</t>
   </si>
@@ -147,6 +147,10 @@
   <si>
     <t>This resource is primarily used for the identification and definition of a medication for the purposes of prescribing, dispensing, and administering a medication as well as for making statements about medication use.
 このResourceは薬剤を処方し、払い出し（調剤）、その投与を定義し、IDを付与するためにまず利用され、薬剤の使用状態を示すためにも使われる。</t>
+  </si>
+  <si>
+    <t>dom-2:リソースが別のリソースに含まれている場合、ネストされたリソースを含めてはなりません / If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
+dom-3:リソースが別のリソースに含まれている場合、それはリソースの他の場所から参照されるか、含有リソースを参照するものとします / If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:リソースが別のリソースに含まれている場合、meta.versionidまたはmeta.lastupdatedを持たないものとします / If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:別のリソースにリソースが含まれている場合、セキュリティラベルはありません / If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:リソースには、堅牢な管理のための叙述(Narative)が必要です / A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>NewRx/MedicationPrescribed@@ -1225,13 +1229,13 @@
         <v>38</v>
       </c>
       <c r="AJ1" t="s" s="2">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="AK1" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AL1" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AM1" t="s" s="2">
         <v>38</v>
@@ -1242,10 +1246,10 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
@@ -1256,7 +1260,7 @@
         <v>39</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H2" t="s" s="2">
         <v>38</v>
@@ -1265,19 +1269,19 @@
         <v>38</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
@@ -1327,13 +1331,13 @@
         <v>38</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI2" t="s" s="2">
         <v>38</v>
@@ -1356,10 +1360,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1370,7 +1374,7 @@
         <v>39</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>38</v>
@@ -1379,16 +1383,16 @@
         <v>38</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -1439,19 +1443,19 @@
         <v>38</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK3" t="s" s="2">
         <v>38</v>
@@ -1468,10 +1472,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -1482,28 +1486,28 @@
         <v>39</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>38</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="N4" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
@@ -1553,19 +1557,19 @@
         <v>38</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>38</v>
@@ -1582,10 +1586,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -1596,7 +1600,7 @@
         <v>39</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>38</v>
@@ -1608,16 +1612,16 @@
         <v>38</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -1643,13 +1647,13 @@
         <v>38</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA5" t="s" s="2">
         <v>38</v>
@@ -1667,19 +1671,19 @@
         <v>38</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>38</v>
@@ -1696,21 +1700,21 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
         <v>39</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>38</v>
@@ -1722,16 +1726,16 @@
         <v>38</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -1781,25 +1785,25 @@
         <v>38</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AM6" t="s" s="2">
         <v>38</v>
@@ -1810,14 +1814,14 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
@@ -1836,16 +1840,16 @@
         <v>38</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -1895,7 +1899,7 @@
         <v>38</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>39</v>
@@ -1913,7 +1917,7 @@
         <v>38</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AM7" t="s" s="2">
         <v>38</v>
@@ -1924,14 +1928,14 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -1950,16 +1954,16 @@
         <v>38</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2009,7 +2013,7 @@
         <v>38</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>39</v>
@@ -2021,13 +2025,13 @@
         <v>38</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AM8" t="s" s="2">
         <v>38</v>
@@ -2038,14 +2042,14 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2058,25 +2062,25 @@
         <v>38</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J9" t="s" s="2">
         <v>38</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O9" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P9" t="s" s="2">
         <v>38</v>
@@ -2125,7 +2129,7 @@
         <v>38</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>39</v>
@@ -2137,13 +2141,13 @@
         <v>38</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AM9" t="s" s="2">
         <v>38</v>
@@ -2154,10 +2158,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -2177,19 +2181,19 @@
         <v>38</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
@@ -2239,7 +2243,7 @@
         <v>38</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>39</v>
@@ -2251,16 +2255,16 @@
         <v>38</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AN10" t="s" s="2">
         <v>38</v>
@@ -2268,10 +2272,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2282,7 +2286,7 @@
         <v>39</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>38</v>
@@ -2291,19 +2295,19 @@
         <v>38</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
@@ -2329,13 +2333,13 @@
         <v>38</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AA11" t="s" s="2">
         <v>38</v>
@@ -2353,39 +2357,39 @@
         <v>38</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI11" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2393,31 +2397,31 @@
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>38</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -2443,13 +2447,13 @@
         <v>38</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>38</v>
@@ -2467,25 +2471,25 @@
         <v>38</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AM12" t="s" s="2">
         <v>38</v>
@@ -2496,10 +2500,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2510,7 +2514,7 @@
         <v>39</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>38</v>
@@ -2519,16 +2523,16 @@
         <v>38</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -2579,39 +2583,39 @@
         <v>38</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2622,7 +2626,7 @@
         <v>39</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>38</v>
@@ -2634,16 +2638,16 @@
         <v>38</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -2669,11 +2673,11 @@
         <v>38</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y14" s="2"/>
       <c r="Z14" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>38</v>
@@ -2691,39 +2695,39 @@
         <v>38</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -2734,7 +2738,7 @@
         <v>39</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>38</v>
@@ -2746,16 +2750,16 @@
         <v>38</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -2805,39 +2809,39 @@
         <v>38</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -2860,16 +2864,16 @@
         <v>38</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -2919,7 +2923,7 @@
         <v>38</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>39</v>
@@ -2931,13 +2935,13 @@
         <v>38</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>38</v>
@@ -2948,10 +2952,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -2962,7 +2966,7 @@
         <v>39</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>38</v>
@@ -2974,13 +2978,13 @@
         <v>38</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -3031,13 +3035,13 @@
         <v>38</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>38</v>
@@ -3049,7 +3053,7 @@
         <v>38</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>38</v>
@@ -3060,10 +3064,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3086,13 +3090,13 @@
         <v>38</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -3131,17 +3135,17 @@
         <v>38</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AC18" s="2"/>
       <c r="AD18" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>39</v>
@@ -3153,7 +3157,7 @@
         <v>38</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>38</v>
@@ -3170,13 +3174,13 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C19" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D19" t="s" s="2">
         <v>38</v>
@@ -3198,13 +3202,13 @@
         <v>38</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -3255,7 +3259,7 @@
         <v>38</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>39</v>
@@ -3264,10 +3268,10 @@
         <v>40</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>38</v>
@@ -3284,14 +3288,14 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
@@ -3304,25 +3308,25 @@
         <v>38</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>38</v>
@@ -3371,7 +3375,7 @@
         <v>38</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>39</v>
@@ -3383,13 +3387,13 @@
         <v>38</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>38</v>
@@ -3400,10 +3404,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3411,10 +3415,10 @@
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>38</v>
@@ -3426,19 +3430,19 @@
         <v>38</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="O21" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>38</v>
@@ -3487,39 +3491,39 @@
         <v>38</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3530,7 +3534,7 @@
         <v>39</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>38</v>
@@ -3542,17 +3546,17 @@
         <v>38</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>38</v>
@@ -3601,25 +3605,25 @@
         <v>38</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>38</v>
@@ -3630,10 +3634,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3641,10 +3645,10 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>38</v>
@@ -3656,16 +3660,16 @@
         <v>38</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -3715,39 +3719,39 @@
         <v>38</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3758,7 +3762,7 @@
         <v>39</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>38</v>
@@ -3770,13 +3774,13 @@
         <v>38</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -3827,13 +3831,13 @@
         <v>38</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>38</v>
@@ -3845,7 +3849,7 @@
         <v>38</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>38</v>
@@ -3856,14 +3860,14 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
@@ -3882,16 +3886,16 @@
         <v>38</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -3929,19 +3933,19 @@
         <v>38</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AD25" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>39</v>
@@ -3953,13 +3957,13 @@
         <v>38</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>38</v>
@@ -3970,13 +3974,13 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C26" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D26" t="s" s="2">
         <v>38</v>
@@ -3998,13 +4002,13 @@
         <v>38</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -4055,7 +4059,7 @@
         <v>38</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>39</v>
@@ -4067,7 +4071,7 @@
         <v>38</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>38</v>
@@ -4084,10 +4088,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4098,7 +4102,7 @@
         <v>39</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>38</v>
@@ -4110,16 +4114,16 @@
         <v>38</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -4169,39 +4173,39 @@
         <v>38</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4212,7 +4216,7 @@
         <v>39</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>38</v>
@@ -4224,16 +4228,16 @@
         <v>38</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -4283,39 +4287,39 @@
         <v>38</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4326,7 +4330,7 @@
         <v>39</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>38</v>
@@ -4338,13 +4342,13 @@
         <v>38</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -4395,25 +4399,25 @@
         <v>38</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>38</v>
@@ -4424,10 +4428,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4438,7 +4442,7 @@
         <v>39</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>38</v>
@@ -4450,13 +4454,13 @@
         <v>38</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -4507,13 +4511,13 @@
         <v>38</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>38</v>
@@ -4525,7 +4529,7 @@
         <v>38</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>38</v>
@@ -4536,14 +4540,14 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
@@ -4562,16 +4566,16 @@
         <v>38</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -4621,7 +4625,7 @@
         <v>38</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>39</v>
@@ -4633,13 +4637,13 @@
         <v>38</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>38</v>
@@ -4650,14 +4654,14 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
@@ -4670,25 +4674,25 @@
         <v>38</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>38</v>
@@ -4737,7 +4741,7 @@
         <v>38</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>39</v>
@@ -4749,13 +4753,13 @@
         <v>38</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>38</v>
@@ -4766,10 +4770,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -4780,7 +4784,7 @@
         <v>39</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>38</v>
@@ -4792,16 +4796,16 @@
         <v>38</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -4851,39 +4855,39 @@
         <v>38</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -4894,7 +4898,7 @@
         <v>39</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>38</v>
@@ -4906,13 +4910,13 @@
         <v>38</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -4963,31 +4967,31 @@
         <v>38</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
   </sheetData>

--- a/jpcore-r4/develop/StructureDefinition-jp-medication.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medication.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.2</t>
+    <t>1.1.2-dev</t>
   </si>
   <si>
     <t>Name</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medication.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medication.xlsx
@@ -145,7 +145,7 @@
     <t>Medication Resourceの定義</t>
   </si>
   <si>
-    <t>This resource is primarily used for the identification and definition of a medication for the purposes of prescribing, dispensing, and administering a medication as well as for making statements about medication use.
+    <t>This resource is primarily used for the identification and definition of a medication for the purposes of prescribing, dispensing, and administering a medication as well as for making statements about medication use.  
 このResourceは薬剤を処方し、払い出し（調剤）、その投与を定義し、IDを付与するためにまず利用され、薬剤の使用状態を示すためにも使われる。</t>
   </si>
   <si>
@@ -382,12 +382,12 @@
     <t>この薬剤を特定するコード</t>
   </si>
   <si>
-    <t>A code (or set of codes) that specify this medication, or a textual description if no code is available. Usage note: This could be a standard medication code such as a code from RxNorm, SNOMED CT, IDMP etc. It could also be a national or local formulary code, optionally with translations to other code systems.
-この薬剤を指定するコード。該当するコードがない場合はテキスト表記。
+    <t>A code (or set of codes) that specify this medication, or a textual description if no code is available. Usage note: This could be a standard medication code such as a code from RxNorm, SNOMED CT, IDMP etc. It could also be a national or local formulary code, optionally with translations to other code systems.  
+この薬剤を指定するコード。該当するコードがない場合はテキスト表記。  
 使用法について注記：日本ではHOTコードを利用することが推奨される。一般的な薬剤コードとしてRxNorm、SNOMD CT, IDMPなど標準的な医薬品コードを使うことができる。国や地域に特有のローカルコードも使うことができ、他のコードに変換することもできる。</t>
   </si>
   <si>
-    <t>使われるコンテキストによるが、ユーザ(処方や調剤などを行った人）によって実際にコードが選択されたのであれば、coding.userSelectedはtrueとすることとなる。Codingのデータ型で説明されているように、「ユーザインターフェース（たとえば、選択肢から特定の項目をユーザが選択するような形式）で特定のコードをユーザが選択したのであれば、"userSelected"に記録されてもよい」
+    <t>使われるコンテキストによるが、ユーザ(処方や調剤などを行った人）によって実際にコードが選択されたのであれば、coding.userSelectedはtrueとすることとなる。Codingのデータ型で説明されているように、「ユーザインターフェース（たとえば、選択肢から特定の項目をユーザが選択するような形式）で特定のコードをユーザが選択したのであれば、"userSelected"に記録されてもよい」  
 ユーザが選択したコードがあれば、その選択がコード変換などで優先される。そのほかのコードは代替のコードシステムか低粒度のコード（たとえば、ベンダー固有の初期値のための一般的なコード）に文字列変換変換するしかない。</t>
   </si>
   <si>
@@ -447,7 +447,7 @@
     <t>製品の製造者</t>
   </si>
   <si>
-    <t>Describes the details of the manufacturer of the medication product.  This is not intended to represent the distributor of a medication product.
+    <t>Describes the details of the manufacturer of the medication product.  This is not intended to represent the distributor of a medication product.  
 医薬品の製造元の詳細を説明する。これは、医薬品の販売業者を表すことを意図したものではない。</t>
   </si>
   <si>
@@ -635,11 +635,11 @@
     <t>有効成分の指標</t>
   </si>
   <si>
-    <t>この成分が薬剤の治療効果に影響するかどうかの指標
+    <t>この成分が薬剤の治療効果に影響するかどうかの指標  
 Indication of whether this ingredient affects the therapeutic action of the drug.</t>
   </si>
   <si>
-    <t>Trueであれば、この成分が薬剤の治療効果に影響がある（たとえば有効）ということを示す。
+    <t>Trueであれば、この成分が薬剤の治療効果に影響がある（たとえば有効）ということを示す。  
 Falseであれば、この成分が薬剤の治療効果に影響がない（たとえば無効）ということを示す。</t>
   </si>
   <si>

--- a/jpcore-r4/develop/StructureDefinition-jp-medication.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medication.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.2-dev</t>
+    <t>1.1.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medication.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medication.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-26</t>
+    <t>2023-10-31</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medication.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medication.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1255" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1295" uniqueCount="277">
   <si>
     <t>Property</t>
   </si>
@@ -127,6 +127,126 @@
   </si>
   <si>
     <t>constraint</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Path</t>
+  </si>
+  <si>
+    <t>Slice Name</t>
+  </si>
+  <si>
+    <t>Alias(s)</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Must Support?</t>
+  </si>
+  <si>
+    <t>Is Modifier?</t>
+  </si>
+  <si>
+    <t>Is Summary?</t>
+  </si>
+  <si>
+    <t>Type(s)</t>
+  </si>
+  <si>
+    <t>Short</t>
+  </si>
+  <si>
+    <t>Definition</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Requirements</t>
+  </si>
+  <si>
+    <t>Default Value</t>
+  </si>
+  <si>
+    <t>Meaning When Missing</t>
+  </si>
+  <si>
+    <t>Fixed Value</t>
+  </si>
+  <si>
+    <t>Pattern</t>
+  </si>
+  <si>
+    <t>Example</t>
+  </si>
+  <si>
+    <t>Minimum Value</t>
+  </si>
+  <si>
+    <t>Maximum Value</t>
+  </si>
+  <si>
+    <t>Maximum Length</t>
+  </si>
+  <si>
+    <t>Binding Strength</t>
+  </si>
+  <si>
+    <t>Binding Description</t>
+  </si>
+  <si>
+    <t>Binding Value Set</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Slicing Discriminator</t>
+  </si>
+  <si>
+    <t>Slicing Description</t>
+  </si>
+  <si>
+    <t>Slicing Ordered</t>
+  </si>
+  <si>
+    <t>Slicing Rules</t>
+  </si>
+  <si>
+    <t>Base Path</t>
+  </si>
+  <si>
+    <t>Base Min</t>
+  </si>
+  <si>
+    <t>Base Max</t>
+  </si>
+  <si>
+    <t>Condition(s)</t>
+  </si>
+  <si>
+    <t>Constraint(s)</t>
+  </si>
+  <si>
+    <t>Mapping: Mapping to NCPDP SCRIPT 10.6</t>
+  </si>
+  <si>
+    <t>Mapping: RIM Mapping</t>
+  </si>
+  <si>
+    <t>Mapping: FiveWs Pattern Mapping</t>
+  </si>
+  <si>
+    <t>Mapping: HL7 v2 Mapping</t>
   </si>
   <si>
     <t/>
@@ -1083,7 +1203,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN34"/>
+  <dimension ref="A1:AN35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1096,10 +1216,11 @@
     <col min="2" max="2" width="41.73046875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="13.3046875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="6" max="6" width="2.2109375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="2.2109375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="2.1640625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="106.484375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1107,3891 +1228,4013 @@
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="15" max="15" width="255.0" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
+    <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="9.6640625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="92.3828125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="58.87890625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="10.26171875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="5.62109375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="2.2109375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="2.2109375" customWidth="true" bestFit="true"/>
-    <col min="17" max="17" width="20.703125" customWidth="true"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="37" max="37" width="195.5390625" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="98.9296875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="16.3984375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="36.91796875" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="173.4375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B1" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="C1" s="2"/>
-      <c r="D1" t="s" s="2">
+      <c r="A1" t="s" s="1">
         <v>38</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" t="s" s="2">
+      <c r="B1" t="s" s="1">
         <v>39</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="C1" t="s" s="1">
         <v>40</v>
       </c>
-      <c r="H1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="K1" t="s" s="2">
+      <c r="D1" t="s" s="1">
         <v>41</v>
       </c>
-      <c r="L1" t="s" s="2">
+      <c r="E1" t="s" s="1">
         <v>42</v>
       </c>
-      <c r="M1" t="s" s="2">
+      <c r="F1" t="s" s="1">
         <v>43</v>
       </c>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Q1" s="2"/>
-      <c r="R1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF1" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="AG1" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH1" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ1" t="s" s="2">
+      <c r="G1" t="s" s="1">
         <v>44</v>
       </c>
-      <c r="AK1" t="s" s="2">
+      <c r="H1" t="s" s="1">
         <v>45</v>
       </c>
-      <c r="AL1" t="s" s="2">
+      <c r="I1" t="s" s="1">
         <v>46</v>
       </c>
-      <c r="AM1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN1" t="s" s="2">
-        <v>38</v>
+      <c r="J1" t="s" s="1">
+        <v>47</v>
+      </c>
+      <c r="K1" t="s" s="1">
+        <v>48</v>
+      </c>
+      <c r="L1" t="s" s="1">
+        <v>49</v>
+      </c>
+      <c r="M1" t="s" s="1">
+        <v>50</v>
+      </c>
+      <c r="N1" t="s" s="1">
+        <v>51</v>
+      </c>
+      <c r="O1" t="s" s="1">
+        <v>52</v>
+      </c>
+      <c r="P1" t="s" s="1">
+        <v>53</v>
+      </c>
+      <c r="Q1" t="s" s="1">
+        <v>54</v>
+      </c>
+      <c r="R1" t="s" s="1">
+        <v>55</v>
+      </c>
+      <c r="S1" t="s" s="1">
+        <v>56</v>
+      </c>
+      <c r="T1" t="s" s="1">
+        <v>57</v>
+      </c>
+      <c r="U1" t="s" s="1">
+        <v>58</v>
+      </c>
+      <c r="V1" t="s" s="1">
+        <v>59</v>
+      </c>
+      <c r="W1" t="s" s="1">
+        <v>60</v>
+      </c>
+      <c r="X1" t="s" s="1">
+        <v>61</v>
+      </c>
+      <c r="Y1" t="s" s="1">
+        <v>62</v>
+      </c>
+      <c r="Z1" t="s" s="1">
+        <v>63</v>
+      </c>
+      <c r="AA1" t="s" s="1">
+        <v>64</v>
+      </c>
+      <c r="AB1" t="s" s="1">
+        <v>65</v>
+      </c>
+      <c r="AC1" t="s" s="1">
+        <v>66</v>
+      </c>
+      <c r="AD1" t="s" s="1">
+        <v>67</v>
+      </c>
+      <c r="AE1" t="s" s="1">
+        <v>68</v>
+      </c>
+      <c r="AF1" t="s" s="1">
+        <v>69</v>
+      </c>
+      <c r="AG1" t="s" s="1">
+        <v>70</v>
+      </c>
+      <c r="AH1" t="s" s="1">
+        <v>71</v>
+      </c>
+      <c r="AI1" t="s" s="1">
+        <v>72</v>
+      </c>
+      <c r="AJ1" t="s" s="1">
+        <v>73</v>
+      </c>
+      <c r="AK1" t="s" s="1">
+        <v>74</v>
+      </c>
+      <c r="AL1" t="s" s="1">
+        <v>75</v>
+      </c>
+      <c r="AM1" t="s" s="1">
+        <v>76</v>
+      </c>
+      <c r="AN1" t="s" s="1">
+        <v>77</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>51</v>
+        <v>82</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="N2" t="s" s="2">
-        <v>53</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>38</v>
+        <v>84</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>38</v>
+        <v>85</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>38</v>
+        <v>86</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AN2" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>55</v>
+        <v>87</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>55</v>
+        <v>87</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>56</v>
+        <v>90</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>57</v>
+        <v>91</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="N3" s="2"/>
+        <v>92</v>
+      </c>
+      <c r="N3" t="s" s="2">
+        <v>93</v>
+      </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>59</v>
+        <v>94</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AM3" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AN3" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>62</v>
+        <v>96</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>63</v>
+        <v>97</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="N4" t="s" s="2">
-        <v>65</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>66</v>
+        <v>99</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AN4" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>38</v>
+        <v>89</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>38</v>
+        <v>89</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>68</v>
+        <v>102</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>69</v>
+        <v>103</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>70</v>
+        <v>104</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>71</v>
+        <v>105</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>75</v>
+        <v>106</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AN5" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>76</v>
+        <v>107</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>76</v>
+        <v>107</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>79</v>
+        <v>109</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>81</v>
+        <v>111</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>38</v>
+        <v>112</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>38</v>
+        <v>113</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>38</v>
+        <v>114</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>82</v>
+        <v>115</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AN6" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>84</v>
+        <v>116</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>84</v>
+        <v>116</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>85</v>
+        <v>117</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>86</v>
+        <v>118</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>87</v>
+        <v>119</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>88</v>
+        <v>120</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>89</v>
+        <v>121</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>90</v>
+        <v>122</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>38</v>
+        <v>100</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>91</v>
+        <v>123</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AN7" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>92</v>
+        <v>124</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>92</v>
+        <v>124</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>93</v>
+        <v>125</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>94</v>
+        <v>126</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>95</v>
+        <v>127</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>96</v>
+        <v>128</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>97</v>
+        <v>129</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>98</v>
+        <v>130</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>91</v>
+        <v>131</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AN8" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>100</v>
+        <v>132</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>100</v>
+        <v>132</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>93</v>
+        <v>133</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>94</v>
+        <v>134</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>101</v>
+        <v>135</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>102</v>
+        <v>136</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="O9" t="s" s="2">
-        <v>103</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>104</v>
+        <v>138</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>91</v>
+        <v>131</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>105</v>
+        <v>140</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>105</v>
+        <v>140</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>38</v>
+        <v>133</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>38</v>
+        <v>89</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>106</v>
+        <v>134</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>107</v>
+        <v>141</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>107</v>
+        <v>142</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="O10" s="2"/>
+        <v>137</v>
+      </c>
+      <c r="O10" t="s" s="2">
+        <v>143</v>
+      </c>
       <c r="P10" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>105</v>
+        <v>144</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>60</v>
+        <v>139</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>109</v>
+        <v>131</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>111</v>
+        <v>145</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>111</v>
+        <v>145</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>112</v>
+        <v>146</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>113</v>
+        <v>147</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>114</v>
+        <v>147</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>115</v>
+        <v>148</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>116</v>
+        <v>78</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>117</v>
+        <v>78</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>111</v>
+        <v>145</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>118</v>
+        <v>78</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>119</v>
+        <v>149</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>121</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>122</v>
+        <v>151</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>122</v>
+        <v>151</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>68</v>
+        <v>152</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>123</v>
+        <v>153</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>124</v>
+        <v>154</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>125</v>
+        <v>155</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>127</v>
+        <v>156</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>128</v>
+        <v>157</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>122</v>
+        <v>151</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>38</v>
+        <v>158</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>129</v>
+        <v>159</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>38</v>
+        <v>160</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>38</v>
+        <v>161</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>130</v>
+        <v>162</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>130</v>
+        <v>162</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>39</v>
+        <v>88</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>38</v>
+        <v>89</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>131</v>
+        <v>108</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>132</v>
+        <v>163</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="N13" s="2"/>
+        <v>164</v>
+      </c>
+      <c r="N13" t="s" s="2">
+        <v>165</v>
+      </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>38</v>
+        <v>166</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>38</v>
+        <v>167</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>38</v>
+        <v>168</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>130</v>
+        <v>162</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>134</v>
+        <v>78</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>135</v>
+        <v>169</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>136</v>
+        <v>78</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>137</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>138</v>
+        <v>170</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>138</v>
+        <v>170</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>38</v>
+        <v>89</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>112</v>
+        <v>171</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>139</v>
+        <v>172</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y14" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="Y14" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="Z14" t="s" s="2">
-        <v>142</v>
+        <v>78</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>138</v>
+        <v>170</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>143</v>
+        <v>174</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>144</v>
+        <v>175</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>38</v>
+        <v>176</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>145</v>
+        <v>177</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>146</v>
+        <v>178</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>146</v>
+        <v>178</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>148</v>
+        <v>179</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>149</v>
+        <v>180</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>150</v>
+        <v>181</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Q15" s="2"/>
       <c r="R15" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y15" t="s" s="2">
-        <v>38</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="Y15" s="2"/>
       <c r="Z15" t="s" s="2">
-        <v>38</v>
+        <v>182</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>146</v>
+        <v>178</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>151</v>
+        <v>78</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>152</v>
+        <v>100</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>38</v>
+        <v>183</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>153</v>
+        <v>184</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>91</v>
+        <v>185</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>154</v>
+        <v>186</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>154</v>
+        <v>186</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>155</v>
+        <v>187</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>156</v>
+        <v>188</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>157</v>
+        <v>189</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>158</v>
+        <v>190</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>154</v>
+        <v>186</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>38</v>
+        <v>191</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>60</v>
+        <v>192</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>159</v>
+        <v>193</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>38</v>
+        <v>131</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>160</v>
+        <v>194</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>160</v>
+        <v>194</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>161</v>
+        <v>195</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>162</v>
+        <v>196</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="N17" s="2"/>
+        <v>197</v>
+      </c>
+      <c r="N17" t="s" s="2">
+        <v>198</v>
+      </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>164</v>
+        <v>194</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>38</v>
+        <v>100</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>165</v>
+        <v>199</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>166</v>
+        <v>200</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>166</v>
+        <v>200</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>94</v>
+        <v>201</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>167</v>
+        <v>202</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>168</v>
+        <v>203</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="AC18" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="AC18" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="AD18" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>170</v>
+        <v>78</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>171</v>
+        <v>204</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>38</v>
+        <v>205</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>172</v>
+        <v>206</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="C19" t="s" s="2">
-        <v>173</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>174</v>
+        <v>134</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>175</v>
+        <v>207</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>175</v>
+        <v>208</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC19" t="s" s="2">
-        <v>38</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="AC19" s="2"/>
       <c r="AD19" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>38</v>
+        <v>210</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>171</v>
+        <v>211</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>151</v>
+        <v>78</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>176</v>
+        <v>212</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="C20" s="2"/>
+        <v>206</v>
+      </c>
+      <c r="C20" t="s" s="2">
+        <v>213</v>
+      </c>
       <c r="D20" t="s" s="2">
-        <v>177</v>
+        <v>78</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>94</v>
+        <v>214</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>178</v>
+        <v>215</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="O20" t="s" s="2">
-        <v>103</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Q20" s="2"/>
       <c r="R20" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>180</v>
+        <v>211</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>38</v>
+        <v>191</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>181</v>
+        <v>216</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>181</v>
+        <v>216</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>38</v>
+        <v>217</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>38</v>
+        <v>89</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>38</v>
+        <v>89</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>112</v>
+        <v>134</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>182</v>
+        <v>218</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>183</v>
+        <v>219</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>184</v>
+        <v>137</v>
       </c>
       <c r="O21" t="s" s="2">
-        <v>185</v>
+        <v>143</v>
       </c>
       <c r="P21" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>181</v>
+        <v>220</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>60</v>
+        <v>139</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>118</v>
+        <v>78</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>186</v>
+        <v>131</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>187</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>188</v>
+        <v>221</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>188</v>
+        <v>221</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>39</v>
+        <v>88</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>189</v>
+        <v>152</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>190</v>
+        <v>222</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="N22" s="2"/>
+        <v>223</v>
+      </c>
+      <c r="N22" t="s" s="2">
+        <v>224</v>
+      </c>
       <c r="O22" t="s" s="2">
-        <v>192</v>
+        <v>225</v>
       </c>
       <c r="P22" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>188</v>
+        <v>221</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>39</v>
+        <v>88</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>38</v>
+        <v>158</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>193</v>
+        <v>226</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>38</v>
+        <v>227</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>194</v>
+        <v>228</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>194</v>
+        <v>228</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>147</v>
+        <v>229</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>195</v>
+        <v>230</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="O23" s="2"/>
+        <v>231</v>
+      </c>
+      <c r="N23" s="2"/>
+      <c r="O23" t="s" s="2">
+        <v>232</v>
+      </c>
       <c r="P23" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>194</v>
+        <v>228</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>151</v>
+        <v>78</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>152</v>
+        <v>100</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>153</v>
+        <v>233</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>198</v>
+        <v>234</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>198</v>
+        <v>234</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>39</v>
+        <v>88</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>161</v>
+        <v>187</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>162</v>
+        <v>235</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="N24" s="2"/>
+        <v>236</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>237</v>
+      </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>164</v>
+        <v>234</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>38</v>
+        <v>191</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>38</v>
+        <v>192</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>165</v>
+        <v>193</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>38</v>
+        <v>131</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>199</v>
+        <v>238</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>199</v>
+        <v>238</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>94</v>
+        <v>201</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>95</v>
+        <v>202</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>97</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Q25" s="2"/>
       <c r="R25" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>169</v>
+        <v>78</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>201</v>
+        <v>78</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>170</v>
+        <v>78</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>171</v>
+        <v>204</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>165</v>
+        <v>205</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>202</v>
+        <v>239</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="C26" t="s" s="2">
-        <v>203</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>38</v>
+        <v>133</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>204</v>
+        <v>134</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>205</v>
+        <v>135</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="N26" s="2"/>
+        <v>240</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>137</v>
+      </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>38</v>
+        <v>209</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>38</v>
+        <v>241</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>38</v>
+        <v>210</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>171</v>
+        <v>211</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>38</v>
+        <v>205</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>207</v>
+        <v>242</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="C27" s="2"/>
+        <v>239</v>
+      </c>
+      <c r="C27" t="s" s="2">
+        <v>243</v>
+      </c>
       <c r="D27" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>208</v>
+        <v>244</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>209</v>
+        <v>245</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>211</v>
-      </c>
+        <v>246</v>
+      </c>
+      <c r="N27" s="2"/>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Q27" s="2"/>
       <c r="R27" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>151</v>
+        <v>78</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>213</v>
+        <v>139</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>214</v>
+        <v>78</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>215</v>
+        <v>78</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>216</v>
+        <v>247</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>216</v>
+        <v>247</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>208</v>
+        <v>248</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>217</v>
+        <v>249</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>210</v>
+        <v>250</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>211</v>
+        <v>251</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>218</v>
+        <v>252</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>151</v>
+        <v>191</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>213</v>
+        <v>253</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>214</v>
+        <v>254</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>215</v>
+        <v>255</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>219</v>
+        <v>256</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>219</v>
+        <v>256</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>155</v>
+        <v>248</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>220</v>
+        <v>257</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="N29" s="2"/>
+        <v>250</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>251</v>
+      </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Q29" s="2"/>
       <c r="R29" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>219</v>
+        <v>258</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>38</v>
+        <v>191</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>60</v>
+        <v>253</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>134</v>
+        <v>78</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>222</v>
+        <v>254</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>38</v>
+        <v>255</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>223</v>
+        <v>259</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>223</v>
+        <v>259</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>161</v>
+        <v>195</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>162</v>
+        <v>260</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>163</v>
+        <v>261</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Q30" s="2"/>
       <c r="R30" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="U30" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="V30" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>164</v>
+        <v>259</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>38</v>
+        <v>100</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>38</v>
+        <v>174</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>165</v>
+        <v>262</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>224</v>
+        <v>263</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>224</v>
+        <v>263</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>94</v>
+        <v>201</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>95</v>
+        <v>202</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>97</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="N31" s="2"/>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="U31" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="V31" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>171</v>
+        <v>204</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>165</v>
+        <v>205</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>225</v>
+        <v>264</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>225</v>
+        <v>264</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>177</v>
+        <v>133</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>94</v>
+        <v>134</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>178</v>
+        <v>135</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>179</v>
+        <v>240</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="O32" t="s" s="2">
-        <v>103</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Q32" s="2"/>
       <c r="R32" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="U32" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="V32" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>180</v>
+        <v>211</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>91</v>
+        <v>205</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>226</v>
+        <v>265</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>226</v>
+        <v>265</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>38</v>
+        <v>217</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>38</v>
+        <v>89</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>38</v>
+        <v>89</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>161</v>
+        <v>134</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="O33" s="2"/>
+        <v>137</v>
+      </c>
+      <c r="O33" t="s" s="2">
+        <v>143</v>
+      </c>
       <c r="P33" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="U33" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="V33" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>60</v>
+        <v>139</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>134</v>
+        <v>78</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>109</v>
+        <v>131</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>230</v>
+        <v>78</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>231</v>
+        <v>266</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>231</v>
+        <v>266</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>232</v>
+        <v>201</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>233</v>
+        <v>267</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="N34" s="2"/>
+        <v>268</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>269</v>
+      </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="U34" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="V34" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>231</v>
+        <v>266</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>134</v>
+        <v>174</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>235</v>
+        <v>149</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>236</v>
+        <v>270</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="B35" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="C35" s="2"/>
+      <c r="D35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E35" s="2"/>
+      <c r="F35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G35" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K35" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="L35" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q35" s="2"/>
+      <c r="R35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF35" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="AG35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH35" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK35" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="AL35" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="AM35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN35" t="s" s="2">
+        <v>276</v>
       </c>
     </row>
   </sheetData>

--- a/jpcore-r4/develop/StructureDefinition-jp-medication.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medication.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1295" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1255" uniqueCount="237">
   <si>
     <t>Property</t>
   </si>
@@ -127,126 +127,6 @@
   </si>
   <si>
     <t>constraint</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Path</t>
-  </si>
-  <si>
-    <t>Slice Name</t>
-  </si>
-  <si>
-    <t>Alias(s)</t>
-  </si>
-  <si>
-    <t>Label</t>
-  </si>
-  <si>
-    <t>Min</t>
-  </si>
-  <si>
-    <t>Max</t>
-  </si>
-  <si>
-    <t>Must Support?</t>
-  </si>
-  <si>
-    <t>Is Modifier?</t>
-  </si>
-  <si>
-    <t>Is Summary?</t>
-  </si>
-  <si>
-    <t>Type(s)</t>
-  </si>
-  <si>
-    <t>Short</t>
-  </si>
-  <si>
-    <t>Definition</t>
-  </si>
-  <si>
-    <t>Comments</t>
-  </si>
-  <si>
-    <t>Requirements</t>
-  </si>
-  <si>
-    <t>Default Value</t>
-  </si>
-  <si>
-    <t>Meaning When Missing</t>
-  </si>
-  <si>
-    <t>Fixed Value</t>
-  </si>
-  <si>
-    <t>Pattern</t>
-  </si>
-  <si>
-    <t>Example</t>
-  </si>
-  <si>
-    <t>Minimum Value</t>
-  </si>
-  <si>
-    <t>Maximum Value</t>
-  </si>
-  <si>
-    <t>Maximum Length</t>
-  </si>
-  <si>
-    <t>Binding Strength</t>
-  </si>
-  <si>
-    <t>Binding Description</t>
-  </si>
-  <si>
-    <t>Binding Value Set</t>
-  </si>
-  <si>
-    <t>Code</t>
-  </si>
-  <si>
-    <t>Slicing Discriminator</t>
-  </si>
-  <si>
-    <t>Slicing Description</t>
-  </si>
-  <si>
-    <t>Slicing Ordered</t>
-  </si>
-  <si>
-    <t>Slicing Rules</t>
-  </si>
-  <si>
-    <t>Base Path</t>
-  </si>
-  <si>
-    <t>Base Min</t>
-  </si>
-  <si>
-    <t>Base Max</t>
-  </si>
-  <si>
-    <t>Condition(s)</t>
-  </si>
-  <si>
-    <t>Constraint(s)</t>
-  </si>
-  <si>
-    <t>Mapping: Mapping to NCPDP SCRIPT 10.6</t>
-  </si>
-  <si>
-    <t>Mapping: RIM Mapping</t>
-  </si>
-  <si>
-    <t>Mapping: FiveWs Pattern Mapping</t>
-  </si>
-  <si>
-    <t>Mapping: HL7 v2 Mapping</t>
   </si>
   <si>
     <t/>
@@ -1203,7 +1083,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN35"/>
+  <dimension ref="A1:AN34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1216,11 +1096,10 @@
     <col min="2" max="2" width="41.73046875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="13.3046875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="2.2109375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="2.2109375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="2.1640625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="106.484375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1228,4013 +1107,3891 @@
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="15" max="15" width="255.0" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="9.6640625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="92.3828125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="58.87890625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="10.26171875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="30" max="30" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="5.62109375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="33" max="33" width="2.2109375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="2.2109375" customWidth="true" bestFit="true"/>
+    <col min="17" max="17" width="20.703125" customWidth="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="37" max="37" width="195.5390625" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="98.9296875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="16.3984375" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="173.4375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>38</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>39</v>
-      </c>
-      <c r="C1" t="s" s="1">
+      <c r="A1" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B1" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="E1" s="2"/>
+      <c r="F1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G1" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="D1" t="s" s="1">
+      <c r="H1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K1" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="E1" t="s" s="1">
+      <c r="L1" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="F1" t="s" s="1">
+      <c r="M1" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="G1" t="s" s="1">
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q1" s="2"/>
+      <c r="R1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF1" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH1" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ1" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="H1" t="s" s="1">
+      <c r="AK1" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="I1" t="s" s="1">
+      <c r="AL1" t="s" s="2">
         <v>46</v>
       </c>
-      <c r="J1" t="s" s="1">
-        <v>47</v>
-      </c>
-      <c r="K1" t="s" s="1">
-        <v>48</v>
-      </c>
-      <c r="L1" t="s" s="1">
-        <v>49</v>
-      </c>
-      <c r="M1" t="s" s="1">
-        <v>50</v>
-      </c>
-      <c r="N1" t="s" s="1">
-        <v>51</v>
-      </c>
-      <c r="O1" t="s" s="1">
-        <v>52</v>
-      </c>
-      <c r="P1" t="s" s="1">
-        <v>53</v>
-      </c>
-      <c r="Q1" t="s" s="1">
-        <v>54</v>
-      </c>
-      <c r="R1" t="s" s="1">
-        <v>55</v>
-      </c>
-      <c r="S1" t="s" s="1">
-        <v>56</v>
-      </c>
-      <c r="T1" t="s" s="1">
-        <v>57</v>
-      </c>
-      <c r="U1" t="s" s="1">
-        <v>58</v>
-      </c>
-      <c r="V1" t="s" s="1">
-        <v>59</v>
-      </c>
-      <c r="W1" t="s" s="1">
-        <v>60</v>
-      </c>
-      <c r="X1" t="s" s="1">
-        <v>61</v>
-      </c>
-      <c r="Y1" t="s" s="1">
-        <v>62</v>
-      </c>
-      <c r="Z1" t="s" s="1">
-        <v>63</v>
-      </c>
-      <c r="AA1" t="s" s="1">
-        <v>64</v>
-      </c>
-      <c r="AB1" t="s" s="1">
-        <v>65</v>
-      </c>
-      <c r="AC1" t="s" s="1">
-        <v>66</v>
-      </c>
-      <c r="AD1" t="s" s="1">
-        <v>67</v>
-      </c>
-      <c r="AE1" t="s" s="1">
-        <v>68</v>
-      </c>
-      <c r="AF1" t="s" s="1">
-        <v>69</v>
-      </c>
-      <c r="AG1" t="s" s="1">
-        <v>70</v>
-      </c>
-      <c r="AH1" t="s" s="1">
-        <v>71</v>
-      </c>
-      <c r="AI1" t="s" s="1">
-        <v>72</v>
-      </c>
-      <c r="AJ1" t="s" s="1">
-        <v>73</v>
-      </c>
-      <c r="AK1" t="s" s="1">
-        <v>74</v>
-      </c>
-      <c r="AL1" t="s" s="1">
-        <v>75</v>
-      </c>
-      <c r="AM1" t="s" s="1">
-        <v>76</v>
-      </c>
-      <c r="AN1" t="s" s="1">
-        <v>77</v>
+      <c r="AM1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s" s="2">
+        <v>38</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="N2" s="2"/>
+        <v>52</v>
+      </c>
+      <c r="N2" t="s" s="2">
+        <v>53</v>
+      </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>84</v>
+        <v>38</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>85</v>
+        <v>38</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>86</v>
+        <v>38</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AN2" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>87</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>87</v>
+        <v>55</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>90</v>
+        <v>56</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>91</v>
+        <v>57</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="N3" t="s" s="2">
-        <v>93</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>94</v>
+        <v>59</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AM3" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AN3" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>95</v>
+        <v>61</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>95</v>
+        <v>61</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>96</v>
+        <v>62</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>97</v>
+        <v>63</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="N4" s="2"/>
+        <v>64</v>
+      </c>
+      <c r="N4" t="s" s="2">
+        <v>65</v>
+      </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>99</v>
+        <v>66</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AN4" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>89</v>
+        <v>38</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>89</v>
+        <v>38</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>102</v>
+        <v>68</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>103</v>
+        <v>69</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>104</v>
+        <v>70</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>105</v>
+        <v>71</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AN5" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G6" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H6" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I6" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J6" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L6" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="G6" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K6" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="L6" t="s" s="2">
-        <v>109</v>
-      </c>
       <c r="M6" t="s" s="2">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>111</v>
+        <v>81</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>112</v>
+        <v>38</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>113</v>
+        <v>38</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>114</v>
+        <v>38</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>115</v>
+        <v>82</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AN6" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>116</v>
+        <v>84</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>116</v>
+        <v>84</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>117</v>
+        <v>85</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G7" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H7" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I7" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J7" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K7" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="L7" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="M7" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H7" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I7" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J7" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K7" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="L7" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>120</v>
-      </c>
       <c r="N7" t="s" s="2">
-        <v>121</v>
+        <v>89</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>122</v>
+        <v>90</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>88</v>
+        <v>40</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>100</v>
+        <v>38</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>123</v>
+        <v>91</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AN7" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>124</v>
+        <v>92</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>124</v>
+        <v>92</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>125</v>
+        <v>93</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>126</v>
+        <v>94</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>127</v>
+        <v>95</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>128</v>
+        <v>96</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>129</v>
+        <v>97</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>130</v>
+        <v>98</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>131</v>
+        <v>91</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AN8" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>132</v>
+        <v>100</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>132</v>
+        <v>100</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>133</v>
+        <v>93</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>134</v>
+        <v>94</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>135</v>
+        <v>101</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>136</v>
+        <v>102</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="O9" s="2"/>
+        <v>97</v>
+      </c>
+      <c r="O9" t="s" s="2">
+        <v>103</v>
+      </c>
       <c r="P9" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>138</v>
+        <v>104</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>139</v>
+        <v>99</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>131</v>
+        <v>91</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>140</v>
+        <v>105</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>140</v>
+        <v>105</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>133</v>
+        <v>38</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>89</v>
+        <v>38</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>134</v>
+        <v>106</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>141</v>
+        <v>107</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>142</v>
+        <v>107</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="O10" t="s" s="2">
-        <v>143</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>144</v>
+        <v>105</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>139</v>
+        <v>60</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>78</v>
+        <v>110</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>145</v>
+        <v>111</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>145</v>
+        <v>111</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>146</v>
+        <v>112</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>147</v>
+        <v>113</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>147</v>
+        <v>114</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>148</v>
+        <v>115</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>78</v>
+        <v>116</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>78</v>
+        <v>117</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>145</v>
+        <v>111</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>78</v>
+        <v>118</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>149</v>
+        <v>119</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>78</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>151</v>
+        <v>122</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>151</v>
+        <v>122</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>152</v>
+        <v>68</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>153</v>
+        <v>123</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>154</v>
+        <v>124</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>155</v>
+        <v>125</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>156</v>
+        <v>127</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>157</v>
+        <v>128</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>151</v>
+        <v>122</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>158</v>
+        <v>38</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>159</v>
+        <v>129</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>160</v>
+        <v>38</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>161</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>162</v>
+        <v>130</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>162</v>
+        <v>130</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>88</v>
+        <v>39</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>89</v>
+        <v>38</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>108</v>
+        <v>131</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>163</v>
+        <v>132</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>165</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>166</v>
+        <v>38</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>167</v>
+        <v>38</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>168</v>
+        <v>38</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>162</v>
+        <v>130</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>78</v>
+        <v>134</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>169</v>
+        <v>135</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>78</v>
+        <v>136</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>78</v>
+        <v>137</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>170</v>
+        <v>138</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>170</v>
+        <v>138</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>89</v>
+        <v>38</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>171</v>
+        <v>112</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>172</v>
+        <v>139</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="N14" s="2"/>
+        <v>140</v>
+      </c>
+      <c r="N14" t="s" s="2">
+        <v>141</v>
+      </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y14" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="Y14" s="2"/>
       <c r="Z14" t="s" s="2">
-        <v>78</v>
+        <v>142</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>170</v>
+        <v>138</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>174</v>
+        <v>143</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>175</v>
+        <v>144</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>176</v>
+        <v>38</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>177</v>
+        <v>145</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>178</v>
+        <v>146</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>178</v>
+        <v>146</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>179</v>
+        <v>148</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>180</v>
+        <v>149</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>181</v>
+        <v>150</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Q15" s="2"/>
       <c r="R15" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="Y15" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="Y15" t="s" s="2">
+        <v>38</v>
+      </c>
       <c r="Z15" t="s" s="2">
-        <v>182</v>
+        <v>38</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>178</v>
+        <v>146</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>78</v>
+        <v>151</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>100</v>
+        <v>152</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>183</v>
+        <v>38</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>184</v>
+        <v>153</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>185</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>186</v>
+        <v>154</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>186</v>
+        <v>154</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>88</v>
+        <v>40</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>187</v>
+        <v>155</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>188</v>
+        <v>156</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>189</v>
+        <v>157</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>190</v>
+        <v>158</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>186</v>
+        <v>154</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>88</v>
+        <v>40</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>191</v>
+        <v>38</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>192</v>
+        <v>60</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>193</v>
+        <v>159</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>131</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>194</v>
+        <v>160</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>194</v>
+        <v>160</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>195</v>
+        <v>161</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>196</v>
+        <v>162</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>198</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>194</v>
+        <v>164</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>100</v>
+        <v>38</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>199</v>
+        <v>165</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>200</v>
+        <v>166</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>200</v>
+        <v>166</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>88</v>
+        <v>40</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>201</v>
+        <v>94</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>202</v>
+        <v>167</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>203</v>
+        <v>168</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC18" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="AC18" s="2"/>
       <c r="AD18" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>78</v>
+        <v>170</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>204</v>
+        <v>171</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>88</v>
+        <v>40</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>205</v>
+        <v>38</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>206</v>
+        <v>172</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="C19" s="2"/>
+        <v>166</v>
+      </c>
+      <c r="C19" t="s" s="2">
+        <v>173</v>
+      </c>
       <c r="D19" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>134</v>
+        <v>174</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>207</v>
+        <v>175</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>208</v>
+        <v>175</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="AC19" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="AC19" t="s" s="2">
+        <v>38</v>
+      </c>
       <c r="AD19" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>210</v>
+        <v>38</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>211</v>
+        <v>171</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>78</v>
+        <v>151</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>139</v>
+        <v>99</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>212</v>
+        <v>176</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="C20" t="s" s="2">
-        <v>213</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>78</v>
+        <v>177</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>214</v>
+        <v>94</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>215</v>
+        <v>178</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
+        <v>179</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="O20" t="s" s="2">
+        <v>103</v>
+      </c>
       <c r="P20" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Q20" s="2"/>
       <c r="R20" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>211</v>
+        <v>180</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>191</v>
+        <v>38</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>139</v>
+        <v>99</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>216</v>
+        <v>181</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>216</v>
+        <v>181</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>217</v>
+        <v>38</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>89</v>
+        <v>38</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>89</v>
+        <v>38</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>134</v>
+        <v>112</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>218</v>
+        <v>182</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>219</v>
+        <v>183</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>137</v>
+        <v>184</v>
       </c>
       <c r="O21" t="s" s="2">
-        <v>143</v>
+        <v>185</v>
       </c>
       <c r="P21" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>220</v>
+        <v>181</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>139</v>
+        <v>60</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>78</v>
+        <v>118</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>131</v>
+        <v>186</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>78</v>
+        <v>187</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>221</v>
+        <v>188</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>221</v>
+        <v>188</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>88</v>
+        <v>39</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>152</v>
+        <v>189</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>222</v>
+        <v>190</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>224</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
-        <v>225</v>
+        <v>192</v>
       </c>
       <c r="P22" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>221</v>
+        <v>188</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>88</v>
+        <v>39</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>158</v>
+        <v>38</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>226</v>
+        <v>193</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>227</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>228</v>
+        <v>194</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>228</v>
+        <v>194</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>229</v>
+        <v>147</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>230</v>
+        <v>195</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="N23" s="2"/>
-      <c r="O23" t="s" s="2">
-        <v>232</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>228</v>
+        <v>194</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>78</v>
+        <v>151</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>100</v>
+        <v>152</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>233</v>
+        <v>153</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>234</v>
+        <v>198</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>234</v>
+        <v>198</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>88</v>
+        <v>39</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>187</v>
+        <v>161</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>235</v>
+        <v>162</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>237</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="N24" s="2"/>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>234</v>
+        <v>164</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>191</v>
+        <v>38</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>192</v>
+        <v>38</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>193</v>
+        <v>165</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>131</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>238</v>
+        <v>199</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>238</v>
+        <v>199</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>88</v>
+        <v>40</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>201</v>
+        <v>94</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>202</v>
+        <v>95</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="N25" s="2"/>
+        <v>200</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>97</v>
+      </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Q25" s="2"/>
       <c r="R25" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>78</v>
+        <v>169</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>78</v>
+        <v>201</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>78</v>
+        <v>170</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>204</v>
+        <v>171</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>88</v>
+        <v>40</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>205</v>
+        <v>165</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>239</v>
+        <v>202</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="C26" s="2"/>
+        <v>199</v>
+      </c>
+      <c r="C26" t="s" s="2">
+        <v>203</v>
+      </c>
       <c r="D26" t="s" s="2">
-        <v>133</v>
+        <v>38</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>134</v>
+        <v>204</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>135</v>
+        <v>205</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>137</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="N26" s="2"/>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>209</v>
+        <v>38</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>241</v>
+        <v>38</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>210</v>
+        <v>38</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>211</v>
+        <v>171</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>139</v>
+        <v>99</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>205</v>
+        <v>38</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>242</v>
+        <v>207</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="C27" t="s" s="2">
-        <v>243</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>244</v>
+        <v>208</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>245</v>
+        <v>209</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="N27" s="2"/>
+        <v>210</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>211</v>
+      </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Q27" s="2"/>
       <c r="R27" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>78</v>
+        <v>151</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>139</v>
+        <v>213</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>78</v>
+        <v>214</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>78</v>
+        <v>215</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>247</v>
+        <v>216</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>247</v>
+        <v>216</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>248</v>
+        <v>208</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>249</v>
+        <v>217</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>250</v>
+        <v>210</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>251</v>
+        <v>211</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>252</v>
+        <v>218</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>191</v>
+        <v>151</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>253</v>
+        <v>213</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>254</v>
+        <v>214</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>255</v>
+        <v>215</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>256</v>
+        <v>219</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>256</v>
+        <v>219</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>248</v>
+        <v>155</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>257</v>
+        <v>220</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>251</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Q29" s="2"/>
       <c r="R29" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>258</v>
+        <v>219</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>191</v>
+        <v>38</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>253</v>
+        <v>60</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>78</v>
+        <v>134</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>254</v>
+        <v>222</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>255</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>259</v>
+        <v>223</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>259</v>
+        <v>223</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>195</v>
+        <v>161</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>260</v>
+        <v>162</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>261</v>
+        <v>163</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Q30" s="2"/>
       <c r="R30" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="U30" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="V30" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>259</v>
+        <v>164</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>100</v>
+        <v>38</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>174</v>
+        <v>38</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>262</v>
+        <v>165</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>263</v>
+        <v>224</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>263</v>
+        <v>224</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>88</v>
+        <v>40</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>201</v>
+        <v>94</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>202</v>
+        <v>95</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="N31" s="2"/>
+        <v>200</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>97</v>
+      </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="U31" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="V31" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>204</v>
+        <v>171</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>88</v>
+        <v>40</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>205</v>
+        <v>165</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>264</v>
+        <v>225</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>264</v>
+        <v>225</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>133</v>
+        <v>177</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>134</v>
+        <v>94</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>135</v>
+        <v>178</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>240</v>
+        <v>179</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="O32" s="2"/>
+        <v>97</v>
+      </c>
+      <c r="O32" t="s" s="2">
+        <v>103</v>
+      </c>
       <c r="P32" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Q32" s="2"/>
       <c r="R32" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="U32" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="V32" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>211</v>
+        <v>180</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>139</v>
+        <v>99</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>205</v>
+        <v>91</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>265</v>
+        <v>226</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>265</v>
+        <v>226</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>217</v>
+        <v>38</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>89</v>
+        <v>38</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>89</v>
+        <v>38</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>134</v>
+        <v>161</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="O33" t="s" s="2">
-        <v>143</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="U33" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="V33" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>139</v>
+        <v>60</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>78</v>
+        <v>134</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>78</v>
+        <v>230</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>266</v>
+        <v>231</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>266</v>
+        <v>231</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>201</v>
+        <v>232</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>267</v>
+        <v>233</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>269</v>
-      </c>
+        <v>234</v>
+      </c>
+      <c r="N34" s="2"/>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="U34" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="V34" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>266</v>
+        <v>231</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>174</v>
+        <v>134</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>149</v>
+        <v>235</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="B35" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="C35" s="2"/>
-      <c r="D35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E35" s="2"/>
-      <c r="F35" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G35" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K35" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="L35" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="N35" s="2"/>
-      <c r="O35" s="2"/>
-      <c r="P35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q35" s="2"/>
-      <c r="R35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF35" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="AG35" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH35" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ35" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK35" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="AL35" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="AM35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN35" t="s" s="2">
-        <v>276</v>
+        <v>236</v>
       </c>
     </row>
   </sheetData>

--- a/jpcore-r4/develop/StructureDefinition-jp-medication.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medication.xlsx
@@ -270,7 +270,7 @@
   </si>
   <si>
     <t>dom-2:リソースが別のリソースに含まれている場合、ネストされたリソースを含めてはなりません / If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:リソースが別のリソースに含まれている場合、それはリソースの他の場所から参照されるか、含有リソースを参照するものとします / If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:リソースが別のリソースに含まれている場合、meta.versionidまたはmeta.lastupdatedを持たないものとします / If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:別のリソースにリソースが含まれている場合、セキュリティラベルはありません / If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:リソースには、堅牢な管理のための叙述(Narative)が必要です / A resource should have narrative for robust management {text.`div`.exists()}</t>
+dom-3:リソースが別のリソースに含まれている場合、それはリソースの他の場所から参照されるか、含有リソースを参照するものとします / If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:リソースが別のリソースに含まれている場合、meta.versionidもmeta.lastupdatedも持ってはならない。 / If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:別のリソースにリソースが含まれている場合、セキュリティラベルはありません / If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:リソースには、堅牢な管理のための叙述(Narative)が必要です / A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>NewRx/MedicationPrescribed
--- a/jpcore-r4/develop/StructureDefinition-jp-medication.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medication.xlsx
@@ -69,7 +69,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>FHIR Japanese implementation research working group in Japan Association of Medical Informatics (JAMI) (http://jpfhir.jp, office@hlfhir.jp)</t>
   </si>
   <si>
     <t>Jurisdiction</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medication.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medication.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.2-dev</t>
+    <t>1.2.0-dev</t>
   </si>
   <si>
     <t>Name</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medication.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medication.xlsx
@@ -270,7 +270,7 @@
   </si>
   <si>
     <t>dom-2:リソースが別のリソースに含まれている場合、ネストされたリソースを含めてはなりません / If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:リソースが別のリソースに含まれている場合、それはリソースの他の場所から参照されるか、含有リソースを参照するものとします / If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:リソースが別のリソースに含まれている場合、meta.versionidもmeta.lastupdatedも持ってはならない。 / If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:別のリソースにリソースが含まれている場合、セキュリティラベルはありません / If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:リソースには、堅牢な管理のための叙述(Narative)が必要です / A resource should have narrative for robust management {text.`div`.exists()}</t>
+dom-3:リソースが別のリソースに含まれている場合、それはリソースの他の場所から参照されるか、含有リソースを参照するものとします / If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:リソースが別のリソースに含まれている場合、meta.versionidまたはmeta.lastupdatedを持たないものとします / If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:別のリソースにリソースが含まれている場合、セキュリティラベルはありません / If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:リソースには、堅牢な管理のための叙述(Narative)が必要です / A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>NewRx/MedicationPrescribed
--- a/jpcore-r4/develop/StructureDefinition-jp-medication.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medication.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1295" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1295" uniqueCount="278">
   <si>
     <t>Property</t>
   </si>
@@ -775,7 +775,7 @@
     <t>この薬剤中にどの程度の物質が含まれているかを示す。たとえば、1錠あたり250mgなど。これは分子が250mgで分母が1錠である比率を表現している。</t>
   </si>
   <si>
-    <t>Ratioデータ型は2つの数字の関係で示され、Quantityや一般的な単位で適切に表現できない関係を表すときにのみ用いられる。分母の値が「1」で固定されているような値であれば、QuantityがRatioの代わりに用いられるべきである。</t>
+    <t>1回に使用される薬剤料を示すため、denominatorは1回に固定される。</t>
   </si>
   <si>
     <t>Medication.ingredient.strength.id</t>
@@ -839,6 +839,14 @@
   </si>
   <si>
     <t>パッケージ量</t>
+  </si>
+  <si>
+    <t>&lt;valueQuantity xmlns="http://hl7.org/fhir"&gt;
+  &lt;value value="1"/&gt;
+  &lt;unit value="回"/&gt;
+  &lt;system value="http://jpfhir.jp/fhir/core/ValueSet/JP_MedicationUnitMERIT9_VS"/&gt;
+  &lt;code value="TIME"/&gt;
+&lt;/valueQuantity&gt;</t>
   </si>
   <si>
     <t>Ratio.denominator</t>
@@ -4491,7 +4499,7 @@
         <v>78</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>78</v>
+        <v>258</v>
       </c>
       <c r="T29" t="s" s="2">
         <v>78</v>
@@ -4530,7 +4538,7 @@
         <v>78</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>79</v>
@@ -4559,10 +4567,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4588,10 +4596,10 @@
         <v>195</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -4642,7 +4650,7 @@
         <v>78</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>79</v>
@@ -4660,7 +4668,7 @@
         <v>174</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>78</v>
@@ -4671,10 +4679,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4783,10 +4791,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -4897,10 +4905,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5013,10 +5021,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5042,13 +5050,13 @@
         <v>201</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -5098,7 +5106,7 @@
         <v>78</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>79</v>
@@ -5122,15 +5130,15 @@
         <v>78</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5153,13 +5161,13 @@
         <v>78</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -5210,7 +5218,7 @@
         <v>78</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>79</v>
@@ -5228,13 +5236,13 @@
         <v>174</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
   </sheetData>

--- a/jpcore-r4/develop/StructureDefinition-jp-medication.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medication.xlsx
@@ -4496,10 +4496,10 @@
       </c>
       <c r="Q29" s="2"/>
       <c r="R29" t="s" s="2">
-        <v>78</v>
+        <v>258</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>258</v>
+        <v>78</v>
       </c>
       <c r="T29" t="s" s="2">
         <v>78</v>
